--- a/zhuoyue-boyifu/柏奕府销售表.xlsx
+++ b/zhuoyue-boyifu/柏奕府销售表.xlsx
@@ -399,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U638"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
@@ -513,7 +513,7 @@
         <v>29.2</v>
       </c>
       <c r="J2">
-        <v>117.66</v>
+        <v>118</v>
       </c>
       <c r="N2">
         <v>81748</v>
@@ -560,7 +560,7 @@
         <v>27.35</v>
       </c>
       <c r="J3">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P3" t="str">
         <v>#488fea</v>
@@ -604,7 +604,7 @@
         <v>29.2</v>
       </c>
       <c r="J4">
-        <v>117.66</v>
+        <v>118</v>
       </c>
       <c r="N4">
         <v>82448</v>
@@ -651,7 +651,7 @@
         <v>27.35</v>
       </c>
       <c r="J5">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P5" t="str">
         <v>#488fea</v>
@@ -695,7 +695,7 @@
         <v>27.17</v>
       </c>
       <c r="J6">
-        <v>109.49</v>
+        <v>109</v>
       </c>
       <c r="P6" t="str">
         <v>#488fea</v>
@@ -739,7 +739,7 @@
         <v>29.2</v>
       </c>
       <c r="J7">
-        <v>117.66</v>
+        <v>118</v>
       </c>
       <c r="N7">
         <v>82448</v>
@@ -786,7 +786,7 @@
         <v>27.17</v>
       </c>
       <c r="J8">
-        <v>109.49</v>
+        <v>109</v>
       </c>
       <c r="P8" t="str">
         <v>#488fea</v>
@@ -830,7 +830,7 @@
         <v>29.2</v>
       </c>
       <c r="J9">
-        <v>117.66</v>
+        <v>118</v>
       </c>
       <c r="N9">
         <v>82448</v>
@@ -877,7 +877,7 @@
         <v>27.35</v>
       </c>
       <c r="J10">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P10" t="str">
         <v>#488fea</v>
@@ -921,7 +921,7 @@
         <v>29.2</v>
       </c>
       <c r="J11">
-        <v>117.66</v>
+        <v>118</v>
       </c>
       <c r="N11">
         <v>82398</v>
@@ -968,7 +968,7 @@
         <v>27.35</v>
       </c>
       <c r="J12">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P12" t="str">
         <v>#488fea</v>
@@ -1012,7 +1012,7 @@
         <v>27.17</v>
       </c>
       <c r="J13">
-        <v>109.49</v>
+        <v>109</v>
       </c>
       <c r="P13" t="str">
         <v>#488fea</v>
@@ -1056,7 +1056,7 @@
         <v>29.2</v>
       </c>
       <c r="J14">
-        <v>117.66</v>
+        <v>118</v>
       </c>
       <c r="N14">
         <v>82298</v>
@@ -1103,7 +1103,7 @@
         <v>29.2</v>
       </c>
       <c r="J15">
-        <v>117.66</v>
+        <v>118</v>
       </c>
       <c r="N15">
         <v>82198</v>
@@ -1150,7 +1150,7 @@
         <v>27.35</v>
       </c>
       <c r="J16">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P16" t="str">
         <v>#488fea</v>
@@ -1194,7 +1194,7 @@
         <v>27.17</v>
       </c>
       <c r="J17">
-        <v>109.49</v>
+        <v>109</v>
       </c>
       <c r="P17" t="str">
         <v>#488fea</v>
@@ -1238,7 +1238,7 @@
         <v>27.35</v>
       </c>
       <c r="J18">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P18" t="str">
         <v>#488fea</v>
@@ -1282,7 +1282,7 @@
         <v>27.17</v>
       </c>
       <c r="J19">
-        <v>109.49</v>
+        <v>109</v>
       </c>
       <c r="P19" t="str">
         <v>#488fea</v>
@@ -1326,7 +1326,7 @@
         <v>31.19</v>
       </c>
       <c r="J20">
-        <v>125.7</v>
+        <v>126</v>
       </c>
       <c r="N20">
         <v>78264</v>
@@ -1373,7 +1373,7 @@
         <v>29.2</v>
       </c>
       <c r="J21">
-        <v>117.66</v>
+        <v>118</v>
       </c>
       <c r="N21">
         <v>81628.02</v>
@@ -1420,7 +1420,7 @@
         <v>27.35</v>
       </c>
       <c r="J22">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P22" t="str">
         <v>#488fea</v>
@@ -1464,7 +1464,7 @@
         <v>27.17</v>
       </c>
       <c r="J23">
-        <v>109.49</v>
+        <v>109</v>
       </c>
       <c r="P23" t="str">
         <v>#488fea</v>
@@ -1508,7 +1508,7 @@
         <v>29.2</v>
       </c>
       <c r="J24">
-        <v>117.66</v>
+        <v>118</v>
       </c>
       <c r="N24">
         <v>81628.02</v>
@@ -1555,7 +1555,7 @@
         <v>27.35</v>
       </c>
       <c r="J25">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P25" t="str">
         <v>#488fea</v>
@@ -1599,7 +1599,7 @@
         <v>27.17</v>
       </c>
       <c r="J26">
-        <v>109.49</v>
+        <v>109</v>
       </c>
       <c r="P26" t="str">
         <v>#488fea</v>
@@ -1643,7 +1643,7 @@
         <v>29.2</v>
       </c>
       <c r="J27">
-        <v>117.66</v>
+        <v>118</v>
       </c>
       <c r="N27">
         <v>81498</v>
@@ -1690,7 +1690,7 @@
         <v>27.35</v>
       </c>
       <c r="J28">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P28" t="str">
         <v>#488fea</v>
@@ -1734,7 +1734,7 @@
         <v>29.2</v>
       </c>
       <c r="J29">
-        <v>117.66</v>
+        <v>118</v>
       </c>
       <c r="N29">
         <v>81398</v>
@@ -1781,7 +1781,7 @@
         <v>27.35</v>
       </c>
       <c r="J30">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P30" t="str">
         <v>#488fea</v>
@@ -1825,7 +1825,7 @@
         <v>29.2</v>
       </c>
       <c r="J31">
-        <v>117.66</v>
+        <v>118</v>
       </c>
       <c r="P31" t="str">
         <v>#488fea</v>
@@ -1869,7 +1869,7 @@
         <v>27.35</v>
       </c>
       <c r="J32">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P32" t="str">
         <v>#488fea</v>
@@ -1913,7 +1913,7 @@
         <v>27.35</v>
       </c>
       <c r="J33">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P33" t="str">
         <v>#488fea</v>
@@ -1957,7 +1957,7 @@
         <v>27.35</v>
       </c>
       <c r="J34">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P34" t="str">
         <v>#488fea</v>
@@ -2001,7 +2001,7 @@
         <v>29.2</v>
       </c>
       <c r="J35">
-        <v>117.66</v>
+        <v>118</v>
       </c>
       <c r="N35">
         <v>80598</v>
@@ -2048,7 +2048,7 @@
         <v>27.35</v>
       </c>
       <c r="J36">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P36" t="str">
         <v>#488fea</v>
@@ -2092,7 +2092,7 @@
         <v>31.18</v>
       </c>
       <c r="J37">
-        <v>125.63</v>
+        <v>126</v>
       </c>
       <c r="N37">
         <v>76766.37</v>
@@ -2139,7 +2139,7 @@
         <v>29.2</v>
       </c>
       <c r="J38">
-        <v>117.66</v>
+        <v>118</v>
       </c>
       <c r="N38">
         <v>80398</v>
@@ -2186,7 +2186,7 @@
         <v>30.41</v>
       </c>
       <c r="J39">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N39">
         <v>80532.13</v>
@@ -2233,7 +2233,7 @@
         <v>28.47</v>
       </c>
       <c r="J40">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N40">
         <v>81226.11</v>
@@ -2280,7 +2280,7 @@
         <v>26.66</v>
       </c>
       <c r="J41">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="N41">
         <v>75141.9</v>
@@ -2327,7 +2327,7 @@
         <v>26.48</v>
       </c>
       <c r="J42">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="N42">
         <v>75186.56</v>
@@ -2374,7 +2374,7 @@
         <v>26.48</v>
       </c>
       <c r="J43">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="N43">
         <v>74886.56</v>
@@ -2421,7 +2421,7 @@
         <v>30.41</v>
       </c>
       <c r="J44">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N44">
         <v>81540.14</v>
@@ -2468,7 +2468,7 @@
         <v>28.47</v>
       </c>
       <c r="J45">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N45">
         <v>82226.11</v>
@@ -2515,7 +2515,7 @@
         <v>26.66</v>
       </c>
       <c r="J46">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P46" t="str">
         <v>#488fea</v>
@@ -2559,7 +2559,7 @@
         <v>26.48</v>
       </c>
       <c r="J47">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P47" t="str">
         <v>#488fea</v>
@@ -2603,7 +2603,7 @@
         <v>26.48</v>
       </c>
       <c r="J48">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P48" t="str">
         <v>#488fea</v>
@@ -2647,7 +2647,7 @@
         <v>30.41</v>
       </c>
       <c r="J49">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P49" t="str">
         <v>#488fea</v>
@@ -2691,7 +2691,7 @@
         <v>28.47</v>
       </c>
       <c r="J50">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N50">
         <v>82176.11</v>
@@ -2738,7 +2738,7 @@
         <v>26.66</v>
       </c>
       <c r="J51">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P51" t="str">
         <v>#488fea</v>
@@ -2782,7 +2782,7 @@
         <v>26.48</v>
       </c>
       <c r="J52">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="N52">
         <v>76156.56</v>
@@ -2829,7 +2829,7 @@
         <v>26.48</v>
       </c>
       <c r="J53">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P53" t="str">
         <v>#488fea</v>
@@ -2870,7 +2870,7 @@
         <v>30.41</v>
       </c>
       <c r="J54">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N54">
         <v>81390.14</v>
@@ -2917,7 +2917,7 @@
         <v>28.47</v>
       </c>
       <c r="J55">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N55">
         <v>82076.11</v>
@@ -2964,7 +2964,7 @@
         <v>26.66</v>
       </c>
       <c r="J56">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P56" t="str">
         <v>#488fea</v>
@@ -3008,7 +3008,7 @@
         <v>26.48</v>
       </c>
       <c r="J57">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="N57">
         <v>76096.56</v>
@@ -3055,7 +3055,7 @@
         <v>26.48</v>
       </c>
       <c r="J58">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="N58">
         <v>75796.56</v>
@@ -3102,7 +3102,7 @@
         <v>30.41</v>
       </c>
       <c r="J59">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N59">
         <v>81390.14</v>
@@ -3149,7 +3149,7 @@
         <v>28.47</v>
       </c>
       <c r="J60">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N60">
         <v>82076.11</v>
@@ -3196,7 +3196,7 @@
         <v>26.66</v>
       </c>
       <c r="J61">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P61" t="str">
         <v>#488fea</v>
@@ -3240,7 +3240,7 @@
         <v>26.48</v>
       </c>
       <c r="J62">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="N62">
         <v>76096.56</v>
@@ -3287,7 +3287,7 @@
         <v>26.48</v>
       </c>
       <c r="J63">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="N63">
         <v>75796.56</v>
@@ -3334,7 +3334,7 @@
         <v>30.41</v>
       </c>
       <c r="J64">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N64">
         <v>81340.14</v>
@@ -3381,7 +3381,7 @@
         <v>28.47</v>
       </c>
       <c r="J65">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N65">
         <v>82026.11</v>
@@ -3428,7 +3428,7 @@
         <v>26.66</v>
       </c>
       <c r="J66">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P66" t="str">
         <v>#488fea</v>
@@ -3472,7 +3472,7 @@
         <v>26.48</v>
       </c>
       <c r="J67">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P67" t="str">
         <v>#488fea</v>
@@ -3516,7 +3516,7 @@
         <v>26.48</v>
       </c>
       <c r="J68">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P68" t="str">
         <v>#488fea</v>
@@ -3560,7 +3560,7 @@
         <v>30.41</v>
       </c>
       <c r="J69">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N69">
         <v>81290.14</v>
@@ -3607,7 +3607,7 @@
         <v>28.47</v>
       </c>
       <c r="J70">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N70">
         <v>81976.11</v>
@@ -3654,7 +3654,7 @@
         <v>26.66</v>
       </c>
       <c r="J71">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P71" t="str">
         <v>#488fea</v>
@@ -3698,7 +3698,7 @@
         <v>26.48</v>
       </c>
       <c r="J72">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P72" t="str">
         <v>#488fea</v>
@@ -3742,7 +3742,7 @@
         <v>26.48</v>
       </c>
       <c r="J73">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="N73">
         <v>75736.56</v>
@@ -3789,7 +3789,7 @@
         <v>30.41</v>
       </c>
       <c r="J74">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N74">
         <v>81240.14</v>
@@ -3836,7 +3836,7 @@
         <v>28.47</v>
       </c>
       <c r="J75">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N75">
         <v>81926.11</v>
@@ -3883,7 +3883,7 @@
         <v>26.66</v>
       </c>
       <c r="J76">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P76" t="str">
         <v>#488fea</v>
@@ -3927,7 +3927,7 @@
         <v>26.48</v>
       </c>
       <c r="J77">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P77" t="str">
         <v>#488fea</v>
@@ -3971,7 +3971,7 @@
         <v>26.48</v>
       </c>
       <c r="J78">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="N78">
         <v>75706.56</v>
@@ -4018,7 +4018,7 @@
         <v>30.41</v>
       </c>
       <c r="J79">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N79">
         <v>81190.14</v>
@@ -4065,7 +4065,7 @@
         <v>28.47</v>
       </c>
       <c r="J80">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N80">
         <v>81876.11</v>
@@ -4112,7 +4112,7 @@
         <v>26.66</v>
       </c>
       <c r="J81">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P81" t="str">
         <v>#488fea</v>
@@ -4156,7 +4156,7 @@
         <v>26.48</v>
       </c>
       <c r="J82">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P82" t="str">
         <v>#488fea</v>
@@ -4200,7 +4200,7 @@
         <v>26.48</v>
       </c>
       <c r="J83">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="N83">
         <v>75656.56</v>
@@ -4247,7 +4247,7 @@
         <v>30.41</v>
       </c>
       <c r="J84">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N84">
         <v>81090.14</v>
@@ -4294,7 +4294,7 @@
         <v>28.47</v>
       </c>
       <c r="J85">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N85">
         <v>81776.11</v>
@@ -4341,7 +4341,7 @@
         <v>26.66</v>
       </c>
       <c r="J86">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P86" t="str">
         <v>#488fea</v>
@@ -4385,7 +4385,7 @@
         <v>26.48</v>
       </c>
       <c r="J87">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P87" t="str">
         <v>#488fea</v>
@@ -4429,7 +4429,7 @@
         <v>26.48</v>
       </c>
       <c r="J88">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P88" t="str">
         <v>#488fea</v>
@@ -4473,7 +4473,7 @@
         <v>30.41</v>
       </c>
       <c r="J89">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P89" t="str">
         <v>#488fea</v>
@@ -4514,7 +4514,7 @@
         <v>28.47</v>
       </c>
       <c r="J90">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N90">
         <v>81676.11</v>
@@ -4561,7 +4561,7 @@
         <v>26.66</v>
       </c>
       <c r="J91">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P91" t="str">
         <v>#488fea</v>
@@ -4605,7 +4605,7 @@
         <v>26.48</v>
       </c>
       <c r="J92">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P92" t="str">
         <v>#488fea</v>
@@ -4649,7 +4649,7 @@
         <v>26.48</v>
       </c>
       <c r="J93">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="N93">
         <v>75556.56</v>
@@ -4696,7 +4696,7 @@
         <v>30.41</v>
       </c>
       <c r="J94">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P94" t="str">
         <v>#488fea</v>
@@ -4740,7 +4740,7 @@
         <v>28.47</v>
       </c>
       <c r="J95">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N95">
         <v>81576.11</v>
@@ -4787,7 +4787,7 @@
         <v>26.66</v>
       </c>
       <c r="J96">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P96" t="str">
         <v>#488fea</v>
@@ -4831,7 +4831,7 @@
         <v>26.48</v>
       </c>
       <c r="J97">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P97" t="str">
         <v>#488fea</v>
@@ -4875,7 +4875,7 @@
         <v>26.48</v>
       </c>
       <c r="J98">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P98" t="str">
         <v>#488fea</v>
@@ -4919,7 +4919,7 @@
         <v>30.41</v>
       </c>
       <c r="J99">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N99">
         <v>80790.14</v>
@@ -4966,7 +4966,7 @@
         <v>28.47</v>
       </c>
       <c r="J100">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N100">
         <v>81476.11</v>
@@ -5013,7 +5013,7 @@
         <v>26.66</v>
       </c>
       <c r="J101">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P101" t="str">
         <v>#488fea</v>
@@ -5057,7 +5057,7 @@
         <v>26.48</v>
       </c>
       <c r="J102">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P102" t="str">
         <v>#488fea</v>
@@ -5101,7 +5101,7 @@
         <v>26.48</v>
       </c>
       <c r="J103">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P103" t="str">
         <v>#488fea</v>
@@ -5145,7 +5145,7 @@
         <v>30.41</v>
       </c>
       <c r="J104">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N104">
         <v>80690.14</v>
@@ -5192,7 +5192,7 @@
         <v>28.47</v>
       </c>
       <c r="J105">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N105">
         <v>81276.11</v>
@@ -5239,7 +5239,7 @@
         <v>26.66</v>
       </c>
       <c r="J106">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P106" t="str">
         <v>#488fea</v>
@@ -5283,7 +5283,7 @@
         <v>26.48</v>
       </c>
       <c r="J107">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P107" t="str">
         <v>#488fea</v>
@@ -5327,7 +5327,7 @@
         <v>26.48</v>
       </c>
       <c r="J108">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P108" t="str">
         <v>#488fea</v>
@@ -5371,7 +5371,7 @@
         <v>30.41</v>
       </c>
       <c r="J109">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P109" t="str">
         <v>#488fea</v>
@@ -5415,7 +5415,7 @@
         <v>28.47</v>
       </c>
       <c r="J110">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N110">
         <v>81276.11</v>
@@ -5462,7 +5462,7 @@
         <v>26.66</v>
       </c>
       <c r="J111">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P111" t="str">
         <v>#488fea</v>
@@ -5506,7 +5506,7 @@
         <v>26.48</v>
       </c>
       <c r="J112">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P112" t="str">
         <v>#488fea</v>
@@ -5550,7 +5550,7 @@
         <v>26.48</v>
       </c>
       <c r="J113">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P113" t="str">
         <v>#488fea</v>
@@ -5594,7 +5594,7 @@
         <v>30.41</v>
       </c>
       <c r="J114">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P114" t="str">
         <v>#488fea</v>
@@ -5635,7 +5635,7 @@
         <v>28.47</v>
       </c>
       <c r="J115">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N115">
         <v>81176.11</v>
@@ -5682,7 +5682,7 @@
         <v>26.66</v>
       </c>
       <c r="J116">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P116" t="str">
         <v>#488fea</v>
@@ -5726,7 +5726,7 @@
         <v>26.48</v>
       </c>
       <c r="J117">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P117" t="str">
         <v>#488fea</v>
@@ -5770,7 +5770,7 @@
         <v>26.48</v>
       </c>
       <c r="J118">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="N118">
         <v>75306.56</v>
@@ -5817,7 +5817,7 @@
         <v>30.41</v>
       </c>
       <c r="J119">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P119" t="str">
         <v>#488fea</v>
@@ -5861,7 +5861,7 @@
         <v>28.47</v>
       </c>
       <c r="J120">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N120">
         <v>80976.11</v>
@@ -5908,7 +5908,7 @@
         <v>26.66</v>
       </c>
       <c r="J121">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P121" t="str">
         <v>#488fea</v>
@@ -5952,7 +5952,7 @@
         <v>26.48</v>
       </c>
       <c r="J122">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P122" t="str">
         <v>#488fea</v>
@@ -5996,7 +5996,7 @@
         <v>26.48</v>
       </c>
       <c r="J123">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P123" t="str">
         <v>#488fea</v>
@@ -6040,7 +6040,7 @@
         <v>30.41</v>
       </c>
       <c r="J124">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P124" t="str">
         <v>#488fea</v>
@@ -6084,7 +6084,7 @@
         <v>28.47</v>
       </c>
       <c r="J125">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N125">
         <v>80876.11</v>
@@ -6131,7 +6131,7 @@
         <v>26.66</v>
       </c>
       <c r="J126">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P126" t="str">
         <v>#488fea</v>
@@ -6175,7 +6175,7 @@
         <v>26.48</v>
       </c>
       <c r="J127">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P127" t="str">
         <v>#488fea</v>
@@ -6219,7 +6219,7 @@
         <v>26.48</v>
       </c>
       <c r="J128">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P128" t="str">
         <v>#488fea</v>
@@ -6263,7 +6263,7 @@
         <v>30.41</v>
       </c>
       <c r="J129">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P129" t="str">
         <v>#488fea</v>
@@ -6307,7 +6307,7 @@
         <v>28.47</v>
       </c>
       <c r="J130">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N130">
         <v>80776.11</v>
@@ -6354,7 +6354,7 @@
         <v>26.66</v>
       </c>
       <c r="J131">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P131" t="str">
         <v>#488fea</v>
@@ -6398,7 +6398,7 @@
         <v>26.48</v>
       </c>
       <c r="J132">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P132" t="str">
         <v>#488fea</v>
@@ -6442,7 +6442,7 @@
         <v>26.48</v>
       </c>
       <c r="J133">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P133" t="str">
         <v>#488fea</v>
@@ -6486,7 +6486,7 @@
         <v>30.41</v>
       </c>
       <c r="J134">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N134">
         <v>79966.12</v>
@@ -6533,7 +6533,7 @@
         <v>28.47</v>
       </c>
       <c r="J135">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N135">
         <v>80676.11</v>
@@ -6580,7 +6580,7 @@
         <v>26.66</v>
       </c>
       <c r="J136">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P136" t="str">
         <v>#488fea</v>
@@ -6624,7 +6624,7 @@
         <v>26.48</v>
       </c>
       <c r="J137">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P137" t="str">
         <v>#488fea</v>
@@ -6668,7 +6668,7 @@
         <v>26.48</v>
       </c>
       <c r="J138">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P138" t="str">
         <v>#488fea</v>
@@ -6712,7 +6712,7 @@
         <v>30.4</v>
       </c>
       <c r="J139">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N139">
         <v>79867.1</v>
@@ -6759,7 +6759,7 @@
         <v>28.47</v>
       </c>
       <c r="J140">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N140">
         <v>80524.79</v>
@@ -6806,7 +6806,7 @@
         <v>26.67</v>
       </c>
       <c r="J141">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P141" t="str">
         <v>#488fea</v>
@@ -6850,7 +6850,7 @@
         <v>26.43</v>
       </c>
       <c r="J142">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P142" t="str">
         <v>#488fea</v>
@@ -6894,7 +6894,7 @@
         <v>26.43</v>
       </c>
       <c r="J143">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P143" t="str">
         <v>#488fea</v>
@@ -6938,7 +6938,7 @@
         <v>30.4</v>
       </c>
       <c r="J144">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P144" t="str">
         <v>#488fea</v>
@@ -6982,7 +6982,7 @@
         <v>28.47</v>
       </c>
       <c r="J145">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N145">
         <v>80424.79</v>
@@ -7029,7 +7029,7 @@
         <v>26.67</v>
       </c>
       <c r="J146">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P146" t="str">
         <v>#488fea</v>
@@ -7073,7 +7073,7 @@
         <v>26.43</v>
       </c>
       <c r="J147">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P147" t="str">
         <v>#488fea</v>
@@ -7117,7 +7117,7 @@
         <v>26.43</v>
       </c>
       <c r="J148">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P148" t="str">
         <v>#488fea</v>
@@ -7161,7 +7161,7 @@
         <v>30.4</v>
       </c>
       <c r="J149">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P149" t="str">
         <v>#488fea</v>
@@ -7205,7 +7205,7 @@
         <v>28.47</v>
       </c>
       <c r="J150">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N150">
         <v>80224.79</v>
@@ -7252,7 +7252,7 @@
         <v>26.67</v>
       </c>
       <c r="J151">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P151" t="str">
         <v>#488fea</v>
@@ -7296,7 +7296,7 @@
         <v>26.43</v>
       </c>
       <c r="J152">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P152" t="str">
         <v>#488fea</v>
@@ -7340,7 +7340,7 @@
         <v>26.43</v>
       </c>
       <c r="J153">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P153" t="str">
         <v>#488fea</v>
@@ -7384,7 +7384,7 @@
         <v>30.4</v>
       </c>
       <c r="J154">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N154">
         <v>79567.1</v>
@@ -7431,7 +7431,7 @@
         <v>28.47</v>
       </c>
       <c r="J155">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N155">
         <v>80224.79</v>
@@ -7478,7 +7478,7 @@
         <v>26.67</v>
       </c>
       <c r="J156">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P156" t="str">
         <v>#488fea</v>
@@ -7522,7 +7522,7 @@
         <v>26.43</v>
       </c>
       <c r="J157">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P157" t="str">
         <v>#488fea</v>
@@ -7566,7 +7566,7 @@
         <v>26.43</v>
       </c>
       <c r="J158">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P158" t="str">
         <v>#488fea</v>
@@ -7610,7 +7610,7 @@
         <v>30.4</v>
       </c>
       <c r="J159">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N159">
         <v>79467.1</v>
@@ -7657,7 +7657,7 @@
         <v>28.47</v>
       </c>
       <c r="J160">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N160">
         <v>80124.79</v>
@@ -7704,7 +7704,7 @@
         <v>26.67</v>
       </c>
       <c r="J161">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P161" t="str">
         <v>#488fea</v>
@@ -7748,7 +7748,7 @@
         <v>26.43</v>
       </c>
       <c r="J162">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P162" t="str">
         <v>#488fea</v>
@@ -7792,7 +7792,7 @@
         <v>26.43</v>
       </c>
       <c r="J163">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P163" t="str">
         <v>#488fea</v>
@@ -7836,7 +7836,7 @@
         <v>30.4</v>
       </c>
       <c r="J164">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P164" t="str">
         <v>#488fea</v>
@@ -7880,7 +7880,7 @@
         <v>28.47</v>
       </c>
       <c r="J165">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N165">
         <v>80024.79</v>
@@ -7927,7 +7927,7 @@
         <v>26.67</v>
       </c>
       <c r="J166">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P166" t="str">
         <v>#488fea</v>
@@ -7971,7 +7971,7 @@
         <v>26.43</v>
       </c>
       <c r="J167">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P167" t="str">
         <v>#488fea</v>
@@ -8015,7 +8015,7 @@
         <v>26.43</v>
       </c>
       <c r="J168">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P168" t="str">
         <v>#488fea</v>
@@ -8059,7 +8059,7 @@
         <v>30.4</v>
       </c>
       <c r="J169">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P169" t="str">
         <v>#488fea</v>
@@ -8103,7 +8103,7 @@
         <v>28.47</v>
       </c>
       <c r="J170">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N170">
         <v>79924.79</v>
@@ -8150,7 +8150,7 @@
         <v>26.67</v>
       </c>
       <c r="J171">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P171" t="str">
         <v>#488fea</v>
@@ -8194,7 +8194,7 @@
         <v>26.43</v>
       </c>
       <c r="J172">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P172" t="str">
         <v>#488fea</v>
@@ -8238,7 +8238,7 @@
         <v>26.43</v>
       </c>
       <c r="J173">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P173" t="str">
         <v>#488fea</v>
@@ -8282,7 +8282,7 @@
         <v>30.4</v>
       </c>
       <c r="J174">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P174" t="str">
         <v>#488fea</v>
@@ -8326,7 +8326,7 @@
         <v>28.47</v>
       </c>
       <c r="J175">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N175">
         <v>79824.79</v>
@@ -8373,7 +8373,7 @@
         <v>26.67</v>
       </c>
       <c r="J176">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P176" t="str">
         <v>#488fea</v>
@@ -8417,7 +8417,7 @@
         <v>26.43</v>
       </c>
       <c r="J177">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P177" t="str">
         <v>#488fea</v>
@@ -8461,7 +8461,7 @@
         <v>26.43</v>
       </c>
       <c r="J178">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P178" t="str">
         <v>#488fea</v>
@@ -8505,7 +8505,7 @@
         <v>30.4</v>
       </c>
       <c r="J179">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N179">
         <v>78967.1</v>
@@ -8552,7 +8552,7 @@
         <v>28.47</v>
       </c>
       <c r="J180">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N180">
         <v>79624.79</v>
@@ -8599,7 +8599,7 @@
         <v>26.67</v>
       </c>
       <c r="J181">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P181" t="str">
         <v>#488fea</v>
@@ -8643,7 +8643,7 @@
         <v>26.43</v>
       </c>
       <c r="J182">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P182" t="str">
         <v>#488fea</v>
@@ -8687,7 +8687,7 @@
         <v>26.43</v>
       </c>
       <c r="J183">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P183" t="str">
         <v>#488fea</v>
@@ -8731,7 +8731,7 @@
         <v>30.4</v>
       </c>
       <c r="J184">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N184">
         <v>78967.1</v>
@@ -8778,7 +8778,7 @@
         <v>28.47</v>
       </c>
       <c r="J185">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N185">
         <v>79624.79</v>
@@ -8825,7 +8825,7 @@
         <v>26.67</v>
       </c>
       <c r="J186">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P186" t="str">
         <v>#488fea</v>
@@ -8869,7 +8869,7 @@
         <v>26.43</v>
       </c>
       <c r="J187">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P187" t="str">
         <v>#488fea</v>
@@ -8913,7 +8913,7 @@
         <v>26.43</v>
       </c>
       <c r="J188">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P188" t="str">
         <v>#488fea</v>
@@ -8957,7 +8957,7 @@
         <v>30.4</v>
       </c>
       <c r="J189">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P189" t="str">
         <v>#488fea</v>
@@ -9001,7 +9001,7 @@
         <v>28.47</v>
       </c>
       <c r="J190">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N190">
         <v>79524.79</v>
@@ -9048,7 +9048,7 @@
         <v>26.67</v>
       </c>
       <c r="J191">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P191" t="str">
         <v>#488fea</v>
@@ -9092,7 +9092,7 @@
         <v>26.43</v>
       </c>
       <c r="J192">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P192" t="str">
         <v>#488fea</v>
@@ -9136,7 +9136,7 @@
         <v>26.43</v>
       </c>
       <c r="J193">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P193" t="str">
         <v>#488fea</v>
@@ -9180,7 +9180,7 @@
         <v>30.4</v>
       </c>
       <c r="J194">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P194" t="str">
         <v>#488fea</v>
@@ -9224,7 +9224,7 @@
         <v>28.47</v>
       </c>
       <c r="J195">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N195">
         <v>78870.85</v>
@@ -9271,7 +9271,7 @@
         <v>26.67</v>
       </c>
       <c r="J196">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P196" t="str">
         <v>#488fea</v>
@@ -9315,7 +9315,7 @@
         <v>26.43</v>
       </c>
       <c r="J197">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P197" t="str">
         <v>#488fea</v>
@@ -9359,7 +9359,7 @@
         <v>26.43</v>
       </c>
       <c r="J198">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P198" t="str">
         <v>#488fea</v>
@@ -9403,7 +9403,7 @@
         <v>30.4</v>
       </c>
       <c r="J199">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N199">
         <v>78014.68</v>
@@ -9450,7 +9450,7 @@
         <v>28.47</v>
       </c>
       <c r="J200">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P200" t="str">
         <v>#488fea</v>
@@ -9494,7 +9494,7 @@
         <v>26.67</v>
       </c>
       <c r="J201">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P201" t="str">
         <v>#488fea</v>
@@ -9538,7 +9538,7 @@
         <v>26.43</v>
       </c>
       <c r="J202">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P202" t="str">
         <v>#488fea</v>
@@ -9582,7 +9582,7 @@
         <v>26.43</v>
       </c>
       <c r="J203">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P203" t="str">
         <v>#488fea</v>
@@ -9626,7 +9626,7 @@
         <v>30.4</v>
       </c>
       <c r="J204">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N204">
         <v>77814.68</v>
@@ -9673,7 +9673,7 @@
         <v>28.47</v>
       </c>
       <c r="J205">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N205">
         <v>78670.85</v>
@@ -9720,7 +9720,7 @@
         <v>26.67</v>
       </c>
       <c r="J206">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P206" t="str">
         <v>#488fea</v>
@@ -9764,7 +9764,7 @@
         <v>26.43</v>
       </c>
       <c r="J207">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P207" t="str">
         <v>#488fea</v>
@@ -9808,7 +9808,7 @@
         <v>26.43</v>
       </c>
       <c r="J208">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P208" t="str">
         <v>#488fea</v>
@@ -9852,7 +9852,7 @@
         <v>30.4</v>
       </c>
       <c r="J209">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N209">
         <v>77614.68</v>
@@ -9899,7 +9899,7 @@
         <v>28.47</v>
       </c>
       <c r="J210">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P210" t="str">
         <v>#488fea</v>
@@ -9943,7 +9943,7 @@
         <v>26.67</v>
       </c>
       <c r="J211">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P211" t="str">
         <v>#488fea</v>
@@ -9987,7 +9987,7 @@
         <v>26.43</v>
       </c>
       <c r="J212">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P212" t="str">
         <v>#488fea</v>
@@ -10031,7 +10031,7 @@
         <v>26.43</v>
       </c>
       <c r="J213">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P213" t="str">
         <v>#488fea</v>
@@ -10075,7 +10075,7 @@
         <v>30.4</v>
       </c>
       <c r="J214">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N214">
         <v>77414.68</v>
@@ -10122,7 +10122,7 @@
         <v>28.47</v>
       </c>
       <c r="J215">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N215">
         <v>78270.85</v>
@@ -10169,7 +10169,7 @@
         <v>26.67</v>
       </c>
       <c r="J216">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P216" t="str">
         <v>#488fea</v>
@@ -10213,7 +10213,7 @@
         <v>26.43</v>
       </c>
       <c r="J217">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P217" t="str">
         <v>#488fea</v>
@@ -10257,7 +10257,7 @@
         <v>26.43</v>
       </c>
       <c r="J218">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P218" t="str">
         <v>#488fea</v>
@@ -10301,7 +10301,7 @@
         <v>30.4</v>
       </c>
       <c r="J219">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P219" t="str">
         <v>#488fea</v>
@@ -10345,7 +10345,7 @@
         <v>28.47</v>
       </c>
       <c r="J220">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N220">
         <v>78070.85</v>
@@ -10392,7 +10392,7 @@
         <v>26.67</v>
       </c>
       <c r="J221">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P221" t="str">
         <v>#488fea</v>
@@ -10436,7 +10436,7 @@
         <v>26.43</v>
       </c>
       <c r="J222">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P222" t="str">
         <v>#488fea</v>
@@ -10480,7 +10480,7 @@
         <v>26.43</v>
       </c>
       <c r="J223">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P223" t="str">
         <v>#488fea</v>
@@ -10524,7 +10524,7 @@
         <v>30.4</v>
       </c>
       <c r="J224">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N224">
         <v>77014.68</v>
@@ -10571,7 +10571,7 @@
         <v>28.47</v>
       </c>
       <c r="J225">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N225">
         <v>77870.85</v>
@@ -10618,7 +10618,7 @@
         <v>26.67</v>
       </c>
       <c r="J226">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P226" t="str">
         <v>#488fea</v>
@@ -10662,7 +10662,7 @@
         <v>26.43</v>
       </c>
       <c r="J227">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P227" t="str">
         <v>#488fea</v>
@@ -10706,7 +10706,7 @@
         <v>26.43</v>
       </c>
       <c r="J228">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P228" t="str">
         <v>#488fea</v>
@@ -10750,7 +10750,7 @@
         <v>30.4</v>
       </c>
       <c r="J229">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N229">
         <v>75413</v>
@@ -10797,7 +10797,7 @@
         <v>28.47</v>
       </c>
       <c r="J230">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P230" t="str">
         <v>#488fea</v>
@@ -10841,7 +10841,7 @@
         <v>26.67</v>
       </c>
       <c r="J231">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P231" t="str">
         <v>#488fea</v>
@@ -10885,7 +10885,7 @@
         <v>26.43</v>
       </c>
       <c r="J232">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P232" t="str">
         <v>#488fea</v>
@@ -10929,7 +10929,7 @@
         <v>26.43</v>
       </c>
       <c r="J233">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P233" t="str">
         <v>#488fea</v>
@@ -10973,7 +10973,7 @@
         <v>30.4</v>
       </c>
       <c r="J234">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N234">
         <v>75213</v>
@@ -11020,7 +11020,7 @@
         <v>28.47</v>
       </c>
       <c r="J235">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P235" t="str">
         <v>#488fea</v>
@@ -11064,7 +11064,7 @@
         <v>26.67</v>
       </c>
       <c r="J236">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P236" t="str">
         <v>#488fea</v>
@@ -11108,7 +11108,7 @@
         <v>26.43</v>
       </c>
       <c r="J237">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P237" t="str">
         <v>#488fea</v>
@@ -11152,7 +11152,7 @@
         <v>26.43</v>
       </c>
       <c r="J238">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P238" t="str">
         <v>#488fea</v>
@@ -11196,7 +11196,7 @@
         <v>30.4</v>
       </c>
       <c r="J239">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N239">
         <v>74213</v>
@@ -11243,7 +11243,7 @@
         <v>28.47</v>
       </c>
       <c r="J240">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P240" t="str">
         <v>#488fea</v>
@@ -11287,7 +11287,7 @@
         <v>26.67</v>
       </c>
       <c r="J241">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P241" t="str">
         <v>#488fea</v>
@@ -11331,7 +11331,7 @@
         <v>26.43</v>
       </c>
       <c r="J242">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P242" t="str">
         <v>#488fea</v>
@@ -11375,7 +11375,7 @@
         <v>26.43</v>
       </c>
       <c r="J243">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P243" t="str">
         <v>#488fea</v>
@@ -11419,7 +11419,7 @@
         <v>30.4</v>
       </c>
       <c r="J244">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N244">
         <v>73213</v>
@@ -11466,7 +11466,7 @@
         <v>28.47</v>
       </c>
       <c r="J245">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P245" t="str">
         <v>#488fea</v>
@@ -11510,7 +11510,7 @@
         <v>26.67</v>
       </c>
       <c r="J246">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P246" t="str">
         <v>#488fea</v>
@@ -11554,7 +11554,7 @@
         <v>26.43</v>
       </c>
       <c r="J247">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P247" t="str">
         <v>#488fea</v>
@@ -11598,7 +11598,7 @@
         <v>26.43</v>
       </c>
       <c r="J248">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P248" t="str">
         <v>#488fea</v>
@@ -11642,7 +11642,7 @@
         <v>30.4</v>
       </c>
       <c r="J249">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N249">
         <v>72213</v>
@@ -11689,7 +11689,7 @@
         <v>28.47</v>
       </c>
       <c r="J250">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P250" t="str">
         <v>#488fea</v>
@@ -11733,7 +11733,7 @@
         <v>26.67</v>
       </c>
       <c r="J251">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P251" t="str">
         <v>#488fea</v>
@@ -11777,7 +11777,7 @@
         <v>26.43</v>
       </c>
       <c r="J252">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P252" t="str">
         <v>#488fea</v>
@@ -11821,7 +11821,7 @@
         <v>26.43</v>
       </c>
       <c r="J253">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P253" t="str">
         <v>#488fea</v>
@@ -11865,7 +11865,7 @@
         <v>30.4</v>
       </c>
       <c r="J254">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N254">
         <v>71213</v>
@@ -11912,7 +11912,7 @@
         <v>28.47</v>
       </c>
       <c r="J255">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P255" t="str">
         <v>#488fea</v>
@@ -11956,7 +11956,7 @@
         <v>26.67</v>
       </c>
       <c r="J256">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P256" t="str">
         <v>#488fea</v>
@@ -12000,7 +12000,7 @@
         <v>26.43</v>
       </c>
       <c r="J257">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P257" t="str">
         <v>#488fea</v>
@@ -12044,7 +12044,7 @@
         <v>26.43</v>
       </c>
       <c r="J258">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P258" t="str">
         <v>#488fea</v>
@@ -12088,7 +12088,7 @@
         <v>30.4</v>
       </c>
       <c r="J259">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N259">
         <v>82546.79</v>
@@ -12135,7 +12135,7 @@
         <v>28.46</v>
       </c>
       <c r="J260">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N260">
         <v>78925.69</v>
@@ -12182,7 +12182,7 @@
         <v>26.65</v>
       </c>
       <c r="J261">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="N261">
         <v>73032.07</v>
@@ -12229,7 +12229,7 @@
         <v>26.48</v>
       </c>
       <c r="J262">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P262" t="str">
         <v>#488fea</v>
@@ -12273,7 +12273,7 @@
         <v>26.48</v>
       </c>
       <c r="J263">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P263" t="str">
         <v>#488fea</v>
@@ -12317,7 +12317,7 @@
         <v>30.4</v>
       </c>
       <c r="J264">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N264">
         <v>83546.79</v>
@@ -12364,7 +12364,7 @@
         <v>28.46</v>
       </c>
       <c r="J265">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N265">
         <v>79925.69</v>
@@ -12411,7 +12411,7 @@
         <v>26.65</v>
       </c>
       <c r="J266">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P266" t="str">
         <v>#488fea</v>
@@ -12455,7 +12455,7 @@
         <v>26.48</v>
       </c>
       <c r="J267">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P267" t="str">
         <v>#488fea</v>
@@ -12499,7 +12499,7 @@
         <v>26.48</v>
       </c>
       <c r="J268">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P268" t="str">
         <v>#488fea</v>
@@ -12543,7 +12543,7 @@
         <v>30.4</v>
       </c>
       <c r="J269">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P269" t="str">
         <v>#488fea</v>
@@ -12587,7 +12587,7 @@
         <v>28.46</v>
       </c>
       <c r="J270">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N270">
         <v>79875.69</v>
@@ -12634,7 +12634,7 @@
         <v>26.65</v>
       </c>
       <c r="J271">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P271" t="str">
         <v>#488fea</v>
@@ -12678,7 +12678,7 @@
         <v>26.48</v>
       </c>
       <c r="J272">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P272" t="str">
         <v>#488fea</v>
@@ -12722,7 +12722,7 @@
         <v>26.48</v>
       </c>
       <c r="J273">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P273" t="str">
         <v>#488fea</v>
@@ -12766,7 +12766,7 @@
         <v>30.4</v>
       </c>
       <c r="J274">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N274">
         <v>83396.78</v>
@@ -12813,7 +12813,7 @@
         <v>28.46</v>
       </c>
       <c r="J275">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N275">
         <v>79775.69</v>
@@ -12860,7 +12860,7 @@
         <v>26.65</v>
       </c>
       <c r="J276">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P276" t="str">
         <v>#488fea</v>
@@ -12904,7 +12904,7 @@
         <v>26.48</v>
       </c>
       <c r="J277">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P277" t="str">
         <v>#488fea</v>
@@ -12948,7 +12948,7 @@
         <v>26.48</v>
       </c>
       <c r="J278">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P278" t="str">
         <v>#488fea</v>
@@ -12992,7 +12992,7 @@
         <v>30.4</v>
       </c>
       <c r="J279">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N279">
         <v>83396.78</v>
@@ -13039,7 +13039,7 @@
         <v>28.46</v>
       </c>
       <c r="J280">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N280">
         <v>79775.69</v>
@@ -13086,7 +13086,7 @@
         <v>26.65</v>
       </c>
       <c r="J281">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P281" t="str">
         <v>#488fea</v>
@@ -13130,7 +13130,7 @@
         <v>26.48</v>
       </c>
       <c r="J282">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P282" t="str">
         <v>#488fea</v>
@@ -13174,7 +13174,7 @@
         <v>26.48</v>
       </c>
       <c r="J283">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="N283">
         <v>73287</v>
@@ -13221,7 +13221,7 @@
         <v>30.4</v>
       </c>
       <c r="J284">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N284">
         <v>83346.79</v>
@@ -13268,7 +13268,7 @@
         <v>28.46</v>
       </c>
       <c r="J285">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N285">
         <v>79725.69</v>
@@ -13315,7 +13315,7 @@
         <v>26.65</v>
       </c>
       <c r="J286">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P286" t="str">
         <v>#488fea</v>
@@ -13359,7 +13359,7 @@
         <v>26.48</v>
       </c>
       <c r="J287">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="N287">
         <v>73557</v>
@@ -13406,7 +13406,7 @@
         <v>26.48</v>
       </c>
       <c r="J288">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P288" t="str">
         <v>#488fea</v>
@@ -13450,7 +13450,7 @@
         <v>30.4</v>
       </c>
       <c r="J289">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P289" t="str">
         <v>#488fea</v>
@@ -13494,7 +13494,7 @@
         <v>28.46</v>
       </c>
       <c r="J290">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N290">
         <v>79675.69</v>
@@ -13541,7 +13541,7 @@
         <v>26.65</v>
       </c>
       <c r="J291">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P291" t="str">
         <v>#488fea</v>
@@ -13585,7 +13585,7 @@
         <v>26.48</v>
       </c>
       <c r="J292">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P292" t="str">
         <v>#488fea</v>
@@ -13629,7 +13629,7 @@
         <v>26.48</v>
       </c>
       <c r="J293">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P293" t="str">
         <v>#488fea</v>
@@ -13673,7 +13673,7 @@
         <v>30.4</v>
       </c>
       <c r="J294">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P294" t="str">
         <v>#488fea</v>
@@ -13717,7 +13717,7 @@
         <v>28.46</v>
       </c>
       <c r="J295">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N295">
         <v>79625.69</v>
@@ -13764,7 +13764,7 @@
         <v>26.65</v>
       </c>
       <c r="J296">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P296" t="str">
         <v>#488fea</v>
@@ -13808,7 +13808,7 @@
         <v>26.48</v>
       </c>
       <c r="J297">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P297" t="str">
         <v>#488fea</v>
@@ -13852,7 +13852,7 @@
         <v>26.48</v>
       </c>
       <c r="J298">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P298" t="str">
         <v>#488fea</v>
@@ -13896,7 +13896,7 @@
         <v>30.4</v>
       </c>
       <c r="J299">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P299" t="str">
         <v>#488fea</v>
@@ -13940,7 +13940,7 @@
         <v>28.46</v>
       </c>
       <c r="J300">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N300">
         <v>79575.69</v>
@@ -13987,7 +13987,7 @@
         <v>26.65</v>
       </c>
       <c r="J301">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P301" t="str">
         <v>#488fea</v>
@@ -14031,7 +14031,7 @@
         <v>26.48</v>
       </c>
       <c r="J302">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P302" t="str">
         <v>#488fea</v>
@@ -14075,7 +14075,7 @@
         <v>26.48</v>
       </c>
       <c r="J303">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P303" t="str">
         <v>#488fea</v>
@@ -14119,7 +14119,7 @@
         <v>30.4</v>
       </c>
       <c r="J304">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P304" t="str">
         <v>#488fea</v>
@@ -14163,7 +14163,7 @@
         <v>28.46</v>
       </c>
       <c r="J305">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N305">
         <v>79475.69</v>
@@ -14210,7 +14210,7 @@
         <v>26.65</v>
       </c>
       <c r="J306">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P306" t="str">
         <v>#488fea</v>
@@ -14254,7 +14254,7 @@
         <v>26.48</v>
       </c>
       <c r="J307">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P307" t="str">
         <v>#488fea</v>
@@ -14298,7 +14298,7 @@
         <v>26.48</v>
       </c>
       <c r="J308">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P308" t="str">
         <v>#488fea</v>
@@ -14342,7 +14342,7 @@
         <v>30.4</v>
       </c>
       <c r="J309">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P309" t="str">
         <v>#488fea</v>
@@ -14386,7 +14386,7 @@
         <v>28.46</v>
       </c>
       <c r="J310">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P310" t="str">
         <v>#488fea</v>
@@ -14430,7 +14430,7 @@
         <v>26.65</v>
       </c>
       <c r="J311">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P311" t="str">
         <v>#488fea</v>
@@ -14474,7 +14474,7 @@
         <v>26.48</v>
       </c>
       <c r="J312">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P312" t="str">
         <v>#488fea</v>
@@ -14518,7 +14518,7 @@
         <v>26.48</v>
       </c>
       <c r="J313">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P313" t="str">
         <v>#488fea</v>
@@ -14562,7 +14562,7 @@
         <v>30.4</v>
       </c>
       <c r="J314">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P314" t="str">
         <v>#488fea</v>
@@ -14603,7 +14603,7 @@
         <v>28.46</v>
       </c>
       <c r="J315">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P315" t="str">
         <v>#488fea</v>
@@ -14647,7 +14647,7 @@
         <v>26.65</v>
       </c>
       <c r="J316">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P316" t="str">
         <v>#488fea</v>
@@ -14691,7 +14691,7 @@
         <v>26.48</v>
       </c>
       <c r="J317">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P317" t="str">
         <v>#488fea</v>
@@ -14735,7 +14735,7 @@
         <v>26.48</v>
       </c>
       <c r="J318">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P318" t="str">
         <v>#488fea</v>
@@ -14779,7 +14779,7 @@
         <v>30.4</v>
       </c>
       <c r="J319">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P319" t="str">
         <v>#488fea</v>
@@ -14823,7 +14823,7 @@
         <v>28.46</v>
       </c>
       <c r="J320">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P320" t="str">
         <v>#488fea</v>
@@ -14867,7 +14867,7 @@
         <v>26.65</v>
       </c>
       <c r="J321">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P321" t="str">
         <v>#488fea</v>
@@ -14911,7 +14911,7 @@
         <v>26.48</v>
       </c>
       <c r="J322">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P322" t="str">
         <v>#488fea</v>
@@ -14955,7 +14955,7 @@
         <v>26.48</v>
       </c>
       <c r="J323">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P323" t="str">
         <v>#488fea</v>
@@ -14999,7 +14999,7 @@
         <v>30.4</v>
       </c>
       <c r="J324">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P324" t="str">
         <v>#488fea</v>
@@ -15043,7 +15043,7 @@
         <v>28.46</v>
       </c>
       <c r="J325">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N325">
         <v>78975.69</v>
@@ -15090,7 +15090,7 @@
         <v>26.65</v>
       </c>
       <c r="J326">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P326" t="str">
         <v>#488fea</v>
@@ -15134,7 +15134,7 @@
         <v>26.48</v>
       </c>
       <c r="J327">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P327" t="str">
         <v>#488fea</v>
@@ -15178,7 +15178,7 @@
         <v>26.48</v>
       </c>
       <c r="J328">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P328" t="str">
         <v>#488fea</v>
@@ -15222,7 +15222,7 @@
         <v>30.4</v>
       </c>
       <c r="J329">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N329">
         <v>82596.78</v>
@@ -15269,7 +15269,7 @@
         <v>28.46</v>
       </c>
       <c r="J330">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P330" t="str">
         <v>#488fea</v>
@@ -15310,7 +15310,7 @@
         <v>26.65</v>
       </c>
       <c r="J331">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P331" t="str">
         <v>#488fea</v>
@@ -15354,7 +15354,7 @@
         <v>26.48</v>
       </c>
       <c r="J332">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P332" t="str">
         <v>#488fea</v>
@@ -15398,7 +15398,7 @@
         <v>26.48</v>
       </c>
       <c r="J333">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P333" t="str">
         <v>#488fea</v>
@@ -15442,7 +15442,7 @@
         <v>30.4</v>
       </c>
       <c r="J334">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N334">
         <v>82496.78</v>
@@ -15489,7 +15489,7 @@
         <v>28.46</v>
       </c>
       <c r="J335">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P335" t="str">
         <v>#488fea</v>
@@ -15530,7 +15530,7 @@
         <v>26.65</v>
       </c>
       <c r="J336">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P336" t="str">
         <v>#488fea</v>
@@ -15574,7 +15574,7 @@
         <v>26.48</v>
       </c>
       <c r="J337">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P337" t="str">
         <v>#488fea</v>
@@ -15618,7 +15618,7 @@
         <v>26.48</v>
       </c>
       <c r="J338">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P338" t="str">
         <v>#488fea</v>
@@ -15662,7 +15662,7 @@
         <v>30.4</v>
       </c>
       <c r="J339">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P339" t="str">
         <v>#488fea</v>
@@ -15706,7 +15706,7 @@
         <v>28.46</v>
       </c>
       <c r="J340">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P340" t="str">
         <v>#488fea</v>
@@ -15750,7 +15750,7 @@
         <v>26.65</v>
       </c>
       <c r="J341">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P341" t="str">
         <v>#488fea</v>
@@ -15794,7 +15794,7 @@
         <v>26.48</v>
       </c>
       <c r="J342">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P342" t="str">
         <v>#488fea</v>
@@ -15838,7 +15838,7 @@
         <v>26.48</v>
       </c>
       <c r="J343">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P343" t="str">
         <v>#488fea</v>
@@ -15882,7 +15882,7 @@
         <v>30.4</v>
       </c>
       <c r="J344">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P344" t="str">
         <v>#488fea</v>
@@ -15926,7 +15926,7 @@
         <v>28.46</v>
       </c>
       <c r="J345">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N345">
         <v>78575.69</v>
@@ -15973,7 +15973,7 @@
         <v>26.65</v>
       </c>
       <c r="J346">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P346" t="str">
         <v>#488fea</v>
@@ -16017,7 +16017,7 @@
         <v>26.48</v>
       </c>
       <c r="J347">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P347" t="str">
         <v>#488fea</v>
@@ -16061,7 +16061,7 @@
         <v>26.48</v>
       </c>
       <c r="J348">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P348" t="str">
         <v>#488fea</v>
@@ -16105,7 +16105,7 @@
         <v>30.4</v>
       </c>
       <c r="J349">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N349">
         <v>82096.78</v>
@@ -16152,7 +16152,7 @@
         <v>28.46</v>
       </c>
       <c r="J350">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P350" t="str">
         <v>#488fea</v>
@@ -16196,7 +16196,7 @@
         <v>26.65</v>
       </c>
       <c r="J351">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P351" t="str">
         <v>#488fea</v>
@@ -16240,7 +16240,7 @@
         <v>26.48</v>
       </c>
       <c r="J352">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P352" t="str">
         <v>#488fea</v>
@@ -16284,7 +16284,7 @@
         <v>26.48</v>
       </c>
       <c r="J353">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P353" t="str">
         <v>#488fea</v>
@@ -16328,7 +16328,7 @@
         <v>30.4</v>
       </c>
       <c r="J354">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P354" t="str">
         <v>#488fea</v>
@@ -16372,7 +16372,7 @@
         <v>28.46</v>
       </c>
       <c r="J355">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P355" t="str">
         <v>#488fea</v>
@@ -16416,7 +16416,7 @@
         <v>26.65</v>
       </c>
       <c r="J356">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P356" t="str">
         <v>#488fea</v>
@@ -16460,7 +16460,7 @@
         <v>26.48</v>
       </c>
       <c r="J357">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P357" t="str">
         <v>#488fea</v>
@@ -16504,7 +16504,7 @@
         <v>26.48</v>
       </c>
       <c r="J358">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="P358" t="str">
         <v>#488fea</v>
@@ -16548,7 +16548,7 @@
         <v>30.39</v>
       </c>
       <c r="J359">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N359">
         <v>81897.4</v>
@@ -16595,7 +16595,7 @@
         <v>28.46</v>
       </c>
       <c r="J360">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P360" t="str">
         <v>#488fea</v>
@@ -16639,7 +16639,7 @@
         <v>26.66</v>
       </c>
       <c r="J361">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P361" t="str">
         <v>#488fea</v>
@@ -16683,7 +16683,7 @@
         <v>26.43</v>
       </c>
       <c r="J362">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P362" t="str">
         <v>#488fea</v>
@@ -16727,7 +16727,7 @@
         <v>26.42</v>
       </c>
       <c r="J363">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P363" t="str">
         <v>#488fea</v>
@@ -16771,7 +16771,7 @@
         <v>30.39</v>
       </c>
       <c r="J364">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P364" t="str">
         <v>#488fea</v>
@@ -16815,7 +16815,7 @@
         <v>28.46</v>
       </c>
       <c r="J365">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P365" t="str">
         <v>#488fea</v>
@@ -16859,7 +16859,7 @@
         <v>26.66</v>
       </c>
       <c r="J366">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P366" t="str">
         <v>#488fea</v>
@@ -16903,7 +16903,7 @@
         <v>26.43</v>
       </c>
       <c r="J367">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P367" t="str">
         <v>#488fea</v>
@@ -16947,7 +16947,7 @@
         <v>26.42</v>
       </c>
       <c r="J368">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P368" t="str">
         <v>#488fea</v>
@@ -16991,7 +16991,7 @@
         <v>30.39</v>
       </c>
       <c r="J369">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N369">
         <v>81597.4</v>
@@ -17038,7 +17038,7 @@
         <v>28.46</v>
       </c>
       <c r="J370">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P370" t="str">
         <v>#488fea</v>
@@ -17082,7 +17082,7 @@
         <v>26.66</v>
       </c>
       <c r="J371">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P371" t="str">
         <v>#488fea</v>
@@ -17126,7 +17126,7 @@
         <v>26.43</v>
       </c>
       <c r="J372">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P372" t="str">
         <v>#488fea</v>
@@ -17170,7 +17170,7 @@
         <v>26.42</v>
       </c>
       <c r="J373">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P373" t="str">
         <v>#488fea</v>
@@ -17214,7 +17214,7 @@
         <v>30.39</v>
       </c>
       <c r="J374">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P374" t="str">
         <v>#488fea</v>
@@ -17258,7 +17258,7 @@
         <v>28.46</v>
       </c>
       <c r="J375">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P375" t="str">
         <v>#488fea</v>
@@ -17302,7 +17302,7 @@
         <v>26.66</v>
       </c>
       <c r="J376">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P376" t="str">
         <v>#488fea</v>
@@ -17346,7 +17346,7 @@
         <v>26.43</v>
       </c>
       <c r="J377">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P377" t="str">
         <v>#488fea</v>
@@ -17390,7 +17390,7 @@
         <v>26.42</v>
       </c>
       <c r="J378">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P378" t="str">
         <v>#488fea</v>
@@ -17434,7 +17434,7 @@
         <v>30.39</v>
       </c>
       <c r="J379">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N379">
         <v>81497.4</v>
@@ -17481,7 +17481,7 @@
         <v>28.46</v>
       </c>
       <c r="J380">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P380" t="str">
         <v>#488fea</v>
@@ -17525,7 +17525,7 @@
         <v>26.66</v>
       </c>
       <c r="J381">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P381" t="str">
         <v>#488fea</v>
@@ -17569,7 +17569,7 @@
         <v>26.43</v>
       </c>
       <c r="J382">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P382" t="str">
         <v>#488fea</v>
@@ -17613,7 +17613,7 @@
         <v>26.42</v>
       </c>
       <c r="J383">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P383" t="str">
         <v>#488fea</v>
@@ -17657,7 +17657,7 @@
         <v>30.39</v>
       </c>
       <c r="J384">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P384" t="str">
         <v>#488fea</v>
@@ -17701,7 +17701,7 @@
         <v>28.46</v>
       </c>
       <c r="J385">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P385" t="str">
         <v>#488fea</v>
@@ -17745,7 +17745,7 @@
         <v>26.66</v>
       </c>
       <c r="J386">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P386" t="str">
         <v>#488fea</v>
@@ -17789,7 +17789,7 @@
         <v>26.43</v>
       </c>
       <c r="J387">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P387" t="str">
         <v>#488fea</v>
@@ -17833,7 +17833,7 @@
         <v>26.42</v>
       </c>
       <c r="J388">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P388" t="str">
         <v>#488fea</v>
@@ -17877,7 +17877,7 @@
         <v>30.39</v>
       </c>
       <c r="J389">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N389">
         <v>81297.4</v>
@@ -17924,7 +17924,7 @@
         <v>28.46</v>
       </c>
       <c r="J390">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N390">
         <v>77675.69</v>
@@ -17971,7 +17971,7 @@
         <v>26.66</v>
       </c>
       <c r="J391">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P391" t="str">
         <v>#488fea</v>
@@ -18015,7 +18015,7 @@
         <v>26.43</v>
       </c>
       <c r="J392">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P392" t="str">
         <v>#488fea</v>
@@ -18059,7 +18059,7 @@
         <v>26.42</v>
       </c>
       <c r="J393">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P393" t="str">
         <v>#488fea</v>
@@ -18103,7 +18103,7 @@
         <v>30.39</v>
       </c>
       <c r="J394">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P394" t="str">
         <v>#488fea</v>
@@ -18147,7 +18147,7 @@
         <v>28.46</v>
       </c>
       <c r="J395">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P395" t="str">
         <v>#488fea</v>
@@ -18191,7 +18191,7 @@
         <v>26.66</v>
       </c>
       <c r="J396">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P396" t="str">
         <v>#488fea</v>
@@ -18235,7 +18235,7 @@
         <v>26.43</v>
       </c>
       <c r="J397">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P397" t="str">
         <v>#488fea</v>
@@ -18279,7 +18279,7 @@
         <v>26.42</v>
       </c>
       <c r="J398">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P398" t="str">
         <v>#488fea</v>
@@ -18323,7 +18323,7 @@
         <v>30.39</v>
       </c>
       <c r="J399">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N399">
         <v>80997.4</v>
@@ -18370,7 +18370,7 @@
         <v>28.46</v>
       </c>
       <c r="J400">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P400" t="str">
         <v>#488fea</v>
@@ -18411,7 +18411,7 @@
         <v>26.66</v>
       </c>
       <c r="J401">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P401" t="str">
         <v>#488fea</v>
@@ -18455,7 +18455,7 @@
         <v>26.43</v>
       </c>
       <c r="J402">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P402" t="str">
         <v>#488fea</v>
@@ -18499,7 +18499,7 @@
         <v>26.42</v>
       </c>
       <c r="J403">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P403" t="str">
         <v>#488fea</v>
@@ -18543,7 +18543,7 @@
         <v>30.39</v>
       </c>
       <c r="J404">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N404">
         <v>80997.4</v>
@@ -18590,7 +18590,7 @@
         <v>28.46</v>
       </c>
       <c r="J405">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P405" t="str">
         <v>#488fea</v>
@@ -18634,7 +18634,7 @@
         <v>26.66</v>
       </c>
       <c r="J406">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P406" t="str">
         <v>#488fea</v>
@@ -18678,7 +18678,7 @@
         <v>26.43</v>
       </c>
       <c r="J407">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P407" t="str">
         <v>#488fea</v>
@@ -18722,7 +18722,7 @@
         <v>26.42</v>
       </c>
       <c r="J408">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P408" t="str">
         <v>#488fea</v>
@@ -18766,7 +18766,7 @@
         <v>30.39</v>
       </c>
       <c r="J409">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P409" t="str">
         <v>#488fea</v>
@@ -18810,7 +18810,7 @@
         <v>28.46</v>
       </c>
       <c r="J410">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P410" t="str">
         <v>#488fea</v>
@@ -18854,7 +18854,7 @@
         <v>26.66</v>
       </c>
       <c r="J411">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P411" t="str">
         <v>#488fea</v>
@@ -18898,7 +18898,7 @@
         <v>26.43</v>
       </c>
       <c r="J412">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P412" t="str">
         <v>#488fea</v>
@@ -18942,7 +18942,7 @@
         <v>26.42</v>
       </c>
       <c r="J413">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P413" t="str">
         <v>#488fea</v>
@@ -18986,7 +18986,7 @@
         <v>30.39</v>
       </c>
       <c r="J414">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N414">
         <v>80101.02</v>
@@ -19033,7 +19033,7 @@
         <v>28.46</v>
       </c>
       <c r="J415">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P415" t="str">
         <v>#488fea</v>
@@ -19077,7 +19077,7 @@
         <v>26.66</v>
       </c>
       <c r="J416">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P416" t="str">
         <v>#488fea</v>
@@ -19121,7 +19121,7 @@
         <v>26.43</v>
       </c>
       <c r="J417">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P417" t="str">
         <v>#488fea</v>
@@ -19165,7 +19165,7 @@
         <v>26.42</v>
       </c>
       <c r="J418">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P418" t="str">
         <v>#488fea</v>
@@ -19209,7 +19209,7 @@
         <v>30.39</v>
       </c>
       <c r="J419">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N419">
         <v>80101.02</v>
@@ -19256,7 +19256,7 @@
         <v>28.46</v>
       </c>
       <c r="J420">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P420" t="str">
         <v>#488fea</v>
@@ -19300,7 +19300,7 @@
         <v>26.66</v>
       </c>
       <c r="J421">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P421" t="str">
         <v>#488fea</v>
@@ -19344,7 +19344,7 @@
         <v>26.43</v>
       </c>
       <c r="J422">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P422" t="str">
         <v>#488fea</v>
@@ -19388,7 +19388,7 @@
         <v>26.42</v>
       </c>
       <c r="J423">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P423" t="str">
         <v>#488fea</v>
@@ -19432,7 +19432,7 @@
         <v>30.39</v>
       </c>
       <c r="J424">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N424">
         <v>80033.19</v>
@@ -19479,7 +19479,7 @@
         <v>28.46</v>
       </c>
       <c r="J425">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P425" t="str">
         <v>#488fea</v>
@@ -19523,7 +19523,7 @@
         <v>26.66</v>
       </c>
       <c r="J426">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P426" t="str">
         <v>#488fea</v>
@@ -19567,7 +19567,7 @@
         <v>26.43</v>
       </c>
       <c r="J427">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P427" t="str">
         <v>#488fea</v>
@@ -19611,7 +19611,7 @@
         <v>26.42</v>
       </c>
       <c r="J428">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P428" t="str">
         <v>#488fea</v>
@@ -19655,7 +19655,7 @@
         <v>30.39</v>
       </c>
       <c r="J429">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P429" t="str">
         <v>#488fea</v>
@@ -19699,7 +19699,7 @@
         <v>28.46</v>
       </c>
       <c r="J430">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P430" t="str">
         <v>#488fea</v>
@@ -19743,7 +19743,7 @@
         <v>26.66</v>
       </c>
       <c r="J431">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P431" t="str">
         <v>#488fea</v>
@@ -19787,7 +19787,7 @@
         <v>26.43</v>
       </c>
       <c r="J432">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P432" t="str">
         <v>#488fea</v>
@@ -19831,7 +19831,7 @@
         <v>26.42</v>
       </c>
       <c r="J433">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P433" t="str">
         <v>#488fea</v>
@@ -19875,7 +19875,7 @@
         <v>30.39</v>
       </c>
       <c r="J434">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P434" t="str">
         <v>#488fea</v>
@@ -19919,7 +19919,7 @@
         <v>28.46</v>
       </c>
       <c r="J435">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P435" t="str">
         <v>#488fea</v>
@@ -19963,7 +19963,7 @@
         <v>26.66</v>
       </c>
       <c r="J436">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P436" t="str">
         <v>#488fea</v>
@@ -20007,7 +20007,7 @@
         <v>26.43</v>
       </c>
       <c r="J437">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P437" t="str">
         <v>#488fea</v>
@@ -20051,7 +20051,7 @@
         <v>26.42</v>
       </c>
       <c r="J438">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P438" t="str">
         <v>#488fea</v>
@@ -20095,7 +20095,7 @@
         <v>30.39</v>
       </c>
       <c r="J439">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N439">
         <v>79581.38</v>
@@ -20142,7 +20142,7 @@
         <v>28.46</v>
       </c>
       <c r="J440">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P440" t="str">
         <v>#488fea</v>
@@ -20186,7 +20186,7 @@
         <v>26.66</v>
       </c>
       <c r="J441">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P441" t="str">
         <v>#488fea</v>
@@ -20230,7 +20230,7 @@
         <v>26.43</v>
       </c>
       <c r="J442">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P442" t="str">
         <v>#488fea</v>
@@ -20274,7 +20274,7 @@
         <v>26.42</v>
       </c>
       <c r="J443">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P443" t="str">
         <v>#488fea</v>
@@ -20318,7 +20318,7 @@
         <v>30.39</v>
       </c>
       <c r="J444">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N444">
         <v>79381.38</v>
@@ -20365,7 +20365,7 @@
         <v>28.46</v>
       </c>
       <c r="J445">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P445" t="str">
         <v>#488fea</v>
@@ -20409,7 +20409,7 @@
         <v>26.66</v>
       </c>
       <c r="J446">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P446" t="str">
         <v>#488fea</v>
@@ -20453,7 +20453,7 @@
         <v>26.43</v>
       </c>
       <c r="J447">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P447" t="str">
         <v>#488fea</v>
@@ -20497,7 +20497,7 @@
         <v>26.42</v>
       </c>
       <c r="J448">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P448" t="str">
         <v>#488fea</v>
@@ -20541,7 +20541,7 @@
         <v>30.39</v>
       </c>
       <c r="J449">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P449" t="str">
         <v>#488fea</v>
@@ -20585,7 +20585,7 @@
         <v>28.46</v>
       </c>
       <c r="J450">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P450" t="str">
         <v>#488fea</v>
@@ -20629,7 +20629,7 @@
         <v>26.66</v>
       </c>
       <c r="J451">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P451" t="str">
         <v>#488fea</v>
@@ -20673,7 +20673,7 @@
         <v>26.43</v>
       </c>
       <c r="J452">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P452" t="str">
         <v>#488fea</v>
@@ -20717,7 +20717,7 @@
         <v>26.42</v>
       </c>
       <c r="J453">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P453" t="str">
         <v>#488fea</v>
@@ -20761,7 +20761,7 @@
         <v>30.39</v>
       </c>
       <c r="J454">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N454">
         <v>78709.03</v>
@@ -20808,7 +20808,7 @@
         <v>28.46</v>
       </c>
       <c r="J455">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N455">
         <v>75302</v>
@@ -20855,7 +20855,7 @@
         <v>26.66</v>
       </c>
       <c r="J456">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P456" t="str">
         <v>#488fea</v>
@@ -20899,7 +20899,7 @@
         <v>26.43</v>
       </c>
       <c r="J457">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P457" t="str">
         <v>#488fea</v>
@@ -20943,7 +20943,7 @@
         <v>26.42</v>
       </c>
       <c r="J458">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P458" t="str">
         <v>#488fea</v>
@@ -20987,7 +20987,7 @@
         <v>30.39</v>
       </c>
       <c r="J459">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N459">
         <v>78209.03</v>
@@ -21034,7 +21034,7 @@
         <v>28.46</v>
       </c>
       <c r="J460">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P460" t="str">
         <v>#488fea</v>
@@ -21078,7 +21078,7 @@
         <v>26.66</v>
       </c>
       <c r="J461">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P461" t="str">
         <v>#488fea</v>
@@ -21122,7 +21122,7 @@
         <v>26.43</v>
       </c>
       <c r="J462">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P462" t="str">
         <v>#488fea</v>
@@ -21166,7 +21166,7 @@
         <v>26.42</v>
       </c>
       <c r="J463">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P463" t="str">
         <v>#488fea</v>
@@ -21210,7 +21210,7 @@
         <v>30.39</v>
       </c>
       <c r="J464">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P464" t="str">
         <v>#488fea</v>
@@ -21254,7 +21254,7 @@
         <v>28.46</v>
       </c>
       <c r="J465">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P465" t="str">
         <v>#488fea</v>
@@ -21298,7 +21298,7 @@
         <v>26.66</v>
       </c>
       <c r="J466">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P466" t="str">
         <v>#488fea</v>
@@ -21342,7 +21342,7 @@
         <v>26.43</v>
       </c>
       <c r="J467">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P467" t="str">
         <v>#488fea</v>
@@ -21386,7 +21386,7 @@
         <v>26.42</v>
       </c>
       <c r="J468">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P468" t="str">
         <v>#488fea</v>
@@ -21430,7 +21430,7 @@
         <v>30.39</v>
       </c>
       <c r="J469">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P469" t="str">
         <v>#488fea</v>
@@ -21474,7 +21474,7 @@
         <v>28.46</v>
       </c>
       <c r="J470">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P470" t="str">
         <v>#488fea</v>
@@ -21518,7 +21518,7 @@
         <v>26.66</v>
       </c>
       <c r="J471">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P471" t="str">
         <v>#488fea</v>
@@ -21562,7 +21562,7 @@
         <v>26.43</v>
       </c>
       <c r="J472">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P472" t="str">
         <v>#488fea</v>
@@ -21606,7 +21606,7 @@
         <v>26.42</v>
       </c>
       <c r="J473">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P473" t="str">
         <v>#488fea</v>
@@ -21650,7 +21650,7 @@
         <v>30.39</v>
       </c>
       <c r="J474">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P474" t="str">
         <v>#488fea</v>
@@ -21694,7 +21694,7 @@
         <v>28.46</v>
       </c>
       <c r="J475">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P475" t="str">
         <v>#488fea</v>
@@ -21738,7 +21738,7 @@
         <v>26.66</v>
       </c>
       <c r="J476">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P476" t="str">
         <v>#488fea</v>
@@ -21782,7 +21782,7 @@
         <v>26.43</v>
       </c>
       <c r="J477">
-        <v>108.56</v>
+        <v>109</v>
       </c>
       <c r="P477" t="str">
         <v>#488fea</v>
@@ -21826,7 +21826,7 @@
         <v>26.42</v>
       </c>
       <c r="J478">
-        <v>108.55</v>
+        <v>109</v>
       </c>
       <c r="P478" t="str">
         <v>#488fea</v>
@@ -21870,7 +21870,7 @@
         <v>31.16</v>
       </c>
       <c r="J479">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P479" t="str">
         <v>#488fea</v>
@@ -21914,7 +21914,7 @@
         <v>29.16</v>
       </c>
       <c r="J480">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P480" t="str">
         <v>#488fea</v>
@@ -21958,7 +21958,7 @@
         <v>27.32</v>
       </c>
       <c r="J481">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P481" t="str">
         <v>#488fea</v>
@@ -22002,7 +22002,7 @@
         <v>27.13</v>
       </c>
       <c r="J482">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="N482">
         <v>68996.9</v>
@@ -22049,7 +22049,7 @@
         <v>27.13</v>
       </c>
       <c r="J483">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P483" t="str">
         <v>#488fea</v>
@@ -22093,7 +22093,7 @@
         <v>31.16</v>
       </c>
       <c r="J484">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P484" t="str">
         <v>#488fea</v>
@@ -22137,7 +22137,7 @@
         <v>29.16</v>
       </c>
       <c r="J485">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P485" t="str">
         <v>#488fea</v>
@@ -22181,7 +22181,7 @@
         <v>27.32</v>
       </c>
       <c r="J486">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P486" t="str">
         <v>#488fea</v>
@@ -22225,7 +22225,7 @@
         <v>27.13</v>
       </c>
       <c r="J487">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P487" t="str">
         <v>#488fea</v>
@@ -22269,7 +22269,7 @@
         <v>27.13</v>
       </c>
       <c r="J488">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P488" t="str">
         <v>#488fea</v>
@@ -22313,7 +22313,7 @@
         <v>31.16</v>
       </c>
       <c r="J489">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P489" t="str">
         <v>#488fea</v>
@@ -22357,7 +22357,7 @@
         <v>29.16</v>
       </c>
       <c r="J490">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P490" t="str">
         <v>#488fea</v>
@@ -22401,7 +22401,7 @@
         <v>27.32</v>
       </c>
       <c r="J491">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P491" t="str">
         <v>#488fea</v>
@@ -22445,7 +22445,7 @@
         <v>27.13</v>
       </c>
       <c r="J492">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P492" t="str">
         <v>#488fea</v>
@@ -22489,7 +22489,7 @@
         <v>27.13</v>
       </c>
       <c r="J493">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P493" t="str">
         <v>#488fea</v>
@@ -22533,7 +22533,7 @@
         <v>31.16</v>
       </c>
       <c r="J494">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P494" t="str">
         <v>#488fea</v>
@@ -22577,7 +22577,7 @@
         <v>29.16</v>
       </c>
       <c r="J495">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="N495">
         <v>74435.94</v>
@@ -22624,7 +22624,7 @@
         <v>27.32</v>
       </c>
       <c r="J496">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P496" t="str">
         <v>#488fea</v>
@@ -22668,7 +22668,7 @@
         <v>27.13</v>
       </c>
       <c r="J497">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P497" t="str">
         <v>#488fea</v>
@@ -22712,7 +22712,7 @@
         <v>27.13</v>
       </c>
       <c r="J498">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P498" t="str">
         <v>#488fea</v>
@@ -22756,7 +22756,7 @@
         <v>31.16</v>
       </c>
       <c r="J499">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P499" t="str">
         <v>#488fea</v>
@@ -22800,7 +22800,7 @@
         <v>29.16</v>
       </c>
       <c r="J500">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="N500">
         <v>74435.94</v>
@@ -22847,7 +22847,7 @@
         <v>27.32</v>
       </c>
       <c r="J501">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P501" t="str">
         <v>#488fea</v>
@@ -22891,7 +22891,7 @@
         <v>27.13</v>
       </c>
       <c r="J502">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P502" t="str">
         <v>#488fea</v>
@@ -22935,7 +22935,7 @@
         <v>27.13</v>
       </c>
       <c r="J503">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P503" t="str">
         <v>#488fea</v>
@@ -22979,7 +22979,7 @@
         <v>31.16</v>
       </c>
       <c r="J504">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P504" t="str">
         <v>#488fea</v>
@@ -23023,7 +23023,7 @@
         <v>29.16</v>
       </c>
       <c r="J505">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P505" t="str">
         <v>#488fea</v>
@@ -23067,7 +23067,7 @@
         <v>27.32</v>
       </c>
       <c r="J506">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P506" t="str">
         <v>#488fea</v>
@@ -23111,7 +23111,7 @@
         <v>27.13</v>
       </c>
       <c r="J507">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P507" t="str">
         <v>#488fea</v>
@@ -23155,7 +23155,7 @@
         <v>27.13</v>
       </c>
       <c r="J508">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P508" t="str">
         <v>#488fea</v>
@@ -23199,7 +23199,7 @@
         <v>31.16</v>
       </c>
       <c r="J509">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P509" t="str">
         <v>#488fea</v>
@@ -23243,7 +23243,7 @@
         <v>29.16</v>
       </c>
       <c r="J510">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P510" t="str">
         <v>#488fea</v>
@@ -23287,7 +23287,7 @@
         <v>27.32</v>
       </c>
       <c r="J511">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P511" t="str">
         <v>#488fea</v>
@@ -23331,7 +23331,7 @@
         <v>27.13</v>
       </c>
       <c r="J512">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P512" t="str">
         <v>#488fea</v>
@@ -23375,7 +23375,7 @@
         <v>27.13</v>
       </c>
       <c r="J513">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P513" t="str">
         <v>#488fea</v>
@@ -23419,7 +23419,7 @@
         <v>31.16</v>
       </c>
       <c r="J514">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P514" t="str">
         <v>#488fea</v>
@@ -23463,7 +23463,7 @@
         <v>29.16</v>
       </c>
       <c r="J515">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P515" t="str">
         <v>#488fea</v>
@@ -23507,7 +23507,7 @@
         <v>27.32</v>
       </c>
       <c r="J516">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P516" t="str">
         <v>#488fea</v>
@@ -23551,7 +23551,7 @@
         <v>27.13</v>
       </c>
       <c r="J517">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P517" t="str">
         <v>#488fea</v>
@@ -23595,7 +23595,7 @@
         <v>27.13</v>
       </c>
       <c r="J518">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P518" t="str">
         <v>#488fea</v>
@@ -23639,7 +23639,7 @@
         <v>31.16</v>
       </c>
       <c r="J519">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P519" t="str">
         <v>#488fea</v>
@@ -23683,7 +23683,7 @@
         <v>29.16</v>
       </c>
       <c r="J520">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P520" t="str">
         <v>#488fea</v>
@@ -23727,7 +23727,7 @@
         <v>27.32</v>
       </c>
       <c r="J521">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P521" t="str">
         <v>#488fea</v>
@@ -23771,7 +23771,7 @@
         <v>27.13</v>
       </c>
       <c r="J522">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P522" t="str">
         <v>#488fea</v>
@@ -23815,7 +23815,7 @@
         <v>27.13</v>
       </c>
       <c r="J523">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P523" t="str">
         <v>#488fea</v>
@@ -23859,7 +23859,7 @@
         <v>31.16</v>
       </c>
       <c r="J524">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P524" t="str">
         <v>#488fea</v>
@@ -23903,7 +23903,7 @@
         <v>29.16</v>
       </c>
       <c r="J525">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P525" t="str">
         <v>#488fea</v>
@@ -23947,7 +23947,7 @@
         <v>27.32</v>
       </c>
       <c r="J526">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P526" t="str">
         <v>#488fea</v>
@@ -23991,7 +23991,7 @@
         <v>27.13</v>
       </c>
       <c r="J527">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P527" t="str">
         <v>#488fea</v>
@@ -24035,7 +24035,7 @@
         <v>27.13</v>
       </c>
       <c r="J528">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P528" t="str">
         <v>#488fea</v>
@@ -24079,7 +24079,7 @@
         <v>31.16</v>
       </c>
       <c r="J529">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P529" t="str">
         <v>#488fea</v>
@@ -24123,7 +24123,7 @@
         <v>29.16</v>
       </c>
       <c r="J530">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P530" t="str">
         <v>#488fea</v>
@@ -24167,7 +24167,7 @@
         <v>27.32</v>
       </c>
       <c r="J531">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P531" t="str">
         <v>#488fea</v>
@@ -24211,7 +24211,7 @@
         <v>27.13</v>
       </c>
       <c r="J532">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P532" t="str">
         <v>#488fea</v>
@@ -24255,7 +24255,7 @@
         <v>27.13</v>
       </c>
       <c r="J533">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P533" t="str">
         <v>#488fea</v>
@@ -24299,7 +24299,7 @@
         <v>31.16</v>
       </c>
       <c r="J534">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P534" t="str">
         <v>#488fea</v>
@@ -24343,7 +24343,7 @@
         <v>29.16</v>
       </c>
       <c r="J535">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P535" t="str">
         <v>#488fea</v>
@@ -24387,7 +24387,7 @@
         <v>27.32</v>
       </c>
       <c r="J536">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P536" t="str">
         <v>#488fea</v>
@@ -24431,7 +24431,7 @@
         <v>27.13</v>
       </c>
       <c r="J537">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P537" t="str">
         <v>#488fea</v>
@@ -24475,7 +24475,7 @@
         <v>27.13</v>
       </c>
       <c r="J538">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P538" t="str">
         <v>#488fea</v>
@@ -24519,7 +24519,7 @@
         <v>31.16</v>
       </c>
       <c r="J539">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P539" t="str">
         <v>#488fea</v>
@@ -24563,7 +24563,7 @@
         <v>29.16</v>
       </c>
       <c r="J540">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P540" t="str">
         <v>#488fea</v>
@@ -24607,7 +24607,7 @@
         <v>27.32</v>
       </c>
       <c r="J541">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P541" t="str">
         <v>#488fea</v>
@@ -24651,7 +24651,7 @@
         <v>27.13</v>
       </c>
       <c r="J542">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P542" t="str">
         <v>#488fea</v>
@@ -24695,7 +24695,7 @@
         <v>27.13</v>
       </c>
       <c r="J543">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P543" t="str">
         <v>#488fea</v>
@@ -24739,7 +24739,7 @@
         <v>31.16</v>
       </c>
       <c r="J544">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P544" t="str">
         <v>#488fea</v>
@@ -24783,7 +24783,7 @@
         <v>29.16</v>
       </c>
       <c r="J545">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P545" t="str">
         <v>#488fea</v>
@@ -24827,7 +24827,7 @@
         <v>27.32</v>
       </c>
       <c r="J546">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P546" t="str">
         <v>#488fea</v>
@@ -24871,7 +24871,7 @@
         <v>27.13</v>
       </c>
       <c r="J547">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P547" t="str">
         <v>#488fea</v>
@@ -24915,7 +24915,7 @@
         <v>27.13</v>
       </c>
       <c r="J548">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P548" t="str">
         <v>#488fea</v>
@@ -24959,7 +24959,7 @@
         <v>31.16</v>
       </c>
       <c r="J549">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P549" t="str">
         <v>#488fea</v>
@@ -25003,7 +25003,7 @@
         <v>29.16</v>
       </c>
       <c r="J550">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P550" t="str">
         <v>#488fea</v>
@@ -25047,7 +25047,7 @@
         <v>27.32</v>
       </c>
       <c r="J551">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P551" t="str">
         <v>#488fea</v>
@@ -25091,7 +25091,7 @@
         <v>27.13</v>
       </c>
       <c r="J552">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P552" t="str">
         <v>#488fea</v>
@@ -25135,7 +25135,7 @@
         <v>27.13</v>
       </c>
       <c r="J553">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P553" t="str">
         <v>#488fea</v>
@@ -25179,7 +25179,7 @@
         <v>31.16</v>
       </c>
       <c r="J554">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P554" t="str">
         <v>#488fea</v>
@@ -25223,7 +25223,7 @@
         <v>29.16</v>
       </c>
       <c r="J555">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P555" t="str">
         <v>#488fea</v>
@@ -25267,7 +25267,7 @@
         <v>27.32</v>
       </c>
       <c r="J556">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P556" t="str">
         <v>#488fea</v>
@@ -25311,7 +25311,7 @@
         <v>27.13</v>
       </c>
       <c r="J557">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P557" t="str">
         <v>#488fea</v>
@@ -25355,7 +25355,7 @@
         <v>27.13</v>
       </c>
       <c r="J558">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P558" t="str">
         <v>#488fea</v>
@@ -25399,7 +25399,7 @@
         <v>31.16</v>
       </c>
       <c r="J559">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P559" t="str">
         <v>#488fea</v>
@@ -25443,7 +25443,7 @@
         <v>29.16</v>
       </c>
       <c r="J560">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P560" t="str">
         <v>#488fea</v>
@@ -25487,7 +25487,7 @@
         <v>27.32</v>
       </c>
       <c r="J561">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P561" t="str">
         <v>#488fea</v>
@@ -25531,7 +25531,7 @@
         <v>27.13</v>
       </c>
       <c r="J562">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P562" t="str">
         <v>#488fea</v>
@@ -25575,7 +25575,7 @@
         <v>27.13</v>
       </c>
       <c r="J563">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P563" t="str">
         <v>#488fea</v>
@@ -25619,7 +25619,7 @@
         <v>31.16</v>
       </c>
       <c r="J564">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P564" t="str">
         <v>#488fea</v>
@@ -25663,7 +25663,7 @@
         <v>29.16</v>
       </c>
       <c r="J565">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P565" t="str">
         <v>#488fea</v>
@@ -25707,7 +25707,7 @@
         <v>27.32</v>
       </c>
       <c r="J566">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P566" t="str">
         <v>#488fea</v>
@@ -25751,7 +25751,7 @@
         <v>27.13</v>
       </c>
       <c r="J567">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P567" t="str">
         <v>#488fea</v>
@@ -25795,7 +25795,7 @@
         <v>27.13</v>
       </c>
       <c r="J568">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P568" t="str">
         <v>#488fea</v>
@@ -25839,7 +25839,7 @@
         <v>31.16</v>
       </c>
       <c r="J569">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P569" t="str">
         <v>#488fea</v>
@@ -25883,7 +25883,7 @@
         <v>29.16</v>
       </c>
       <c r="J570">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P570" t="str">
         <v>#488fea</v>
@@ -25927,7 +25927,7 @@
         <v>27.32</v>
       </c>
       <c r="J571">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P571" t="str">
         <v>#488fea</v>
@@ -25971,7 +25971,7 @@
         <v>27.13</v>
       </c>
       <c r="J572">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P572" t="str">
         <v>#488fea</v>
@@ -26015,7 +26015,7 @@
         <v>27.13</v>
       </c>
       <c r="J573">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P573" t="str">
         <v>#488fea</v>
@@ -26059,7 +26059,7 @@
         <v>31.16</v>
       </c>
       <c r="J574">
-        <v>125.67</v>
+        <v>126</v>
       </c>
       <c r="P574" t="str">
         <v>#488fea</v>
@@ -26103,7 +26103,7 @@
         <v>29.16</v>
       </c>
       <c r="J575">
-        <v>117.62</v>
+        <v>118</v>
       </c>
       <c r="P575" t="str">
         <v>#488fea</v>
@@ -26147,7 +26147,7 @@
         <v>27.32</v>
       </c>
       <c r="J576">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P576" t="str">
         <v>#488fea</v>
@@ -26191,7 +26191,7 @@
         <v>27.13</v>
       </c>
       <c r="J577">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P577" t="str">
         <v>#488fea</v>
@@ -26235,7 +26235,7 @@
         <v>27.13</v>
       </c>
       <c r="J578">
-        <v>109.45</v>
+        <v>109</v>
       </c>
       <c r="P578" t="str">
         <v>#488fea</v>
@@ -26279,7 +26279,7 @@
         <v>31.14</v>
       </c>
       <c r="J579">
-        <v>125.59</v>
+        <v>126</v>
       </c>
       <c r="P579" t="str">
         <v>#488fea</v>
@@ -26323,7 +26323,7 @@
         <v>29.17</v>
       </c>
       <c r="J580">
-        <v>117.63</v>
+        <v>118</v>
       </c>
       <c r="P580" t="str">
         <v>#488fea</v>
@@ -26367,7 +26367,7 @@
         <v>27.32</v>
       </c>
       <c r="J581">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P581" t="str">
         <v>#488fea</v>
@@ -26411,7 +26411,7 @@
         <v>27.08</v>
       </c>
       <c r="J582">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P582" t="str">
         <v>#488fea</v>
@@ -26455,7 +26455,7 @@
         <v>27.08</v>
       </c>
       <c r="J583">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P583" t="str">
         <v>#488fea</v>
@@ -26499,7 +26499,7 @@
         <v>31.14</v>
       </c>
       <c r="J584">
-        <v>125.59</v>
+        <v>126</v>
       </c>
       <c r="P584" t="str">
         <v>#488fea</v>
@@ -26543,7 +26543,7 @@
         <v>29.17</v>
       </c>
       <c r="J585">
-        <v>117.63</v>
+        <v>118</v>
       </c>
       <c r="P585" t="str">
         <v>#488fea</v>
@@ -26587,7 +26587,7 @@
         <v>27.32</v>
       </c>
       <c r="J586">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P586" t="str">
         <v>#488fea</v>
@@ -26631,7 +26631,7 @@
         <v>27.08</v>
       </c>
       <c r="J587">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P587" t="str">
         <v>#488fea</v>
@@ -26675,7 +26675,7 @@
         <v>27.08</v>
       </c>
       <c r="J588">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P588" t="str">
         <v>#488fea</v>
@@ -26719,7 +26719,7 @@
         <v>31.14</v>
       </c>
       <c r="J589">
-        <v>125.59</v>
+        <v>126</v>
       </c>
       <c r="P589" t="str">
         <v>#488fea</v>
@@ -26763,7 +26763,7 @@
         <v>29.17</v>
       </c>
       <c r="J590">
-        <v>117.63</v>
+        <v>118</v>
       </c>
       <c r="P590" t="str">
         <v>#488fea</v>
@@ -26807,7 +26807,7 @@
         <v>27.32</v>
       </c>
       <c r="J591">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P591" t="str">
         <v>#488fea</v>
@@ -26851,7 +26851,7 @@
         <v>27.08</v>
       </c>
       <c r="J592">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P592" t="str">
         <v>#488fea</v>
@@ -26895,7 +26895,7 @@
         <v>27.08</v>
       </c>
       <c r="J593">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P593" t="str">
         <v>#488fea</v>
@@ -26939,7 +26939,7 @@
         <v>31.14</v>
       </c>
       <c r="J594">
-        <v>125.59</v>
+        <v>126</v>
       </c>
       <c r="P594" t="str">
         <v>#488fea</v>
@@ -26983,7 +26983,7 @@
         <v>29.17</v>
       </c>
       <c r="J595">
-        <v>117.63</v>
+        <v>118</v>
       </c>
       <c r="P595" t="str">
         <v>#488fea</v>
@@ -27027,7 +27027,7 @@
         <v>27.32</v>
       </c>
       <c r="J596">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P596" t="str">
         <v>#488fea</v>
@@ -27071,7 +27071,7 @@
         <v>27.08</v>
       </c>
       <c r="J597">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P597" t="str">
         <v>#488fea</v>
@@ -27115,7 +27115,7 @@
         <v>27.08</v>
       </c>
       <c r="J598">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P598" t="str">
         <v>#488fea</v>
@@ -27159,7 +27159,7 @@
         <v>31.14</v>
       </c>
       <c r="J599">
-        <v>125.59</v>
+        <v>126</v>
       </c>
       <c r="P599" t="str">
         <v>#488fea</v>
@@ -27203,7 +27203,7 @@
         <v>29.17</v>
       </c>
       <c r="J600">
-        <v>117.63</v>
+        <v>118</v>
       </c>
       <c r="P600" t="str">
         <v>#488fea</v>
@@ -27247,7 +27247,7 @@
         <v>27.32</v>
       </c>
       <c r="J601">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P601" t="str">
         <v>#488fea</v>
@@ -27291,7 +27291,7 @@
         <v>27.08</v>
       </c>
       <c r="J602">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P602" t="str">
         <v>#488fea</v>
@@ -27335,7 +27335,7 @@
         <v>27.08</v>
       </c>
       <c r="J603">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P603" t="str">
         <v>#488fea</v>
@@ -27379,7 +27379,7 @@
         <v>31.14</v>
       </c>
       <c r="J604">
-        <v>125.59</v>
+        <v>126</v>
       </c>
       <c r="P604" t="str">
         <v>#488fea</v>
@@ -27423,7 +27423,7 @@
         <v>29.17</v>
       </c>
       <c r="J605">
-        <v>117.63</v>
+        <v>118</v>
       </c>
       <c r="P605" t="str">
         <v>#488fea</v>
@@ -27467,7 +27467,7 @@
         <v>27.32</v>
       </c>
       <c r="J606">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P606" t="str">
         <v>#488fea</v>
@@ -27511,7 +27511,7 @@
         <v>27.08</v>
       </c>
       <c r="J607">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P607" t="str">
         <v>#488fea</v>
@@ -27555,7 +27555,7 @@
         <v>27.08</v>
       </c>
       <c r="J608">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P608" t="str">
         <v>#488fea</v>
@@ -27599,7 +27599,7 @@
         <v>31.14</v>
       </c>
       <c r="J609">
-        <v>125.59</v>
+        <v>126</v>
       </c>
       <c r="P609" t="str">
         <v>#488fea</v>
@@ -27643,7 +27643,7 @@
         <v>29.17</v>
       </c>
       <c r="J610">
-        <v>117.63</v>
+        <v>118</v>
       </c>
       <c r="P610" t="str">
         <v>#488fea</v>
@@ -27687,7 +27687,7 @@
         <v>27.32</v>
       </c>
       <c r="J611">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P611" t="str">
         <v>#488fea</v>
@@ -27731,7 +27731,7 @@
         <v>27.08</v>
       </c>
       <c r="J612">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P612" t="str">
         <v>#488fea</v>
@@ -27775,7 +27775,7 @@
         <v>27.08</v>
       </c>
       <c r="J613">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P613" t="str">
         <v>#488fea</v>
@@ -27819,7 +27819,7 @@
         <v>31.14</v>
       </c>
       <c r="J614">
-        <v>125.59</v>
+        <v>126</v>
       </c>
       <c r="P614" t="str">
         <v>#488fea</v>
@@ -27863,7 +27863,7 @@
         <v>29.17</v>
       </c>
       <c r="J615">
-        <v>117.63</v>
+        <v>118</v>
       </c>
       <c r="P615" t="str">
         <v>#488fea</v>
@@ -27907,7 +27907,7 @@
         <v>27.32</v>
       </c>
       <c r="J616">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P616" t="str">
         <v>#488fea</v>
@@ -27951,7 +27951,7 @@
         <v>27.08</v>
       </c>
       <c r="J617">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P617" t="str">
         <v>#488fea</v>
@@ -27995,7 +27995,7 @@
         <v>27.08</v>
       </c>
       <c r="J618">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P618" t="str">
         <v>#488fea</v>
@@ -28039,7 +28039,7 @@
         <v>31.14</v>
       </c>
       <c r="J619">
-        <v>125.59</v>
+        <v>126</v>
       </c>
       <c r="P619" t="str">
         <v>#488fea</v>
@@ -28083,7 +28083,7 @@
         <v>29.17</v>
       </c>
       <c r="J620">
-        <v>117.63</v>
+        <v>118</v>
       </c>
       <c r="P620" t="str">
         <v>#488fea</v>
@@ -28127,7 +28127,7 @@
         <v>27.32</v>
       </c>
       <c r="J621">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P621" t="str">
         <v>#488fea</v>
@@ -28171,7 +28171,7 @@
         <v>27.08</v>
       </c>
       <c r="J622">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P622" t="str">
         <v>#488fea</v>
@@ -28215,7 +28215,7 @@
         <v>27.08</v>
       </c>
       <c r="J623">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P623" t="str">
         <v>#488fea</v>
@@ -28259,7 +28259,7 @@
         <v>31.14</v>
       </c>
       <c r="J624">
-        <v>125.59</v>
+        <v>126</v>
       </c>
       <c r="P624" t="str">
         <v>#488fea</v>
@@ -28303,7 +28303,7 @@
         <v>29.17</v>
       </c>
       <c r="J625">
-        <v>117.63</v>
+        <v>118</v>
       </c>
       <c r="P625" t="str">
         <v>#488fea</v>
@@ -28347,7 +28347,7 @@
         <v>27.32</v>
       </c>
       <c r="J626">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P626" t="str">
         <v>#488fea</v>
@@ -28391,7 +28391,7 @@
         <v>27.08</v>
       </c>
       <c r="J627">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P627" t="str">
         <v>#488fea</v>
@@ -28435,7 +28435,7 @@
         <v>27.08</v>
       </c>
       <c r="J628">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P628" t="str">
         <v>#488fea</v>
@@ -28479,7 +28479,7 @@
         <v>31.14</v>
       </c>
       <c r="J629">
-        <v>125.59</v>
+        <v>126</v>
       </c>
       <c r="P629" t="str">
         <v>#488fea</v>
@@ -28523,7 +28523,7 @@
         <v>29.17</v>
       </c>
       <c r="J630">
-        <v>117.63</v>
+        <v>118</v>
       </c>
       <c r="P630" t="str">
         <v>#488fea</v>
@@ -28567,7 +28567,7 @@
         <v>27.32</v>
       </c>
       <c r="J631">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P631" t="str">
         <v>#488fea</v>
@@ -28611,7 +28611,7 @@
         <v>27.08</v>
       </c>
       <c r="J632">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P632" t="str">
         <v>#488fea</v>
@@ -28655,7 +28655,7 @@
         <v>27.08</v>
       </c>
       <c r="J633">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P633" t="str">
         <v>#488fea</v>
@@ -28699,7 +28699,7 @@
         <v>31.14</v>
       </c>
       <c r="J634">
-        <v>125.59</v>
+        <v>126</v>
       </c>
       <c r="P634" t="str">
         <v>#488fea</v>
@@ -28743,7 +28743,7 @@
         <v>29.17</v>
       </c>
       <c r="J635">
-        <v>117.63</v>
+        <v>118</v>
       </c>
       <c r="P635" t="str">
         <v>#488fea</v>
@@ -28787,7 +28787,7 @@
         <v>27.32</v>
       </c>
       <c r="J636">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P636" t="str">
         <v>#488fea</v>
@@ -28831,7 +28831,7 @@
         <v>27.08</v>
       </c>
       <c r="J637">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P637" t="str">
         <v>#488fea</v>
@@ -28875,7 +28875,7 @@
         <v>27.08</v>
       </c>
       <c r="J638">
-        <v>109.21</v>
+        <v>109</v>
       </c>
       <c r="P638" t="str">
         <v>#488fea</v>

--- a/zhuoyue-boyifu/柏奕府销售表.xlsx
+++ b/zhuoyue-boyifu/柏奕府销售表.xlsx
@@ -513,7 +513,7 @@
         <v>29.2</v>
       </c>
       <c r="J2">
-        <v>118</v>
+        <v>117.66</v>
       </c>
       <c r="N2">
         <v>81748</v>
@@ -560,7 +560,7 @@
         <v>27.35</v>
       </c>
       <c r="J3">
-        <v>110</v>
+        <v>110.22</v>
       </c>
       <c r="P3" t="str">
         <v>#488fea</v>
@@ -604,7 +604,7 @@
         <v>29.2</v>
       </c>
       <c r="J4">
-        <v>118</v>
+        <v>117.66</v>
       </c>
       <c r="N4">
         <v>82448</v>
@@ -651,7 +651,7 @@
         <v>27.35</v>
       </c>
       <c r="J5">
-        <v>110</v>
+        <v>110.22</v>
       </c>
       <c r="P5" t="str">
         <v>#488fea</v>
@@ -695,7 +695,7 @@
         <v>27.17</v>
       </c>
       <c r="J6">
-        <v>109</v>
+        <v>109.49</v>
       </c>
       <c r="P6" t="str">
         <v>#488fea</v>
@@ -739,7 +739,7 @@
         <v>29.2</v>
       </c>
       <c r="J7">
-        <v>118</v>
+        <v>117.66</v>
       </c>
       <c r="N7">
         <v>82448</v>
@@ -786,7 +786,7 @@
         <v>27.17</v>
       </c>
       <c r="J8">
-        <v>109</v>
+        <v>109.49</v>
       </c>
       <c r="P8" t="str">
         <v>#488fea</v>
@@ -830,7 +830,7 @@
         <v>29.2</v>
       </c>
       <c r="J9">
-        <v>118</v>
+        <v>117.66</v>
       </c>
       <c r="N9">
         <v>82448</v>
@@ -877,7 +877,7 @@
         <v>27.35</v>
       </c>
       <c r="J10">
-        <v>110</v>
+        <v>110.22</v>
       </c>
       <c r="P10" t="str">
         <v>#488fea</v>
@@ -921,7 +921,7 @@
         <v>29.2</v>
       </c>
       <c r="J11">
-        <v>118</v>
+        <v>117.66</v>
       </c>
       <c r="N11">
         <v>82398</v>
@@ -968,7 +968,7 @@
         <v>27.35</v>
       </c>
       <c r="J12">
-        <v>110</v>
+        <v>110.22</v>
       </c>
       <c r="P12" t="str">
         <v>#488fea</v>
@@ -1012,7 +1012,7 @@
         <v>27.17</v>
       </c>
       <c r="J13">
-        <v>109</v>
+        <v>109.49</v>
       </c>
       <c r="P13" t="str">
         <v>#488fea</v>
@@ -1056,7 +1056,7 @@
         <v>29.2</v>
       </c>
       <c r="J14">
-        <v>118</v>
+        <v>117.66</v>
       </c>
       <c r="N14">
         <v>82298</v>
@@ -1103,7 +1103,7 @@
         <v>29.2</v>
       </c>
       <c r="J15">
-        <v>118</v>
+        <v>117.66</v>
       </c>
       <c r="N15">
         <v>82198</v>
@@ -1150,7 +1150,7 @@
         <v>27.35</v>
       </c>
       <c r="J16">
-        <v>110</v>
+        <v>110.22</v>
       </c>
       <c r="P16" t="str">
         <v>#488fea</v>
@@ -1194,7 +1194,7 @@
         <v>27.17</v>
       </c>
       <c r="J17">
-        <v>109</v>
+        <v>109.49</v>
       </c>
       <c r="P17" t="str">
         <v>#488fea</v>
@@ -1238,7 +1238,7 @@
         <v>27.35</v>
       </c>
       <c r="J18">
-        <v>110</v>
+        <v>110.22</v>
       </c>
       <c r="P18" t="str">
         <v>#488fea</v>
@@ -1282,7 +1282,7 @@
         <v>27.17</v>
       </c>
       <c r="J19">
-        <v>109</v>
+        <v>109.49</v>
       </c>
       <c r="P19" t="str">
         <v>#488fea</v>
@@ -1326,7 +1326,7 @@
         <v>31.19</v>
       </c>
       <c r="J20">
-        <v>126</v>
+        <v>125.7</v>
       </c>
       <c r="N20">
         <v>78264</v>
@@ -1373,7 +1373,7 @@
         <v>29.2</v>
       </c>
       <c r="J21">
-        <v>118</v>
+        <v>117.66</v>
       </c>
       <c r="N21">
         <v>81628.02</v>
@@ -1420,7 +1420,7 @@
         <v>27.35</v>
       </c>
       <c r="J22">
-        <v>110</v>
+        <v>110.22</v>
       </c>
       <c r="P22" t="str">
         <v>#488fea</v>
@@ -1464,7 +1464,7 @@
         <v>27.17</v>
       </c>
       <c r="J23">
-        <v>109</v>
+        <v>109.49</v>
       </c>
       <c r="P23" t="str">
         <v>#488fea</v>
@@ -1508,7 +1508,7 @@
         <v>29.2</v>
       </c>
       <c r="J24">
-        <v>118</v>
+        <v>117.66</v>
       </c>
       <c r="N24">
         <v>81628.02</v>
@@ -1555,7 +1555,7 @@
         <v>27.35</v>
       </c>
       <c r="J25">
-        <v>110</v>
+        <v>110.22</v>
       </c>
       <c r="P25" t="str">
         <v>#488fea</v>
@@ -1599,7 +1599,7 @@
         <v>27.17</v>
       </c>
       <c r="J26">
-        <v>109</v>
+        <v>109.49</v>
       </c>
       <c r="P26" t="str">
         <v>#488fea</v>
@@ -1643,7 +1643,7 @@
         <v>29.2</v>
       </c>
       <c r="J27">
-        <v>118</v>
+        <v>117.66</v>
       </c>
       <c r="N27">
         <v>81498</v>
@@ -1690,7 +1690,7 @@
         <v>27.35</v>
       </c>
       <c r="J28">
-        <v>110</v>
+        <v>110.22</v>
       </c>
       <c r="P28" t="str">
         <v>#488fea</v>
@@ -1734,7 +1734,7 @@
         <v>29.2</v>
       </c>
       <c r="J29">
-        <v>118</v>
+        <v>117.66</v>
       </c>
       <c r="N29">
         <v>81398</v>
@@ -1781,7 +1781,7 @@
         <v>27.35</v>
       </c>
       <c r="J30">
-        <v>110</v>
+        <v>110.22</v>
       </c>
       <c r="P30" t="str">
         <v>#488fea</v>
@@ -1825,7 +1825,7 @@
         <v>29.2</v>
       </c>
       <c r="J31">
-        <v>118</v>
+        <v>117.66</v>
       </c>
       <c r="P31" t="str">
         <v>#488fea</v>
@@ -1869,7 +1869,7 @@
         <v>27.35</v>
       </c>
       <c r="J32">
-        <v>110</v>
+        <v>110.22</v>
       </c>
       <c r="P32" t="str">
         <v>#488fea</v>
@@ -1913,7 +1913,7 @@
         <v>27.35</v>
       </c>
       <c r="J33">
-        <v>110</v>
+        <v>110.22</v>
       </c>
       <c r="P33" t="str">
         <v>#488fea</v>
@@ -1957,7 +1957,7 @@
         <v>27.35</v>
       </c>
       <c r="J34">
-        <v>110</v>
+        <v>110.22</v>
       </c>
       <c r="P34" t="str">
         <v>#488fea</v>
@@ -2001,7 +2001,7 @@
         <v>29.2</v>
       </c>
       <c r="J35">
-        <v>118</v>
+        <v>117.66</v>
       </c>
       <c r="N35">
         <v>80598</v>
@@ -2048,7 +2048,7 @@
         <v>27.35</v>
       </c>
       <c r="J36">
-        <v>110</v>
+        <v>110.22</v>
       </c>
       <c r="P36" t="str">
         <v>#488fea</v>
@@ -2092,7 +2092,7 @@
         <v>31.18</v>
       </c>
       <c r="J37">
-        <v>126</v>
+        <v>125.63</v>
       </c>
       <c r="N37">
         <v>76766.37</v>
@@ -2139,7 +2139,7 @@
         <v>29.2</v>
       </c>
       <c r="J38">
-        <v>118</v>
+        <v>117.66</v>
       </c>
       <c r="N38">
         <v>80398</v>
@@ -2186,7 +2186,7 @@
         <v>30.41</v>
       </c>
       <c r="J39">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="N39">
         <v>80532.13</v>
@@ -2233,7 +2233,7 @@
         <v>28.47</v>
       </c>
       <c r="J40">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N40">
         <v>81226.11</v>
@@ -2280,7 +2280,7 @@
         <v>26.66</v>
       </c>
       <c r="J41">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="N41">
         <v>75141.9</v>
@@ -2327,7 +2327,7 @@
         <v>26.48</v>
       </c>
       <c r="J42">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="N42">
         <v>75186.56</v>
@@ -2374,7 +2374,7 @@
         <v>26.48</v>
       </c>
       <c r="J43">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="N43">
         <v>74886.56</v>
@@ -2421,7 +2421,7 @@
         <v>30.41</v>
       </c>
       <c r="J44">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="N44">
         <v>81540.14</v>
@@ -2468,7 +2468,7 @@
         <v>28.47</v>
       </c>
       <c r="J45">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N45">
         <v>82226.11</v>
@@ -2515,7 +2515,7 @@
         <v>26.66</v>
       </c>
       <c r="J46">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P46" t="str">
         <v>#488fea</v>
@@ -2559,7 +2559,7 @@
         <v>26.48</v>
       </c>
       <c r="J47">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P47" t="str">
         <v>#488fea</v>
@@ -2603,7 +2603,7 @@
         <v>26.48</v>
       </c>
       <c r="J48">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P48" t="str">
         <v>#488fea</v>
@@ -2647,7 +2647,7 @@
         <v>30.41</v>
       </c>
       <c r="J49">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="P49" t="str">
         <v>#488fea</v>
@@ -2691,7 +2691,7 @@
         <v>28.47</v>
       </c>
       <c r="J50">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N50">
         <v>82176.11</v>
@@ -2738,7 +2738,7 @@
         <v>26.66</v>
       </c>
       <c r="J51">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P51" t="str">
         <v>#488fea</v>
@@ -2782,7 +2782,7 @@
         <v>26.48</v>
       </c>
       <c r="J52">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="N52">
         <v>76156.56</v>
@@ -2829,7 +2829,7 @@
         <v>26.48</v>
       </c>
       <c r="J53">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P53" t="str">
         <v>#488fea</v>
@@ -2870,7 +2870,7 @@
         <v>30.41</v>
       </c>
       <c r="J54">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="N54">
         <v>81390.14</v>
@@ -2917,7 +2917,7 @@
         <v>28.47</v>
       </c>
       <c r="J55">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N55">
         <v>82076.11</v>
@@ -2964,7 +2964,7 @@
         <v>26.66</v>
       </c>
       <c r="J56">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P56" t="str">
         <v>#488fea</v>
@@ -3008,7 +3008,7 @@
         <v>26.48</v>
       </c>
       <c r="J57">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="N57">
         <v>76096.56</v>
@@ -3055,7 +3055,7 @@
         <v>26.48</v>
       </c>
       <c r="J58">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="N58">
         <v>75796.56</v>
@@ -3102,7 +3102,7 @@
         <v>30.41</v>
       </c>
       <c r="J59">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="N59">
         <v>81390.14</v>
@@ -3149,7 +3149,7 @@
         <v>28.47</v>
       </c>
       <c r="J60">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N60">
         <v>82076.11</v>
@@ -3196,7 +3196,7 @@
         <v>26.66</v>
       </c>
       <c r="J61">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P61" t="str">
         <v>#488fea</v>
@@ -3240,7 +3240,7 @@
         <v>26.48</v>
       </c>
       <c r="J62">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="N62">
         <v>76096.56</v>
@@ -3287,7 +3287,7 @@
         <v>26.48</v>
       </c>
       <c r="J63">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="N63">
         <v>75796.56</v>
@@ -3334,7 +3334,7 @@
         <v>30.41</v>
       </c>
       <c r="J64">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="N64">
         <v>81340.14</v>
@@ -3381,7 +3381,7 @@
         <v>28.47</v>
       </c>
       <c r="J65">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N65">
         <v>82026.11</v>
@@ -3428,7 +3428,7 @@
         <v>26.66</v>
       </c>
       <c r="J66">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P66" t="str">
         <v>#488fea</v>
@@ -3472,7 +3472,7 @@
         <v>26.48</v>
       </c>
       <c r="J67">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P67" t="str">
         <v>#488fea</v>
@@ -3516,7 +3516,7 @@
         <v>26.48</v>
       </c>
       <c r="J68">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P68" t="str">
         <v>#488fea</v>
@@ -3560,7 +3560,7 @@
         <v>30.41</v>
       </c>
       <c r="J69">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="N69">
         <v>81290.14</v>
@@ -3607,7 +3607,7 @@
         <v>28.47</v>
       </c>
       <c r="J70">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N70">
         <v>81976.11</v>
@@ -3654,7 +3654,7 @@
         <v>26.66</v>
       </c>
       <c r="J71">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P71" t="str">
         <v>#488fea</v>
@@ -3698,7 +3698,7 @@
         <v>26.48</v>
       </c>
       <c r="J72">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P72" t="str">
         <v>#488fea</v>
@@ -3742,7 +3742,7 @@
         <v>26.48</v>
       </c>
       <c r="J73">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="N73">
         <v>75736.56</v>
@@ -3789,7 +3789,7 @@
         <v>30.41</v>
       </c>
       <c r="J74">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="N74">
         <v>81240.14</v>
@@ -3836,7 +3836,7 @@
         <v>28.47</v>
       </c>
       <c r="J75">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N75">
         <v>81926.11</v>
@@ -3883,7 +3883,7 @@
         <v>26.66</v>
       </c>
       <c r="J76">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P76" t="str">
         <v>#488fea</v>
@@ -3927,7 +3927,7 @@
         <v>26.48</v>
       </c>
       <c r="J77">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P77" t="str">
         <v>#488fea</v>
@@ -3971,7 +3971,7 @@
         <v>26.48</v>
       </c>
       <c r="J78">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="N78">
         <v>75706.56</v>
@@ -4018,7 +4018,7 @@
         <v>30.41</v>
       </c>
       <c r="J79">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="N79">
         <v>81190.14</v>
@@ -4065,7 +4065,7 @@
         <v>28.47</v>
       </c>
       <c r="J80">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N80">
         <v>81876.11</v>
@@ -4112,7 +4112,7 @@
         <v>26.66</v>
       </c>
       <c r="J81">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P81" t="str">
         <v>#488fea</v>
@@ -4156,7 +4156,7 @@
         <v>26.48</v>
       </c>
       <c r="J82">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P82" t="str">
         <v>#488fea</v>
@@ -4200,7 +4200,7 @@
         <v>26.48</v>
       </c>
       <c r="J83">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="N83">
         <v>75656.56</v>
@@ -4247,7 +4247,7 @@
         <v>30.41</v>
       </c>
       <c r="J84">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="N84">
         <v>81090.14</v>
@@ -4294,7 +4294,7 @@
         <v>28.47</v>
       </c>
       <c r="J85">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N85">
         <v>81776.11</v>
@@ -4341,7 +4341,7 @@
         <v>26.66</v>
       </c>
       <c r="J86">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P86" t="str">
         <v>#488fea</v>
@@ -4385,7 +4385,7 @@
         <v>26.48</v>
       </c>
       <c r="J87">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P87" t="str">
         <v>#488fea</v>
@@ -4429,7 +4429,7 @@
         <v>26.48</v>
       </c>
       <c r="J88">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P88" t="str">
         <v>#488fea</v>
@@ -4473,7 +4473,7 @@
         <v>30.41</v>
       </c>
       <c r="J89">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="P89" t="str">
         <v>#488fea</v>
@@ -4514,7 +4514,7 @@
         <v>28.47</v>
       </c>
       <c r="J90">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N90">
         <v>81676.11</v>
@@ -4561,7 +4561,7 @@
         <v>26.66</v>
       </c>
       <c r="J91">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P91" t="str">
         <v>#488fea</v>
@@ -4605,7 +4605,7 @@
         <v>26.48</v>
       </c>
       <c r="J92">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P92" t="str">
         <v>#488fea</v>
@@ -4649,7 +4649,7 @@
         <v>26.48</v>
       </c>
       <c r="J93">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="N93">
         <v>75556.56</v>
@@ -4696,7 +4696,7 @@
         <v>30.41</v>
       </c>
       <c r="J94">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="P94" t="str">
         <v>#488fea</v>
@@ -4740,7 +4740,7 @@
         <v>28.47</v>
       </c>
       <c r="J95">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N95">
         <v>81576.11</v>
@@ -4787,7 +4787,7 @@
         <v>26.66</v>
       </c>
       <c r="J96">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P96" t="str">
         <v>#488fea</v>
@@ -4831,7 +4831,7 @@
         <v>26.48</v>
       </c>
       <c r="J97">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P97" t="str">
         <v>#488fea</v>
@@ -4875,7 +4875,7 @@
         <v>26.48</v>
       </c>
       <c r="J98">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P98" t="str">
         <v>#488fea</v>
@@ -4919,7 +4919,7 @@
         <v>30.41</v>
       </c>
       <c r="J99">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="N99">
         <v>80790.14</v>
@@ -4966,7 +4966,7 @@
         <v>28.47</v>
       </c>
       <c r="J100">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N100">
         <v>81476.11</v>
@@ -5013,7 +5013,7 @@
         <v>26.66</v>
       </c>
       <c r="J101">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P101" t="str">
         <v>#488fea</v>
@@ -5057,7 +5057,7 @@
         <v>26.48</v>
       </c>
       <c r="J102">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P102" t="str">
         <v>#488fea</v>
@@ -5101,7 +5101,7 @@
         <v>26.48</v>
       </c>
       <c r="J103">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P103" t="str">
         <v>#488fea</v>
@@ -5145,7 +5145,7 @@
         <v>30.41</v>
       </c>
       <c r="J104">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="N104">
         <v>80690.14</v>
@@ -5192,7 +5192,7 @@
         <v>28.47</v>
       </c>
       <c r="J105">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N105">
         <v>81276.11</v>
@@ -5239,7 +5239,7 @@
         <v>26.66</v>
       </c>
       <c r="J106">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P106" t="str">
         <v>#488fea</v>
@@ -5283,7 +5283,7 @@
         <v>26.48</v>
       </c>
       <c r="J107">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P107" t="str">
         <v>#488fea</v>
@@ -5327,7 +5327,7 @@
         <v>26.48</v>
       </c>
       <c r="J108">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P108" t="str">
         <v>#488fea</v>
@@ -5371,7 +5371,7 @@
         <v>30.41</v>
       </c>
       <c r="J109">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="P109" t="str">
         <v>#488fea</v>
@@ -5415,7 +5415,7 @@
         <v>28.47</v>
       </c>
       <c r="J110">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N110">
         <v>81276.11</v>
@@ -5462,7 +5462,7 @@
         <v>26.66</v>
       </c>
       <c r="J111">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P111" t="str">
         <v>#488fea</v>
@@ -5506,7 +5506,7 @@
         <v>26.48</v>
       </c>
       <c r="J112">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P112" t="str">
         <v>#488fea</v>
@@ -5550,7 +5550,7 @@
         <v>26.48</v>
       </c>
       <c r="J113">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P113" t="str">
         <v>#488fea</v>
@@ -5594,7 +5594,7 @@
         <v>30.41</v>
       </c>
       <c r="J114">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="P114" t="str">
         <v>#488fea</v>
@@ -5635,7 +5635,7 @@
         <v>28.47</v>
       </c>
       <c r="J115">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N115">
         <v>81176.11</v>
@@ -5682,7 +5682,7 @@
         <v>26.66</v>
       </c>
       <c r="J116">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P116" t="str">
         <v>#488fea</v>
@@ -5726,7 +5726,7 @@
         <v>26.48</v>
       </c>
       <c r="J117">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P117" t="str">
         <v>#488fea</v>
@@ -5770,7 +5770,7 @@
         <v>26.48</v>
       </c>
       <c r="J118">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="N118">
         <v>75306.56</v>
@@ -5817,7 +5817,7 @@
         <v>30.41</v>
       </c>
       <c r="J119">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="P119" t="str">
         <v>#488fea</v>
@@ -5861,7 +5861,7 @@
         <v>28.47</v>
       </c>
       <c r="J120">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N120">
         <v>80976.11</v>
@@ -5908,7 +5908,7 @@
         <v>26.66</v>
       </c>
       <c r="J121">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P121" t="str">
         <v>#488fea</v>
@@ -5952,7 +5952,7 @@
         <v>26.48</v>
       </c>
       <c r="J122">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P122" t="str">
         <v>#488fea</v>
@@ -5996,7 +5996,7 @@
         <v>26.48</v>
       </c>
       <c r="J123">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P123" t="str">
         <v>#488fea</v>
@@ -6040,7 +6040,7 @@
         <v>30.41</v>
       </c>
       <c r="J124">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="P124" t="str">
         <v>#488fea</v>
@@ -6084,7 +6084,7 @@
         <v>28.47</v>
       </c>
       <c r="J125">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N125">
         <v>80876.11</v>
@@ -6131,7 +6131,7 @@
         <v>26.66</v>
       </c>
       <c r="J126">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P126" t="str">
         <v>#488fea</v>
@@ -6175,7 +6175,7 @@
         <v>26.48</v>
       </c>
       <c r="J127">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P127" t="str">
         <v>#488fea</v>
@@ -6219,7 +6219,7 @@
         <v>26.48</v>
       </c>
       <c r="J128">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P128" t="str">
         <v>#488fea</v>
@@ -6263,7 +6263,7 @@
         <v>30.41</v>
       </c>
       <c r="J129">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="P129" t="str">
         <v>#488fea</v>
@@ -6307,7 +6307,7 @@
         <v>28.47</v>
       </c>
       <c r="J130">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N130">
         <v>80776.11</v>
@@ -6354,7 +6354,7 @@
         <v>26.66</v>
       </c>
       <c r="J131">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P131" t="str">
         <v>#488fea</v>
@@ -6398,7 +6398,7 @@
         <v>26.48</v>
       </c>
       <c r="J132">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P132" t="str">
         <v>#488fea</v>
@@ -6442,7 +6442,7 @@
         <v>26.48</v>
       </c>
       <c r="J133">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P133" t="str">
         <v>#488fea</v>
@@ -6486,7 +6486,7 @@
         <v>30.41</v>
       </c>
       <c r="J134">
-        <v>125</v>
+        <v>124.92</v>
       </c>
       <c r="N134">
         <v>79966.12</v>
@@ -6533,7 +6533,7 @@
         <v>28.47</v>
       </c>
       <c r="J135">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N135">
         <v>80676.11</v>
@@ -6580,7 +6580,7 @@
         <v>26.66</v>
       </c>
       <c r="J136">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P136" t="str">
         <v>#488fea</v>
@@ -6624,7 +6624,7 @@
         <v>26.48</v>
       </c>
       <c r="J137">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P137" t="str">
         <v>#488fea</v>
@@ -6668,7 +6668,7 @@
         <v>26.48</v>
       </c>
       <c r="J138">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P138" t="str">
         <v>#488fea</v>
@@ -6712,7 +6712,7 @@
         <v>30.4</v>
       </c>
       <c r="J139">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N139">
         <v>79867.1</v>
@@ -6759,7 +6759,7 @@
         <v>28.47</v>
       </c>
       <c r="J140">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N140">
         <v>80524.79</v>
@@ -6806,7 +6806,7 @@
         <v>26.67</v>
       </c>
       <c r="J141">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P141" t="str">
         <v>#488fea</v>
@@ -6850,7 +6850,7 @@
         <v>26.43</v>
       </c>
       <c r="J142">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P142" t="str">
         <v>#488fea</v>
@@ -6894,7 +6894,7 @@
         <v>26.43</v>
       </c>
       <c r="J143">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P143" t="str">
         <v>#488fea</v>
@@ -6938,7 +6938,7 @@
         <v>30.4</v>
       </c>
       <c r="J144">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="P144" t="str">
         <v>#488fea</v>
@@ -6982,7 +6982,7 @@
         <v>28.47</v>
       </c>
       <c r="J145">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N145">
         <v>80424.79</v>
@@ -7029,7 +7029,7 @@
         <v>26.67</v>
       </c>
       <c r="J146">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P146" t="str">
         <v>#488fea</v>
@@ -7073,7 +7073,7 @@
         <v>26.43</v>
       </c>
       <c r="J147">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P147" t="str">
         <v>#488fea</v>
@@ -7117,7 +7117,7 @@
         <v>26.43</v>
       </c>
       <c r="J148">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P148" t="str">
         <v>#488fea</v>
@@ -7161,7 +7161,7 @@
         <v>30.4</v>
       </c>
       <c r="J149">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="P149" t="str">
         <v>#488fea</v>
@@ -7205,7 +7205,7 @@
         <v>28.47</v>
       </c>
       <c r="J150">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N150">
         <v>80224.79</v>
@@ -7252,7 +7252,7 @@
         <v>26.67</v>
       </c>
       <c r="J151">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P151" t="str">
         <v>#488fea</v>
@@ -7296,7 +7296,7 @@
         <v>26.43</v>
       </c>
       <c r="J152">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P152" t="str">
         <v>#488fea</v>
@@ -7340,7 +7340,7 @@
         <v>26.43</v>
       </c>
       <c r="J153">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P153" t="str">
         <v>#488fea</v>
@@ -7384,7 +7384,7 @@
         <v>30.4</v>
       </c>
       <c r="J154">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N154">
         <v>79567.1</v>
@@ -7431,7 +7431,7 @@
         <v>28.47</v>
       </c>
       <c r="J155">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N155">
         <v>80224.79</v>
@@ -7478,7 +7478,7 @@
         <v>26.67</v>
       </c>
       <c r="J156">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P156" t="str">
         <v>#488fea</v>
@@ -7522,7 +7522,7 @@
         <v>26.43</v>
       </c>
       <c r="J157">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P157" t="str">
         <v>#488fea</v>
@@ -7566,7 +7566,7 @@
         <v>26.43</v>
       </c>
       <c r="J158">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P158" t="str">
         <v>#488fea</v>
@@ -7610,7 +7610,7 @@
         <v>30.4</v>
       </c>
       <c r="J159">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N159">
         <v>79467.1</v>
@@ -7657,7 +7657,7 @@
         <v>28.47</v>
       </c>
       <c r="J160">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N160">
         <v>80124.79</v>
@@ -7704,7 +7704,7 @@
         <v>26.67</v>
       </c>
       <c r="J161">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P161" t="str">
         <v>#488fea</v>
@@ -7748,7 +7748,7 @@
         <v>26.43</v>
       </c>
       <c r="J162">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P162" t="str">
         <v>#488fea</v>
@@ -7792,7 +7792,7 @@
         <v>26.43</v>
       </c>
       <c r="J163">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P163" t="str">
         <v>#488fea</v>
@@ -7836,7 +7836,7 @@
         <v>30.4</v>
       </c>
       <c r="J164">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="P164" t="str">
         <v>#488fea</v>
@@ -7880,7 +7880,7 @@
         <v>28.47</v>
       </c>
       <c r="J165">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N165">
         <v>80024.79</v>
@@ -7927,7 +7927,7 @@
         <v>26.67</v>
       </c>
       <c r="J166">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P166" t="str">
         <v>#488fea</v>
@@ -7971,7 +7971,7 @@
         <v>26.43</v>
       </c>
       <c r="J167">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P167" t="str">
         <v>#488fea</v>
@@ -8015,7 +8015,7 @@
         <v>26.43</v>
       </c>
       <c r="J168">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P168" t="str">
         <v>#488fea</v>
@@ -8059,7 +8059,7 @@
         <v>30.4</v>
       </c>
       <c r="J169">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="P169" t="str">
         <v>#488fea</v>
@@ -8103,7 +8103,7 @@
         <v>28.47</v>
       </c>
       <c r="J170">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N170">
         <v>79924.79</v>
@@ -8150,7 +8150,7 @@
         <v>26.67</v>
       </c>
       <c r="J171">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P171" t="str">
         <v>#488fea</v>
@@ -8194,7 +8194,7 @@
         <v>26.43</v>
       </c>
       <c r="J172">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P172" t="str">
         <v>#488fea</v>
@@ -8238,7 +8238,7 @@
         <v>26.43</v>
       </c>
       <c r="J173">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P173" t="str">
         <v>#488fea</v>
@@ -8282,7 +8282,7 @@
         <v>30.4</v>
       </c>
       <c r="J174">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="P174" t="str">
         <v>#488fea</v>
@@ -8326,7 +8326,7 @@
         <v>28.47</v>
       </c>
       <c r="J175">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N175">
         <v>79824.79</v>
@@ -8373,7 +8373,7 @@
         <v>26.67</v>
       </c>
       <c r="J176">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P176" t="str">
         <v>#488fea</v>
@@ -8417,7 +8417,7 @@
         <v>26.43</v>
       </c>
       <c r="J177">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P177" t="str">
         <v>#488fea</v>
@@ -8461,7 +8461,7 @@
         <v>26.43</v>
       </c>
       <c r="J178">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P178" t="str">
         <v>#488fea</v>
@@ -8505,7 +8505,7 @@
         <v>30.4</v>
       </c>
       <c r="J179">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N179">
         <v>78967.1</v>
@@ -8552,7 +8552,7 @@
         <v>28.47</v>
       </c>
       <c r="J180">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N180">
         <v>79624.79</v>
@@ -8599,7 +8599,7 @@
         <v>26.67</v>
       </c>
       <c r="J181">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P181" t="str">
         <v>#488fea</v>
@@ -8643,7 +8643,7 @@
         <v>26.43</v>
       </c>
       <c r="J182">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P182" t="str">
         <v>#488fea</v>
@@ -8687,7 +8687,7 @@
         <v>26.43</v>
       </c>
       <c r="J183">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P183" t="str">
         <v>#488fea</v>
@@ -8731,7 +8731,7 @@
         <v>30.4</v>
       </c>
       <c r="J184">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N184">
         <v>78967.1</v>
@@ -8778,7 +8778,7 @@
         <v>28.47</v>
       </c>
       <c r="J185">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N185">
         <v>79624.79</v>
@@ -8825,7 +8825,7 @@
         <v>26.67</v>
       </c>
       <c r="J186">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P186" t="str">
         <v>#488fea</v>
@@ -8869,7 +8869,7 @@
         <v>26.43</v>
       </c>
       <c r="J187">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P187" t="str">
         <v>#488fea</v>
@@ -8913,7 +8913,7 @@
         <v>26.43</v>
       </c>
       <c r="J188">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P188" t="str">
         <v>#488fea</v>
@@ -8957,7 +8957,7 @@
         <v>30.4</v>
       </c>
       <c r="J189">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="P189" t="str">
         <v>#488fea</v>
@@ -9001,7 +9001,7 @@
         <v>28.47</v>
       </c>
       <c r="J190">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N190">
         <v>79524.79</v>
@@ -9048,7 +9048,7 @@
         <v>26.67</v>
       </c>
       <c r="J191">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P191" t="str">
         <v>#488fea</v>
@@ -9092,7 +9092,7 @@
         <v>26.43</v>
       </c>
       <c r="J192">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P192" t="str">
         <v>#488fea</v>
@@ -9136,7 +9136,7 @@
         <v>26.43</v>
       </c>
       <c r="J193">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P193" t="str">
         <v>#488fea</v>
@@ -9180,7 +9180,7 @@
         <v>30.4</v>
       </c>
       <c r="J194">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="P194" t="str">
         <v>#488fea</v>
@@ -9224,7 +9224,7 @@
         <v>28.47</v>
       </c>
       <c r="J195">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N195">
         <v>78870.85</v>
@@ -9271,7 +9271,7 @@
         <v>26.67</v>
       </c>
       <c r="J196">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P196" t="str">
         <v>#488fea</v>
@@ -9315,7 +9315,7 @@
         <v>26.43</v>
       </c>
       <c r="J197">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P197" t="str">
         <v>#488fea</v>
@@ -9359,7 +9359,7 @@
         <v>26.43</v>
       </c>
       <c r="J198">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P198" t="str">
         <v>#488fea</v>
@@ -9403,7 +9403,7 @@
         <v>30.4</v>
       </c>
       <c r="J199">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N199">
         <v>78014.68</v>
@@ -9450,7 +9450,7 @@
         <v>28.47</v>
       </c>
       <c r="J200">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="P200" t="str">
         <v>#488fea</v>
@@ -9494,7 +9494,7 @@
         <v>26.67</v>
       </c>
       <c r="J201">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P201" t="str">
         <v>#488fea</v>
@@ -9538,7 +9538,7 @@
         <v>26.43</v>
       </c>
       <c r="J202">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P202" t="str">
         <v>#488fea</v>
@@ -9582,7 +9582,7 @@
         <v>26.43</v>
       </c>
       <c r="J203">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P203" t="str">
         <v>#488fea</v>
@@ -9626,7 +9626,7 @@
         <v>30.4</v>
       </c>
       <c r="J204">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N204">
         <v>77814.68</v>
@@ -9673,7 +9673,7 @@
         <v>28.47</v>
       </c>
       <c r="J205">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N205">
         <v>78670.85</v>
@@ -9720,7 +9720,7 @@
         <v>26.67</v>
       </c>
       <c r="J206">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P206" t="str">
         <v>#488fea</v>
@@ -9764,7 +9764,7 @@
         <v>26.43</v>
       </c>
       <c r="J207">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P207" t="str">
         <v>#488fea</v>
@@ -9808,7 +9808,7 @@
         <v>26.43</v>
       </c>
       <c r="J208">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P208" t="str">
         <v>#488fea</v>
@@ -9852,7 +9852,7 @@
         <v>30.4</v>
       </c>
       <c r="J209">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N209">
         <v>77614.68</v>
@@ -9899,7 +9899,7 @@
         <v>28.47</v>
       </c>
       <c r="J210">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="P210" t="str">
         <v>#488fea</v>
@@ -9943,7 +9943,7 @@
         <v>26.67</v>
       </c>
       <c r="J211">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P211" t="str">
         <v>#488fea</v>
@@ -9987,7 +9987,7 @@
         <v>26.43</v>
       </c>
       <c r="J212">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P212" t="str">
         <v>#488fea</v>
@@ -10031,7 +10031,7 @@
         <v>26.43</v>
       </c>
       <c r="J213">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P213" t="str">
         <v>#488fea</v>
@@ -10075,7 +10075,7 @@
         <v>30.4</v>
       </c>
       <c r="J214">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N214">
         <v>77414.68</v>
@@ -10122,7 +10122,7 @@
         <v>28.47</v>
       </c>
       <c r="J215">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N215">
         <v>78270.85</v>
@@ -10169,7 +10169,7 @@
         <v>26.67</v>
       </c>
       <c r="J216">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P216" t="str">
         <v>#488fea</v>
@@ -10213,7 +10213,7 @@
         <v>26.43</v>
       </c>
       <c r="J217">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P217" t="str">
         <v>#488fea</v>
@@ -10257,7 +10257,7 @@
         <v>26.43</v>
       </c>
       <c r="J218">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P218" t="str">
         <v>#488fea</v>
@@ -10301,7 +10301,7 @@
         <v>30.4</v>
       </c>
       <c r="J219">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="P219" t="str">
         <v>#488fea</v>
@@ -10345,7 +10345,7 @@
         <v>28.47</v>
       </c>
       <c r="J220">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N220">
         <v>78070.85</v>
@@ -10392,7 +10392,7 @@
         <v>26.67</v>
       </c>
       <c r="J221">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P221" t="str">
         <v>#488fea</v>
@@ -10436,7 +10436,7 @@
         <v>26.43</v>
       </c>
       <c r="J222">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P222" t="str">
         <v>#488fea</v>
@@ -10480,7 +10480,7 @@
         <v>26.43</v>
       </c>
       <c r="J223">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P223" t="str">
         <v>#488fea</v>
@@ -10524,7 +10524,7 @@
         <v>30.4</v>
       </c>
       <c r="J224">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N224">
         <v>77014.68</v>
@@ -10571,7 +10571,7 @@
         <v>28.47</v>
       </c>
       <c r="J225">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="N225">
         <v>77870.85</v>
@@ -10618,7 +10618,7 @@
         <v>26.67</v>
       </c>
       <c r="J226">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P226" t="str">
         <v>#488fea</v>
@@ -10662,7 +10662,7 @@
         <v>26.43</v>
       </c>
       <c r="J227">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P227" t="str">
         <v>#488fea</v>
@@ -10706,7 +10706,7 @@
         <v>26.43</v>
       </c>
       <c r="J228">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P228" t="str">
         <v>#488fea</v>
@@ -10750,7 +10750,7 @@
         <v>30.4</v>
       </c>
       <c r="J229">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N229">
         <v>75413</v>
@@ -10797,7 +10797,7 @@
         <v>28.47</v>
       </c>
       <c r="J230">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="P230" t="str">
         <v>#488fea</v>
@@ -10841,7 +10841,7 @@
         <v>26.67</v>
       </c>
       <c r="J231">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P231" t="str">
         <v>#488fea</v>
@@ -10885,7 +10885,7 @@
         <v>26.43</v>
       </c>
       <c r="J232">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P232" t="str">
         <v>#488fea</v>
@@ -10929,7 +10929,7 @@
         <v>26.43</v>
       </c>
       <c r="J233">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P233" t="str">
         <v>#488fea</v>
@@ -10973,7 +10973,7 @@
         <v>30.4</v>
       </c>
       <c r="J234">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N234">
         <v>75213</v>
@@ -11020,7 +11020,7 @@
         <v>28.47</v>
       </c>
       <c r="J235">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="P235" t="str">
         <v>#488fea</v>
@@ -11064,7 +11064,7 @@
         <v>26.67</v>
       </c>
       <c r="J236">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P236" t="str">
         <v>#488fea</v>
@@ -11108,7 +11108,7 @@
         <v>26.43</v>
       </c>
       <c r="J237">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P237" t="str">
         <v>#488fea</v>
@@ -11152,7 +11152,7 @@
         <v>26.43</v>
       </c>
       <c r="J238">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P238" t="str">
         <v>#488fea</v>
@@ -11196,7 +11196,7 @@
         <v>30.4</v>
       </c>
       <c r="J239">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N239">
         <v>74213</v>
@@ -11243,7 +11243,7 @@
         <v>28.47</v>
       </c>
       <c r="J240">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="P240" t="str">
         <v>#488fea</v>
@@ -11287,7 +11287,7 @@
         <v>26.67</v>
       </c>
       <c r="J241">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P241" t="str">
         <v>#488fea</v>
@@ -11331,7 +11331,7 @@
         <v>26.43</v>
       </c>
       <c r="J242">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P242" t="str">
         <v>#488fea</v>
@@ -11375,7 +11375,7 @@
         <v>26.43</v>
       </c>
       <c r="J243">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P243" t="str">
         <v>#488fea</v>
@@ -11419,7 +11419,7 @@
         <v>30.4</v>
       </c>
       <c r="J244">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N244">
         <v>73213</v>
@@ -11466,7 +11466,7 @@
         <v>28.47</v>
       </c>
       <c r="J245">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="P245" t="str">
         <v>#488fea</v>
@@ -11510,7 +11510,7 @@
         <v>26.67</v>
       </c>
       <c r="J246">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P246" t="str">
         <v>#488fea</v>
@@ -11554,7 +11554,7 @@
         <v>26.43</v>
       </c>
       <c r="J247">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P247" t="str">
         <v>#488fea</v>
@@ -11598,7 +11598,7 @@
         <v>26.43</v>
       </c>
       <c r="J248">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P248" t="str">
         <v>#488fea</v>
@@ -11642,7 +11642,7 @@
         <v>30.4</v>
       </c>
       <c r="J249">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N249">
         <v>72213</v>
@@ -11689,7 +11689,7 @@
         <v>28.47</v>
       </c>
       <c r="J250">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="P250" t="str">
         <v>#488fea</v>
@@ -11733,7 +11733,7 @@
         <v>26.67</v>
       </c>
       <c r="J251">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P251" t="str">
         <v>#488fea</v>
@@ -11777,7 +11777,7 @@
         <v>26.43</v>
       </c>
       <c r="J252">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P252" t="str">
         <v>#488fea</v>
@@ -11821,7 +11821,7 @@
         <v>26.43</v>
       </c>
       <c r="J253">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P253" t="str">
         <v>#488fea</v>
@@ -11865,7 +11865,7 @@
         <v>30.4</v>
       </c>
       <c r="J254">
-        <v>125</v>
+        <v>124.85</v>
       </c>
       <c r="N254">
         <v>71213</v>
@@ -11912,7 +11912,7 @@
         <v>28.47</v>
       </c>
       <c r="J255">
-        <v>117</v>
+        <v>116.93</v>
       </c>
       <c r="P255" t="str">
         <v>#488fea</v>
@@ -11956,7 +11956,7 @@
         <v>26.67</v>
       </c>
       <c r="J256">
-        <v>110</v>
+        <v>109.54</v>
       </c>
       <c r="P256" t="str">
         <v>#488fea</v>
@@ -12000,7 +12000,7 @@
         <v>26.43</v>
       </c>
       <c r="J257">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P257" t="str">
         <v>#488fea</v>
@@ -12044,7 +12044,7 @@
         <v>26.43</v>
       </c>
       <c r="J258">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P258" t="str">
         <v>#488fea</v>
@@ -12088,7 +12088,7 @@
         <v>30.4</v>
       </c>
       <c r="J259">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="N259">
         <v>82546.79</v>
@@ -12135,7 +12135,7 @@
         <v>28.46</v>
       </c>
       <c r="J260">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="N260">
         <v>78925.69</v>
@@ -12182,7 +12182,7 @@
         <v>26.65</v>
       </c>
       <c r="J261">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="N261">
         <v>73032.07</v>
@@ -12229,7 +12229,7 @@
         <v>26.48</v>
       </c>
       <c r="J262">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P262" t="str">
         <v>#488fea</v>
@@ -12273,7 +12273,7 @@
         <v>26.48</v>
       </c>
       <c r="J263">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P263" t="str">
         <v>#488fea</v>
@@ -12317,7 +12317,7 @@
         <v>30.4</v>
       </c>
       <c r="J264">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="N264">
         <v>83546.79</v>
@@ -12364,7 +12364,7 @@
         <v>28.46</v>
       </c>
       <c r="J265">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="N265">
         <v>79925.69</v>
@@ -12411,7 +12411,7 @@
         <v>26.65</v>
       </c>
       <c r="J266">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P266" t="str">
         <v>#488fea</v>
@@ -12455,7 +12455,7 @@
         <v>26.48</v>
       </c>
       <c r="J267">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P267" t="str">
         <v>#488fea</v>
@@ -12499,7 +12499,7 @@
         <v>26.48</v>
       </c>
       <c r="J268">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P268" t="str">
         <v>#488fea</v>
@@ -12543,7 +12543,7 @@
         <v>30.4</v>
       </c>
       <c r="J269">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="P269" t="str">
         <v>#488fea</v>
@@ -12587,7 +12587,7 @@
         <v>28.46</v>
       </c>
       <c r="J270">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="N270">
         <v>79875.69</v>
@@ -12634,7 +12634,7 @@
         <v>26.65</v>
       </c>
       <c r="J271">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P271" t="str">
         <v>#488fea</v>
@@ -12678,7 +12678,7 @@
         <v>26.48</v>
       </c>
       <c r="J272">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P272" t="str">
         <v>#488fea</v>
@@ -12722,7 +12722,7 @@
         <v>26.48</v>
       </c>
       <c r="J273">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P273" t="str">
         <v>#488fea</v>
@@ -12766,7 +12766,7 @@
         <v>30.4</v>
       </c>
       <c r="J274">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="N274">
         <v>83396.78</v>
@@ -12813,7 +12813,7 @@
         <v>28.46</v>
       </c>
       <c r="J275">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="N275">
         <v>79775.69</v>
@@ -12860,7 +12860,7 @@
         <v>26.65</v>
       </c>
       <c r="J276">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P276" t="str">
         <v>#488fea</v>
@@ -12904,7 +12904,7 @@
         <v>26.48</v>
       </c>
       <c r="J277">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P277" t="str">
         <v>#488fea</v>
@@ -12948,7 +12948,7 @@
         <v>26.48</v>
       </c>
       <c r="J278">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P278" t="str">
         <v>#488fea</v>
@@ -12992,7 +12992,7 @@
         <v>30.4</v>
       </c>
       <c r="J279">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="N279">
         <v>83396.78</v>
@@ -13039,7 +13039,7 @@
         <v>28.46</v>
       </c>
       <c r="J280">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="N280">
         <v>79775.69</v>
@@ -13086,7 +13086,7 @@
         <v>26.65</v>
       </c>
       <c r="J281">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P281" t="str">
         <v>#488fea</v>
@@ -13130,7 +13130,7 @@
         <v>26.48</v>
       </c>
       <c r="J282">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P282" t="str">
         <v>#488fea</v>
@@ -13174,7 +13174,7 @@
         <v>26.48</v>
       </c>
       <c r="J283">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="N283">
         <v>73287</v>
@@ -13221,7 +13221,7 @@
         <v>30.4</v>
       </c>
       <c r="J284">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="N284">
         <v>83346.79</v>
@@ -13268,7 +13268,7 @@
         <v>28.46</v>
       </c>
       <c r="J285">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="N285">
         <v>79725.69</v>
@@ -13315,7 +13315,7 @@
         <v>26.65</v>
       </c>
       <c r="J286">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P286" t="str">
         <v>#488fea</v>
@@ -13359,7 +13359,7 @@
         <v>26.48</v>
       </c>
       <c r="J287">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="N287">
         <v>73557</v>
@@ -13406,7 +13406,7 @@
         <v>26.48</v>
       </c>
       <c r="J288">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P288" t="str">
         <v>#488fea</v>
@@ -13450,7 +13450,7 @@
         <v>30.4</v>
       </c>
       <c r="J289">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="P289" t="str">
         <v>#488fea</v>
@@ -13494,7 +13494,7 @@
         <v>28.46</v>
       </c>
       <c r="J290">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="N290">
         <v>79675.69</v>
@@ -13541,7 +13541,7 @@
         <v>26.65</v>
       </c>
       <c r="J291">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P291" t="str">
         <v>#488fea</v>
@@ -13585,7 +13585,7 @@
         <v>26.48</v>
       </c>
       <c r="J292">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P292" t="str">
         <v>#488fea</v>
@@ -13629,7 +13629,7 @@
         <v>26.48</v>
       </c>
       <c r="J293">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P293" t="str">
         <v>#488fea</v>
@@ -13673,7 +13673,7 @@
         <v>30.4</v>
       </c>
       <c r="J294">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="P294" t="str">
         <v>#488fea</v>
@@ -13717,7 +13717,7 @@
         <v>28.46</v>
       </c>
       <c r="J295">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="N295">
         <v>79625.69</v>
@@ -13764,7 +13764,7 @@
         <v>26.65</v>
       </c>
       <c r="J296">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P296" t="str">
         <v>#488fea</v>
@@ -13808,7 +13808,7 @@
         <v>26.48</v>
       </c>
       <c r="J297">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P297" t="str">
         <v>#488fea</v>
@@ -13852,7 +13852,7 @@
         <v>26.48</v>
       </c>
       <c r="J298">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P298" t="str">
         <v>#488fea</v>
@@ -13896,7 +13896,7 @@
         <v>30.4</v>
       </c>
       <c r="J299">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="P299" t="str">
         <v>#488fea</v>
@@ -13940,7 +13940,7 @@
         <v>28.46</v>
       </c>
       <c r="J300">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="N300">
         <v>79575.69</v>
@@ -13987,7 +13987,7 @@
         <v>26.65</v>
       </c>
       <c r="J301">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P301" t="str">
         <v>#488fea</v>
@@ -14031,7 +14031,7 @@
         <v>26.48</v>
       </c>
       <c r="J302">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P302" t="str">
         <v>#488fea</v>
@@ -14075,7 +14075,7 @@
         <v>26.48</v>
       </c>
       <c r="J303">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P303" t="str">
         <v>#488fea</v>
@@ -14119,7 +14119,7 @@
         <v>30.4</v>
       </c>
       <c r="J304">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="P304" t="str">
         <v>#488fea</v>
@@ -14163,7 +14163,7 @@
         <v>28.46</v>
       </c>
       <c r="J305">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="N305">
         <v>79475.69</v>
@@ -14210,7 +14210,7 @@
         <v>26.65</v>
       </c>
       <c r="J306">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P306" t="str">
         <v>#488fea</v>
@@ -14254,7 +14254,7 @@
         <v>26.48</v>
       </c>
       <c r="J307">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P307" t="str">
         <v>#488fea</v>
@@ -14298,7 +14298,7 @@
         <v>26.48</v>
       </c>
       <c r="J308">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P308" t="str">
         <v>#488fea</v>
@@ -14342,7 +14342,7 @@
         <v>30.4</v>
       </c>
       <c r="J309">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="P309" t="str">
         <v>#488fea</v>
@@ -14386,7 +14386,7 @@
         <v>28.46</v>
       </c>
       <c r="J310">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P310" t="str">
         <v>#488fea</v>
@@ -14430,7 +14430,7 @@
         <v>26.65</v>
       </c>
       <c r="J311">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P311" t="str">
         <v>#488fea</v>
@@ -14474,7 +14474,7 @@
         <v>26.48</v>
       </c>
       <c r="J312">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P312" t="str">
         <v>#488fea</v>
@@ -14518,7 +14518,7 @@
         <v>26.48</v>
       </c>
       <c r="J313">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P313" t="str">
         <v>#488fea</v>
@@ -14562,7 +14562,7 @@
         <v>30.4</v>
       </c>
       <c r="J314">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="P314" t="str">
         <v>#488fea</v>
@@ -14603,7 +14603,7 @@
         <v>28.46</v>
       </c>
       <c r="J315">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P315" t="str">
         <v>#488fea</v>
@@ -14647,7 +14647,7 @@
         <v>26.65</v>
       </c>
       <c r="J316">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P316" t="str">
         <v>#488fea</v>
@@ -14691,7 +14691,7 @@
         <v>26.48</v>
       </c>
       <c r="J317">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P317" t="str">
         <v>#488fea</v>
@@ -14735,7 +14735,7 @@
         <v>26.48</v>
       </c>
       <c r="J318">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P318" t="str">
         <v>#488fea</v>
@@ -14779,7 +14779,7 @@
         <v>30.4</v>
       </c>
       <c r="J319">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="P319" t="str">
         <v>#488fea</v>
@@ -14823,7 +14823,7 @@
         <v>28.46</v>
       </c>
       <c r="J320">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P320" t="str">
         <v>#488fea</v>
@@ -14867,7 +14867,7 @@
         <v>26.65</v>
       </c>
       <c r="J321">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P321" t="str">
         <v>#488fea</v>
@@ -14911,7 +14911,7 @@
         <v>26.48</v>
       </c>
       <c r="J322">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P322" t="str">
         <v>#488fea</v>
@@ -14955,7 +14955,7 @@
         <v>26.48</v>
       </c>
       <c r="J323">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P323" t="str">
         <v>#488fea</v>
@@ -14999,7 +14999,7 @@
         <v>30.4</v>
       </c>
       <c r="J324">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="P324" t="str">
         <v>#488fea</v>
@@ -15043,7 +15043,7 @@
         <v>28.46</v>
       </c>
       <c r="J325">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="N325">
         <v>78975.69</v>
@@ -15090,7 +15090,7 @@
         <v>26.65</v>
       </c>
       <c r="J326">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P326" t="str">
         <v>#488fea</v>
@@ -15134,7 +15134,7 @@
         <v>26.48</v>
       </c>
       <c r="J327">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P327" t="str">
         <v>#488fea</v>
@@ -15178,7 +15178,7 @@
         <v>26.48</v>
       </c>
       <c r="J328">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P328" t="str">
         <v>#488fea</v>
@@ -15222,7 +15222,7 @@
         <v>30.4</v>
       </c>
       <c r="J329">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="N329">
         <v>82596.78</v>
@@ -15269,7 +15269,7 @@
         <v>28.46</v>
       </c>
       <c r="J330">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P330" t="str">
         <v>#488fea</v>
@@ -15310,7 +15310,7 @@
         <v>26.65</v>
       </c>
       <c r="J331">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P331" t="str">
         <v>#488fea</v>
@@ -15354,7 +15354,7 @@
         <v>26.48</v>
       </c>
       <c r="J332">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P332" t="str">
         <v>#488fea</v>
@@ -15398,7 +15398,7 @@
         <v>26.48</v>
       </c>
       <c r="J333">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P333" t="str">
         <v>#488fea</v>
@@ -15442,7 +15442,7 @@
         <v>30.4</v>
       </c>
       <c r="J334">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="N334">
         <v>82496.78</v>
@@ -15489,7 +15489,7 @@
         <v>28.46</v>
       </c>
       <c r="J335">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P335" t="str">
         <v>#488fea</v>
@@ -15530,7 +15530,7 @@
         <v>26.65</v>
       </c>
       <c r="J336">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P336" t="str">
         <v>#488fea</v>
@@ -15574,7 +15574,7 @@
         <v>26.48</v>
       </c>
       <c r="J337">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P337" t="str">
         <v>#488fea</v>
@@ -15618,7 +15618,7 @@
         <v>26.48</v>
       </c>
       <c r="J338">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P338" t="str">
         <v>#488fea</v>
@@ -15662,7 +15662,7 @@
         <v>30.4</v>
       </c>
       <c r="J339">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="P339" t="str">
         <v>#488fea</v>
@@ -15706,7 +15706,7 @@
         <v>28.46</v>
       </c>
       <c r="J340">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P340" t="str">
         <v>#488fea</v>
@@ -15750,7 +15750,7 @@
         <v>26.65</v>
       </c>
       <c r="J341">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P341" t="str">
         <v>#488fea</v>
@@ -15794,7 +15794,7 @@
         <v>26.48</v>
       </c>
       <c r="J342">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P342" t="str">
         <v>#488fea</v>
@@ -15838,7 +15838,7 @@
         <v>26.48</v>
       </c>
       <c r="J343">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P343" t="str">
         <v>#488fea</v>
@@ -15882,7 +15882,7 @@
         <v>30.4</v>
       </c>
       <c r="J344">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="P344" t="str">
         <v>#488fea</v>
@@ -15926,7 +15926,7 @@
         <v>28.46</v>
       </c>
       <c r="J345">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="N345">
         <v>78575.69</v>
@@ -15973,7 +15973,7 @@
         <v>26.65</v>
       </c>
       <c r="J346">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P346" t="str">
         <v>#488fea</v>
@@ -16017,7 +16017,7 @@
         <v>26.48</v>
       </c>
       <c r="J347">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P347" t="str">
         <v>#488fea</v>
@@ -16061,7 +16061,7 @@
         <v>26.48</v>
       </c>
       <c r="J348">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P348" t="str">
         <v>#488fea</v>
@@ -16105,7 +16105,7 @@
         <v>30.4</v>
       </c>
       <c r="J349">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="N349">
         <v>82096.78</v>
@@ -16152,7 +16152,7 @@
         <v>28.46</v>
       </c>
       <c r="J350">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P350" t="str">
         <v>#488fea</v>
@@ -16196,7 +16196,7 @@
         <v>26.65</v>
       </c>
       <c r="J351">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P351" t="str">
         <v>#488fea</v>
@@ -16240,7 +16240,7 @@
         <v>26.48</v>
       </c>
       <c r="J352">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P352" t="str">
         <v>#488fea</v>
@@ -16284,7 +16284,7 @@
         <v>26.48</v>
       </c>
       <c r="J353">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P353" t="str">
         <v>#488fea</v>
@@ -16328,7 +16328,7 @@
         <v>30.4</v>
       </c>
       <c r="J354">
-        <v>125</v>
+        <v>124.91</v>
       </c>
       <c r="P354" t="str">
         <v>#488fea</v>
@@ -16372,7 +16372,7 @@
         <v>28.46</v>
       </c>
       <c r="J355">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P355" t="str">
         <v>#488fea</v>
@@ -16416,7 +16416,7 @@
         <v>26.65</v>
       </c>
       <c r="J356">
-        <v>110</v>
+        <v>109.52</v>
       </c>
       <c r="P356" t="str">
         <v>#488fea</v>
@@ -16460,7 +16460,7 @@
         <v>26.48</v>
       </c>
       <c r="J357">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P357" t="str">
         <v>#488fea</v>
@@ -16504,7 +16504,7 @@
         <v>26.48</v>
       </c>
       <c r="J358">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="P358" t="str">
         <v>#488fea</v>
@@ -16548,7 +16548,7 @@
         <v>30.39</v>
       </c>
       <c r="J359">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="N359">
         <v>81897.4</v>
@@ -16595,7 +16595,7 @@
         <v>28.46</v>
       </c>
       <c r="J360">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P360" t="str">
         <v>#488fea</v>
@@ -16639,7 +16639,7 @@
         <v>26.66</v>
       </c>
       <c r="J361">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P361" t="str">
         <v>#488fea</v>
@@ -16683,7 +16683,7 @@
         <v>26.43</v>
       </c>
       <c r="J362">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P362" t="str">
         <v>#488fea</v>
@@ -16727,7 +16727,7 @@
         <v>26.42</v>
       </c>
       <c r="J363">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P363" t="str">
         <v>#488fea</v>
@@ -16771,7 +16771,7 @@
         <v>30.39</v>
       </c>
       <c r="J364">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="P364" t="str">
         <v>#488fea</v>
@@ -16815,7 +16815,7 @@
         <v>28.46</v>
       </c>
       <c r="J365">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P365" t="str">
         <v>#488fea</v>
@@ -16859,7 +16859,7 @@
         <v>26.66</v>
       </c>
       <c r="J366">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P366" t="str">
         <v>#488fea</v>
@@ -16903,7 +16903,7 @@
         <v>26.43</v>
       </c>
       <c r="J367">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P367" t="str">
         <v>#488fea</v>
@@ -16947,7 +16947,7 @@
         <v>26.42</v>
       </c>
       <c r="J368">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P368" t="str">
         <v>#488fea</v>
@@ -16991,7 +16991,7 @@
         <v>30.39</v>
       </c>
       <c r="J369">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="N369">
         <v>81597.4</v>
@@ -17038,7 +17038,7 @@
         <v>28.46</v>
       </c>
       <c r="J370">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P370" t="str">
         <v>#488fea</v>
@@ -17082,7 +17082,7 @@
         <v>26.66</v>
       </c>
       <c r="J371">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P371" t="str">
         <v>#488fea</v>
@@ -17126,7 +17126,7 @@
         <v>26.43</v>
       </c>
       <c r="J372">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P372" t="str">
         <v>#488fea</v>
@@ -17170,7 +17170,7 @@
         <v>26.42</v>
       </c>
       <c r="J373">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P373" t="str">
         <v>#488fea</v>
@@ -17214,7 +17214,7 @@
         <v>30.39</v>
       </c>
       <c r="J374">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="P374" t="str">
         <v>#488fea</v>
@@ -17258,7 +17258,7 @@
         <v>28.46</v>
       </c>
       <c r="J375">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P375" t="str">
         <v>#488fea</v>
@@ -17302,7 +17302,7 @@
         <v>26.66</v>
       </c>
       <c r="J376">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P376" t="str">
         <v>#488fea</v>
@@ -17346,7 +17346,7 @@
         <v>26.43</v>
       </c>
       <c r="J377">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P377" t="str">
         <v>#488fea</v>
@@ -17390,7 +17390,7 @@
         <v>26.42</v>
       </c>
       <c r="J378">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P378" t="str">
         <v>#488fea</v>
@@ -17434,7 +17434,7 @@
         <v>30.39</v>
       </c>
       <c r="J379">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="N379">
         <v>81497.4</v>
@@ -17481,7 +17481,7 @@
         <v>28.46</v>
       </c>
       <c r="J380">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P380" t="str">
         <v>#488fea</v>
@@ -17525,7 +17525,7 @@
         <v>26.66</v>
       </c>
       <c r="J381">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P381" t="str">
         <v>#488fea</v>
@@ -17569,7 +17569,7 @@
         <v>26.43</v>
       </c>
       <c r="J382">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P382" t="str">
         <v>#488fea</v>
@@ -17613,7 +17613,7 @@
         <v>26.42</v>
       </c>
       <c r="J383">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P383" t="str">
         <v>#488fea</v>
@@ -17657,7 +17657,7 @@
         <v>30.39</v>
       </c>
       <c r="J384">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="P384" t="str">
         <v>#488fea</v>
@@ -17701,7 +17701,7 @@
         <v>28.46</v>
       </c>
       <c r="J385">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P385" t="str">
         <v>#488fea</v>
@@ -17745,7 +17745,7 @@
         <v>26.66</v>
       </c>
       <c r="J386">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P386" t="str">
         <v>#488fea</v>
@@ -17789,7 +17789,7 @@
         <v>26.43</v>
       </c>
       <c r="J387">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P387" t="str">
         <v>#488fea</v>
@@ -17833,7 +17833,7 @@
         <v>26.42</v>
       </c>
       <c r="J388">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P388" t="str">
         <v>#488fea</v>
@@ -17877,7 +17877,7 @@
         <v>30.39</v>
       </c>
       <c r="J389">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="N389">
         <v>81297.4</v>
@@ -17924,7 +17924,7 @@
         <v>28.46</v>
       </c>
       <c r="J390">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="N390">
         <v>77675.69</v>
@@ -17971,7 +17971,7 @@
         <v>26.66</v>
       </c>
       <c r="J391">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P391" t="str">
         <v>#488fea</v>
@@ -18015,7 +18015,7 @@
         <v>26.43</v>
       </c>
       <c r="J392">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P392" t="str">
         <v>#488fea</v>
@@ -18059,7 +18059,7 @@
         <v>26.42</v>
       </c>
       <c r="J393">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P393" t="str">
         <v>#488fea</v>
@@ -18103,7 +18103,7 @@
         <v>30.39</v>
       </c>
       <c r="J394">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="P394" t="str">
         <v>#488fea</v>
@@ -18147,7 +18147,7 @@
         <v>28.46</v>
       </c>
       <c r="J395">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P395" t="str">
         <v>#488fea</v>
@@ -18191,7 +18191,7 @@
         <v>26.66</v>
       </c>
       <c r="J396">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P396" t="str">
         <v>#488fea</v>
@@ -18235,7 +18235,7 @@
         <v>26.43</v>
       </c>
       <c r="J397">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P397" t="str">
         <v>#488fea</v>
@@ -18279,7 +18279,7 @@
         <v>26.42</v>
       </c>
       <c r="J398">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P398" t="str">
         <v>#488fea</v>
@@ -18323,7 +18323,7 @@
         <v>30.39</v>
       </c>
       <c r="J399">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="N399">
         <v>80997.4</v>
@@ -18370,7 +18370,7 @@
         <v>28.46</v>
       </c>
       <c r="J400">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P400" t="str">
         <v>#488fea</v>
@@ -18411,7 +18411,7 @@
         <v>26.66</v>
       </c>
       <c r="J401">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P401" t="str">
         <v>#488fea</v>
@@ -18455,7 +18455,7 @@
         <v>26.43</v>
       </c>
       <c r="J402">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P402" t="str">
         <v>#488fea</v>
@@ -18499,7 +18499,7 @@
         <v>26.42</v>
       </c>
       <c r="J403">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P403" t="str">
         <v>#488fea</v>
@@ -18543,7 +18543,7 @@
         <v>30.39</v>
       </c>
       <c r="J404">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="N404">
         <v>80997.4</v>
@@ -18590,7 +18590,7 @@
         <v>28.46</v>
       </c>
       <c r="J405">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P405" t="str">
         <v>#488fea</v>
@@ -18634,7 +18634,7 @@
         <v>26.66</v>
       </c>
       <c r="J406">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P406" t="str">
         <v>#488fea</v>
@@ -18678,7 +18678,7 @@
         <v>26.43</v>
       </c>
       <c r="J407">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P407" t="str">
         <v>#488fea</v>
@@ -18722,7 +18722,7 @@
         <v>26.42</v>
       </c>
       <c r="J408">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P408" t="str">
         <v>#488fea</v>
@@ -18766,7 +18766,7 @@
         <v>30.39</v>
       </c>
       <c r="J409">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="P409" t="str">
         <v>#488fea</v>
@@ -18810,7 +18810,7 @@
         <v>28.46</v>
       </c>
       <c r="J410">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P410" t="str">
         <v>#488fea</v>
@@ -18854,7 +18854,7 @@
         <v>26.66</v>
       </c>
       <c r="J411">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P411" t="str">
         <v>#488fea</v>
@@ -18898,7 +18898,7 @@
         <v>26.43</v>
       </c>
       <c r="J412">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P412" t="str">
         <v>#488fea</v>
@@ -18942,7 +18942,7 @@
         <v>26.42</v>
       </c>
       <c r="J413">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P413" t="str">
         <v>#488fea</v>
@@ -18986,7 +18986,7 @@
         <v>30.39</v>
       </c>
       <c r="J414">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="N414">
         <v>80101.02</v>
@@ -19033,7 +19033,7 @@
         <v>28.46</v>
       </c>
       <c r="J415">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P415" t="str">
         <v>#488fea</v>
@@ -19077,7 +19077,7 @@
         <v>26.66</v>
       </c>
       <c r="J416">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P416" t="str">
         <v>#488fea</v>
@@ -19121,7 +19121,7 @@
         <v>26.43</v>
       </c>
       <c r="J417">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P417" t="str">
         <v>#488fea</v>
@@ -19165,7 +19165,7 @@
         <v>26.42</v>
       </c>
       <c r="J418">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P418" t="str">
         <v>#488fea</v>
@@ -19209,7 +19209,7 @@
         <v>30.39</v>
       </c>
       <c r="J419">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="N419">
         <v>80101.02</v>
@@ -19256,7 +19256,7 @@
         <v>28.46</v>
       </c>
       <c r="J420">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P420" t="str">
         <v>#488fea</v>
@@ -19300,7 +19300,7 @@
         <v>26.66</v>
       </c>
       <c r="J421">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P421" t="str">
         <v>#488fea</v>
@@ -19344,7 +19344,7 @@
         <v>26.43</v>
       </c>
       <c r="J422">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P422" t="str">
         <v>#488fea</v>
@@ -19388,7 +19388,7 @@
         <v>26.42</v>
       </c>
       <c r="J423">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P423" t="str">
         <v>#488fea</v>
@@ -19432,7 +19432,7 @@
         <v>30.39</v>
       </c>
       <c r="J424">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="N424">
         <v>80033.19</v>
@@ -19479,7 +19479,7 @@
         <v>28.46</v>
       </c>
       <c r="J425">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P425" t="str">
         <v>#488fea</v>
@@ -19523,7 +19523,7 @@
         <v>26.66</v>
       </c>
       <c r="J426">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P426" t="str">
         <v>#488fea</v>
@@ -19567,7 +19567,7 @@
         <v>26.43</v>
       </c>
       <c r="J427">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P427" t="str">
         <v>#488fea</v>
@@ -19611,7 +19611,7 @@
         <v>26.42</v>
       </c>
       <c r="J428">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P428" t="str">
         <v>#488fea</v>
@@ -19655,7 +19655,7 @@
         <v>30.39</v>
       </c>
       <c r="J429">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="P429" t="str">
         <v>#488fea</v>
@@ -19699,7 +19699,7 @@
         <v>28.46</v>
       </c>
       <c r="J430">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P430" t="str">
         <v>#488fea</v>
@@ -19743,7 +19743,7 @@
         <v>26.66</v>
       </c>
       <c r="J431">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P431" t="str">
         <v>#488fea</v>
@@ -19787,7 +19787,7 @@
         <v>26.43</v>
       </c>
       <c r="J432">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P432" t="str">
         <v>#488fea</v>
@@ -19831,7 +19831,7 @@
         <v>26.42</v>
       </c>
       <c r="J433">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P433" t="str">
         <v>#488fea</v>
@@ -19875,7 +19875,7 @@
         <v>30.39</v>
       </c>
       <c r="J434">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="P434" t="str">
         <v>#488fea</v>
@@ -19919,7 +19919,7 @@
         <v>28.46</v>
       </c>
       <c r="J435">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P435" t="str">
         <v>#488fea</v>
@@ -19963,7 +19963,7 @@
         <v>26.66</v>
       </c>
       <c r="J436">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P436" t="str">
         <v>#488fea</v>
@@ -20007,7 +20007,7 @@
         <v>26.43</v>
       </c>
       <c r="J437">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P437" t="str">
         <v>#488fea</v>
@@ -20051,7 +20051,7 @@
         <v>26.42</v>
       </c>
       <c r="J438">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P438" t="str">
         <v>#488fea</v>
@@ -20095,7 +20095,7 @@
         <v>30.39</v>
       </c>
       <c r="J439">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="N439">
         <v>79581.38</v>
@@ -20142,7 +20142,7 @@
         <v>28.46</v>
       </c>
       <c r="J440">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P440" t="str">
         <v>#488fea</v>
@@ -20186,7 +20186,7 @@
         <v>26.66</v>
       </c>
       <c r="J441">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P441" t="str">
         <v>#488fea</v>
@@ -20230,7 +20230,7 @@
         <v>26.43</v>
       </c>
       <c r="J442">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P442" t="str">
         <v>#488fea</v>
@@ -20274,7 +20274,7 @@
         <v>26.42</v>
       </c>
       <c r="J443">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P443" t="str">
         <v>#488fea</v>
@@ -20318,7 +20318,7 @@
         <v>30.39</v>
       </c>
       <c r="J444">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="N444">
         <v>79381.38</v>
@@ -20365,7 +20365,7 @@
         <v>28.46</v>
       </c>
       <c r="J445">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P445" t="str">
         <v>#488fea</v>
@@ -20409,7 +20409,7 @@
         <v>26.66</v>
       </c>
       <c r="J446">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P446" t="str">
         <v>#488fea</v>
@@ -20453,7 +20453,7 @@
         <v>26.43</v>
       </c>
       <c r="J447">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P447" t="str">
         <v>#488fea</v>
@@ -20497,7 +20497,7 @@
         <v>26.42</v>
       </c>
       <c r="J448">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P448" t="str">
         <v>#488fea</v>
@@ -20541,7 +20541,7 @@
         <v>30.39</v>
       </c>
       <c r="J449">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="P449" t="str">
         <v>#488fea</v>
@@ -20585,7 +20585,7 @@
         <v>28.46</v>
       </c>
       <c r="J450">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P450" t="str">
         <v>#488fea</v>
@@ -20629,7 +20629,7 @@
         <v>26.66</v>
       </c>
       <c r="J451">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P451" t="str">
         <v>#488fea</v>
@@ -20673,7 +20673,7 @@
         <v>26.43</v>
       </c>
       <c r="J452">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P452" t="str">
         <v>#488fea</v>
@@ -20717,7 +20717,7 @@
         <v>26.42</v>
       </c>
       <c r="J453">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P453" t="str">
         <v>#488fea</v>
@@ -20761,7 +20761,7 @@
         <v>30.39</v>
       </c>
       <c r="J454">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="N454">
         <v>78709.03</v>
@@ -20808,7 +20808,7 @@
         <v>28.46</v>
       </c>
       <c r="J455">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="N455">
         <v>75302</v>
@@ -20855,7 +20855,7 @@
         <v>26.66</v>
       </c>
       <c r="J456">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P456" t="str">
         <v>#488fea</v>
@@ -20899,7 +20899,7 @@
         <v>26.43</v>
       </c>
       <c r="J457">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P457" t="str">
         <v>#488fea</v>
@@ -20943,7 +20943,7 @@
         <v>26.42</v>
       </c>
       <c r="J458">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P458" t="str">
         <v>#488fea</v>
@@ -20987,7 +20987,7 @@
         <v>30.39</v>
       </c>
       <c r="J459">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="N459">
         <v>78209.03</v>
@@ -21034,7 +21034,7 @@
         <v>28.46</v>
       </c>
       <c r="J460">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P460" t="str">
         <v>#488fea</v>
@@ -21078,7 +21078,7 @@
         <v>26.66</v>
       </c>
       <c r="J461">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P461" t="str">
         <v>#488fea</v>
@@ -21122,7 +21122,7 @@
         <v>26.43</v>
       </c>
       <c r="J462">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P462" t="str">
         <v>#488fea</v>
@@ -21166,7 +21166,7 @@
         <v>26.42</v>
       </c>
       <c r="J463">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P463" t="str">
         <v>#488fea</v>
@@ -21210,7 +21210,7 @@
         <v>30.39</v>
       </c>
       <c r="J464">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="P464" t="str">
         <v>#488fea</v>
@@ -21254,7 +21254,7 @@
         <v>28.46</v>
       </c>
       <c r="J465">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P465" t="str">
         <v>#488fea</v>
@@ -21298,7 +21298,7 @@
         <v>26.66</v>
       </c>
       <c r="J466">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P466" t="str">
         <v>#488fea</v>
@@ -21342,7 +21342,7 @@
         <v>26.43</v>
       </c>
       <c r="J467">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P467" t="str">
         <v>#488fea</v>
@@ -21386,7 +21386,7 @@
         <v>26.42</v>
       </c>
       <c r="J468">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P468" t="str">
         <v>#488fea</v>
@@ -21430,7 +21430,7 @@
         <v>30.39</v>
       </c>
       <c r="J469">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="P469" t="str">
         <v>#488fea</v>
@@ -21474,7 +21474,7 @@
         <v>28.46</v>
       </c>
       <c r="J470">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P470" t="str">
         <v>#488fea</v>
@@ -21518,7 +21518,7 @@
         <v>26.66</v>
       </c>
       <c r="J471">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P471" t="str">
         <v>#488fea</v>
@@ -21562,7 +21562,7 @@
         <v>26.43</v>
       </c>
       <c r="J472">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P472" t="str">
         <v>#488fea</v>
@@ -21606,7 +21606,7 @@
         <v>26.42</v>
       </c>
       <c r="J473">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P473" t="str">
         <v>#488fea</v>
@@ -21650,7 +21650,7 @@
         <v>30.39</v>
       </c>
       <c r="J474">
-        <v>125</v>
+        <v>124.84</v>
       </c>
       <c r="P474" t="str">
         <v>#488fea</v>
@@ -21694,7 +21694,7 @@
         <v>28.46</v>
       </c>
       <c r="J475">
-        <v>117</v>
+        <v>116.92</v>
       </c>
       <c r="P475" t="str">
         <v>#488fea</v>
@@ -21738,7 +21738,7 @@
         <v>26.66</v>
       </c>
       <c r="J476">
-        <v>110</v>
+        <v>109.53</v>
       </c>
       <c r="P476" t="str">
         <v>#488fea</v>
@@ -21782,7 +21782,7 @@
         <v>26.43</v>
       </c>
       <c r="J477">
-        <v>109</v>
+        <v>108.56</v>
       </c>
       <c r="P477" t="str">
         <v>#488fea</v>
@@ -21826,7 +21826,7 @@
         <v>26.42</v>
       </c>
       <c r="J478">
-        <v>109</v>
+        <v>108.55</v>
       </c>
       <c r="P478" t="str">
         <v>#488fea</v>
@@ -21870,7 +21870,7 @@
         <v>31.16</v>
       </c>
       <c r="J479">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P479" t="str">
         <v>#488fea</v>
@@ -21914,7 +21914,7 @@
         <v>29.16</v>
       </c>
       <c r="J480">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P480" t="str">
         <v>#488fea</v>
@@ -21958,7 +21958,7 @@
         <v>27.32</v>
       </c>
       <c r="J481">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P481" t="str">
         <v>#488fea</v>
@@ -22002,7 +22002,7 @@
         <v>27.13</v>
       </c>
       <c r="J482">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="N482">
         <v>68996.9</v>
@@ -22049,7 +22049,7 @@
         <v>27.13</v>
       </c>
       <c r="J483">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P483" t="str">
         <v>#488fea</v>
@@ -22093,7 +22093,7 @@
         <v>31.16</v>
       </c>
       <c r="J484">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P484" t="str">
         <v>#488fea</v>
@@ -22137,7 +22137,7 @@
         <v>29.16</v>
       </c>
       <c r="J485">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P485" t="str">
         <v>#488fea</v>
@@ -22181,7 +22181,7 @@
         <v>27.32</v>
       </c>
       <c r="J486">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P486" t="str">
         <v>#488fea</v>
@@ -22225,7 +22225,7 @@
         <v>27.13</v>
       </c>
       <c r="J487">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P487" t="str">
         <v>#488fea</v>
@@ -22269,7 +22269,7 @@
         <v>27.13</v>
       </c>
       <c r="J488">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P488" t="str">
         <v>#488fea</v>
@@ -22313,7 +22313,7 @@
         <v>31.16</v>
       </c>
       <c r="J489">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P489" t="str">
         <v>#488fea</v>
@@ -22357,7 +22357,7 @@
         <v>29.16</v>
       </c>
       <c r="J490">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P490" t="str">
         <v>#488fea</v>
@@ -22401,7 +22401,7 @@
         <v>27.32</v>
       </c>
       <c r="J491">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P491" t="str">
         <v>#488fea</v>
@@ -22445,7 +22445,7 @@
         <v>27.13</v>
       </c>
       <c r="J492">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P492" t="str">
         <v>#488fea</v>
@@ -22489,7 +22489,7 @@
         <v>27.13</v>
       </c>
       <c r="J493">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P493" t="str">
         <v>#488fea</v>
@@ -22533,7 +22533,7 @@
         <v>31.16</v>
       </c>
       <c r="J494">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P494" t="str">
         <v>#488fea</v>
@@ -22577,7 +22577,7 @@
         <v>29.16</v>
       </c>
       <c r="J495">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="N495">
         <v>74435.94</v>
@@ -22624,7 +22624,7 @@
         <v>27.32</v>
       </c>
       <c r="J496">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P496" t="str">
         <v>#488fea</v>
@@ -22668,7 +22668,7 @@
         <v>27.13</v>
       </c>
       <c r="J497">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P497" t="str">
         <v>#488fea</v>
@@ -22712,7 +22712,7 @@
         <v>27.13</v>
       </c>
       <c r="J498">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P498" t="str">
         <v>#488fea</v>
@@ -22756,7 +22756,7 @@
         <v>31.16</v>
       </c>
       <c r="J499">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P499" t="str">
         <v>#488fea</v>
@@ -22800,7 +22800,7 @@
         <v>29.16</v>
       </c>
       <c r="J500">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="N500">
         <v>74435.94</v>
@@ -22847,7 +22847,7 @@
         <v>27.32</v>
       </c>
       <c r="J501">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P501" t="str">
         <v>#488fea</v>
@@ -22891,7 +22891,7 @@
         <v>27.13</v>
       </c>
       <c r="J502">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P502" t="str">
         <v>#488fea</v>
@@ -22935,7 +22935,7 @@
         <v>27.13</v>
       </c>
       <c r="J503">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P503" t="str">
         <v>#488fea</v>
@@ -22979,7 +22979,7 @@
         <v>31.16</v>
       </c>
       <c r="J504">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P504" t="str">
         <v>#488fea</v>
@@ -23023,7 +23023,7 @@
         <v>29.16</v>
       </c>
       <c r="J505">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P505" t="str">
         <v>#488fea</v>
@@ -23067,7 +23067,7 @@
         <v>27.32</v>
       </c>
       <c r="J506">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P506" t="str">
         <v>#488fea</v>
@@ -23111,7 +23111,7 @@
         <v>27.13</v>
       </c>
       <c r="J507">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P507" t="str">
         <v>#488fea</v>
@@ -23155,7 +23155,7 @@
         <v>27.13</v>
       </c>
       <c r="J508">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P508" t="str">
         <v>#488fea</v>
@@ -23199,7 +23199,7 @@
         <v>31.16</v>
       </c>
       <c r="J509">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P509" t="str">
         <v>#488fea</v>
@@ -23243,7 +23243,7 @@
         <v>29.16</v>
       </c>
       <c r="J510">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P510" t="str">
         <v>#488fea</v>
@@ -23287,7 +23287,7 @@
         <v>27.32</v>
       </c>
       <c r="J511">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P511" t="str">
         <v>#488fea</v>
@@ -23331,7 +23331,7 @@
         <v>27.13</v>
       </c>
       <c r="J512">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P512" t="str">
         <v>#488fea</v>
@@ -23375,7 +23375,7 @@
         <v>27.13</v>
       </c>
       <c r="J513">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P513" t="str">
         <v>#488fea</v>
@@ -23419,7 +23419,7 @@
         <v>31.16</v>
       </c>
       <c r="J514">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P514" t="str">
         <v>#488fea</v>
@@ -23463,7 +23463,7 @@
         <v>29.16</v>
       </c>
       <c r="J515">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P515" t="str">
         <v>#488fea</v>
@@ -23507,7 +23507,7 @@
         <v>27.32</v>
       </c>
       <c r="J516">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P516" t="str">
         <v>#488fea</v>
@@ -23551,7 +23551,7 @@
         <v>27.13</v>
       </c>
       <c r="J517">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P517" t="str">
         <v>#488fea</v>
@@ -23595,7 +23595,7 @@
         <v>27.13</v>
       </c>
       <c r="J518">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P518" t="str">
         <v>#488fea</v>
@@ -23639,7 +23639,7 @@
         <v>31.16</v>
       </c>
       <c r="J519">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P519" t="str">
         <v>#488fea</v>
@@ -23683,7 +23683,7 @@
         <v>29.16</v>
       </c>
       <c r="J520">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P520" t="str">
         <v>#488fea</v>
@@ -23727,7 +23727,7 @@
         <v>27.32</v>
       </c>
       <c r="J521">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P521" t="str">
         <v>#488fea</v>
@@ -23771,7 +23771,7 @@
         <v>27.13</v>
       </c>
       <c r="J522">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P522" t="str">
         <v>#488fea</v>
@@ -23815,7 +23815,7 @@
         <v>27.13</v>
       </c>
       <c r="J523">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P523" t="str">
         <v>#488fea</v>
@@ -23859,7 +23859,7 @@
         <v>31.16</v>
       </c>
       <c r="J524">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P524" t="str">
         <v>#488fea</v>
@@ -23903,7 +23903,7 @@
         <v>29.16</v>
       </c>
       <c r="J525">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P525" t="str">
         <v>#488fea</v>
@@ -23947,7 +23947,7 @@
         <v>27.32</v>
       </c>
       <c r="J526">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P526" t="str">
         <v>#488fea</v>
@@ -23991,7 +23991,7 @@
         <v>27.13</v>
       </c>
       <c r="J527">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P527" t="str">
         <v>#488fea</v>
@@ -24035,7 +24035,7 @@
         <v>27.13</v>
       </c>
       <c r="J528">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P528" t="str">
         <v>#488fea</v>
@@ -24079,7 +24079,7 @@
         <v>31.16</v>
       </c>
       <c r="J529">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P529" t="str">
         <v>#488fea</v>
@@ -24123,7 +24123,7 @@
         <v>29.16</v>
       </c>
       <c r="J530">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P530" t="str">
         <v>#488fea</v>
@@ -24167,7 +24167,7 @@
         <v>27.32</v>
       </c>
       <c r="J531">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P531" t="str">
         <v>#488fea</v>
@@ -24211,7 +24211,7 @@
         <v>27.13</v>
       </c>
       <c r="J532">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P532" t="str">
         <v>#488fea</v>
@@ -24255,7 +24255,7 @@
         <v>27.13</v>
       </c>
       <c r="J533">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P533" t="str">
         <v>#488fea</v>
@@ -24299,7 +24299,7 @@
         <v>31.16</v>
       </c>
       <c r="J534">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P534" t="str">
         <v>#488fea</v>
@@ -24343,7 +24343,7 @@
         <v>29.16</v>
       </c>
       <c r="J535">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P535" t="str">
         <v>#488fea</v>
@@ -24387,7 +24387,7 @@
         <v>27.32</v>
       </c>
       <c r="J536">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P536" t="str">
         <v>#488fea</v>
@@ -24431,7 +24431,7 @@
         <v>27.13</v>
       </c>
       <c r="J537">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P537" t="str">
         <v>#488fea</v>
@@ -24475,7 +24475,7 @@
         <v>27.13</v>
       </c>
       <c r="J538">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P538" t="str">
         <v>#488fea</v>
@@ -24519,7 +24519,7 @@
         <v>31.16</v>
       </c>
       <c r="J539">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P539" t="str">
         <v>#488fea</v>
@@ -24563,7 +24563,7 @@
         <v>29.16</v>
       </c>
       <c r="J540">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P540" t="str">
         <v>#488fea</v>
@@ -24607,7 +24607,7 @@
         <v>27.32</v>
       </c>
       <c r="J541">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P541" t="str">
         <v>#488fea</v>
@@ -24651,7 +24651,7 @@
         <v>27.13</v>
       </c>
       <c r="J542">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P542" t="str">
         <v>#488fea</v>
@@ -24695,7 +24695,7 @@
         <v>27.13</v>
       </c>
       <c r="J543">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P543" t="str">
         <v>#488fea</v>
@@ -24739,7 +24739,7 @@
         <v>31.16</v>
       </c>
       <c r="J544">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P544" t="str">
         <v>#488fea</v>
@@ -24783,7 +24783,7 @@
         <v>29.16</v>
       </c>
       <c r="J545">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P545" t="str">
         <v>#488fea</v>
@@ -24827,7 +24827,7 @@
         <v>27.32</v>
       </c>
       <c r="J546">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P546" t="str">
         <v>#488fea</v>
@@ -24871,7 +24871,7 @@
         <v>27.13</v>
       </c>
       <c r="J547">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P547" t="str">
         <v>#488fea</v>
@@ -24915,7 +24915,7 @@
         <v>27.13</v>
       </c>
       <c r="J548">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P548" t="str">
         <v>#488fea</v>
@@ -24959,7 +24959,7 @@
         <v>31.16</v>
       </c>
       <c r="J549">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P549" t="str">
         <v>#488fea</v>
@@ -25003,7 +25003,7 @@
         <v>29.16</v>
       </c>
       <c r="J550">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P550" t="str">
         <v>#488fea</v>
@@ -25047,7 +25047,7 @@
         <v>27.32</v>
       </c>
       <c r="J551">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P551" t="str">
         <v>#488fea</v>
@@ -25091,7 +25091,7 @@
         <v>27.13</v>
       </c>
       <c r="J552">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P552" t="str">
         <v>#488fea</v>
@@ -25135,7 +25135,7 @@
         <v>27.13</v>
       </c>
       <c r="J553">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P553" t="str">
         <v>#488fea</v>
@@ -25179,7 +25179,7 @@
         <v>31.16</v>
       </c>
       <c r="J554">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P554" t="str">
         <v>#488fea</v>
@@ -25223,7 +25223,7 @@
         <v>29.16</v>
       </c>
       <c r="J555">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P555" t="str">
         <v>#488fea</v>
@@ -25267,7 +25267,7 @@
         <v>27.32</v>
       </c>
       <c r="J556">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P556" t="str">
         <v>#488fea</v>
@@ -25311,7 +25311,7 @@
         <v>27.13</v>
       </c>
       <c r="J557">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P557" t="str">
         <v>#488fea</v>
@@ -25355,7 +25355,7 @@
         <v>27.13</v>
       </c>
       <c r="J558">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P558" t="str">
         <v>#488fea</v>
@@ -25399,7 +25399,7 @@
         <v>31.16</v>
       </c>
       <c r="J559">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P559" t="str">
         <v>#488fea</v>
@@ -25443,7 +25443,7 @@
         <v>29.16</v>
       </c>
       <c r="J560">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P560" t="str">
         <v>#488fea</v>
@@ -25487,7 +25487,7 @@
         <v>27.32</v>
       </c>
       <c r="J561">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P561" t="str">
         <v>#488fea</v>
@@ -25531,7 +25531,7 @@
         <v>27.13</v>
       </c>
       <c r="J562">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P562" t="str">
         <v>#488fea</v>
@@ -25575,7 +25575,7 @@
         <v>27.13</v>
       </c>
       <c r="J563">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P563" t="str">
         <v>#488fea</v>
@@ -25619,7 +25619,7 @@
         <v>31.16</v>
       </c>
       <c r="J564">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P564" t="str">
         <v>#488fea</v>
@@ -25663,7 +25663,7 @@
         <v>29.16</v>
       </c>
       <c r="J565">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P565" t="str">
         <v>#488fea</v>
@@ -25707,7 +25707,7 @@
         <v>27.32</v>
       </c>
       <c r="J566">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P566" t="str">
         <v>#488fea</v>
@@ -25751,7 +25751,7 @@
         <v>27.13</v>
       </c>
       <c r="J567">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P567" t="str">
         <v>#488fea</v>
@@ -25795,7 +25795,7 @@
         <v>27.13</v>
       </c>
       <c r="J568">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P568" t="str">
         <v>#488fea</v>
@@ -25839,7 +25839,7 @@
         <v>31.16</v>
       </c>
       <c r="J569">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P569" t="str">
         <v>#488fea</v>
@@ -25883,7 +25883,7 @@
         <v>29.16</v>
       </c>
       <c r="J570">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P570" t="str">
         <v>#488fea</v>
@@ -25927,7 +25927,7 @@
         <v>27.32</v>
       </c>
       <c r="J571">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P571" t="str">
         <v>#488fea</v>
@@ -25971,7 +25971,7 @@
         <v>27.13</v>
       </c>
       <c r="J572">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P572" t="str">
         <v>#488fea</v>
@@ -26015,7 +26015,7 @@
         <v>27.13</v>
       </c>
       <c r="J573">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P573" t="str">
         <v>#488fea</v>
@@ -26059,7 +26059,7 @@
         <v>31.16</v>
       </c>
       <c r="J574">
-        <v>126</v>
+        <v>125.67</v>
       </c>
       <c r="P574" t="str">
         <v>#488fea</v>
@@ -26103,7 +26103,7 @@
         <v>29.16</v>
       </c>
       <c r="J575">
-        <v>118</v>
+        <v>117.62</v>
       </c>
       <c r="P575" t="str">
         <v>#488fea</v>
@@ -26147,7 +26147,7 @@
         <v>27.32</v>
       </c>
       <c r="J576">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P576" t="str">
         <v>#488fea</v>
@@ -26191,7 +26191,7 @@
         <v>27.13</v>
       </c>
       <c r="J577">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P577" t="str">
         <v>#488fea</v>
@@ -26235,7 +26235,7 @@
         <v>27.13</v>
       </c>
       <c r="J578">
-        <v>109</v>
+        <v>109.45</v>
       </c>
       <c r="P578" t="str">
         <v>#488fea</v>
@@ -26279,7 +26279,7 @@
         <v>31.14</v>
       </c>
       <c r="J579">
-        <v>126</v>
+        <v>125.59</v>
       </c>
       <c r="P579" t="str">
         <v>#488fea</v>
@@ -26323,7 +26323,7 @@
         <v>29.17</v>
       </c>
       <c r="J580">
-        <v>118</v>
+        <v>117.63</v>
       </c>
       <c r="P580" t="str">
         <v>#488fea</v>
@@ -26367,7 +26367,7 @@
         <v>27.32</v>
       </c>
       <c r="J581">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P581" t="str">
         <v>#488fea</v>
@@ -26411,7 +26411,7 @@
         <v>27.08</v>
       </c>
       <c r="J582">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P582" t="str">
         <v>#488fea</v>
@@ -26455,7 +26455,7 @@
         <v>27.08</v>
       </c>
       <c r="J583">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P583" t="str">
         <v>#488fea</v>
@@ -26499,7 +26499,7 @@
         <v>31.14</v>
       </c>
       <c r="J584">
-        <v>126</v>
+        <v>125.59</v>
       </c>
       <c r="P584" t="str">
         <v>#488fea</v>
@@ -26543,7 +26543,7 @@
         <v>29.17</v>
       </c>
       <c r="J585">
-        <v>118</v>
+        <v>117.63</v>
       </c>
       <c r="P585" t="str">
         <v>#488fea</v>
@@ -26587,7 +26587,7 @@
         <v>27.32</v>
       </c>
       <c r="J586">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P586" t="str">
         <v>#488fea</v>
@@ -26631,7 +26631,7 @@
         <v>27.08</v>
       </c>
       <c r="J587">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P587" t="str">
         <v>#488fea</v>
@@ -26675,7 +26675,7 @@
         <v>27.08</v>
       </c>
       <c r="J588">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P588" t="str">
         <v>#488fea</v>
@@ -26719,7 +26719,7 @@
         <v>31.14</v>
       </c>
       <c r="J589">
-        <v>126</v>
+        <v>125.59</v>
       </c>
       <c r="P589" t="str">
         <v>#488fea</v>
@@ -26763,7 +26763,7 @@
         <v>29.17</v>
       </c>
       <c r="J590">
-        <v>118</v>
+        <v>117.63</v>
       </c>
       <c r="P590" t="str">
         <v>#488fea</v>
@@ -26807,7 +26807,7 @@
         <v>27.32</v>
       </c>
       <c r="J591">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P591" t="str">
         <v>#488fea</v>
@@ -26851,7 +26851,7 @@
         <v>27.08</v>
       </c>
       <c r="J592">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P592" t="str">
         <v>#488fea</v>
@@ -26895,7 +26895,7 @@
         <v>27.08</v>
       </c>
       <c r="J593">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P593" t="str">
         <v>#488fea</v>
@@ -26939,7 +26939,7 @@
         <v>31.14</v>
       </c>
       <c r="J594">
-        <v>126</v>
+        <v>125.59</v>
       </c>
       <c r="P594" t="str">
         <v>#488fea</v>
@@ -26983,7 +26983,7 @@
         <v>29.17</v>
       </c>
       <c r="J595">
-        <v>118</v>
+        <v>117.63</v>
       </c>
       <c r="P595" t="str">
         <v>#488fea</v>
@@ -27027,7 +27027,7 @@
         <v>27.32</v>
       </c>
       <c r="J596">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P596" t="str">
         <v>#488fea</v>
@@ -27071,7 +27071,7 @@
         <v>27.08</v>
       </c>
       <c r="J597">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P597" t="str">
         <v>#488fea</v>
@@ -27115,7 +27115,7 @@
         <v>27.08</v>
       </c>
       <c r="J598">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P598" t="str">
         <v>#488fea</v>
@@ -27159,7 +27159,7 @@
         <v>31.14</v>
       </c>
       <c r="J599">
-        <v>126</v>
+        <v>125.59</v>
       </c>
       <c r="P599" t="str">
         <v>#488fea</v>
@@ -27203,7 +27203,7 @@
         <v>29.17</v>
       </c>
       <c r="J600">
-        <v>118</v>
+        <v>117.63</v>
       </c>
       <c r="P600" t="str">
         <v>#488fea</v>
@@ -27247,7 +27247,7 @@
         <v>27.32</v>
       </c>
       <c r="J601">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P601" t="str">
         <v>#488fea</v>
@@ -27291,7 +27291,7 @@
         <v>27.08</v>
       </c>
       <c r="J602">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P602" t="str">
         <v>#488fea</v>
@@ -27335,7 +27335,7 @@
         <v>27.08</v>
       </c>
       <c r="J603">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P603" t="str">
         <v>#488fea</v>
@@ -27379,7 +27379,7 @@
         <v>31.14</v>
       </c>
       <c r="J604">
-        <v>126</v>
+        <v>125.59</v>
       </c>
       <c r="P604" t="str">
         <v>#488fea</v>
@@ -27423,7 +27423,7 @@
         <v>29.17</v>
       </c>
       <c r="J605">
-        <v>118</v>
+        <v>117.63</v>
       </c>
       <c r="P605" t="str">
         <v>#488fea</v>
@@ -27467,7 +27467,7 @@
         <v>27.32</v>
       </c>
       <c r="J606">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P606" t="str">
         <v>#488fea</v>
@@ -27511,7 +27511,7 @@
         <v>27.08</v>
       </c>
       <c r="J607">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P607" t="str">
         <v>#488fea</v>
@@ -27555,7 +27555,7 @@
         <v>27.08</v>
       </c>
       <c r="J608">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P608" t="str">
         <v>#488fea</v>
@@ -27599,7 +27599,7 @@
         <v>31.14</v>
       </c>
       <c r="J609">
-        <v>126</v>
+        <v>125.59</v>
       </c>
       <c r="P609" t="str">
         <v>#488fea</v>
@@ -27643,7 +27643,7 @@
         <v>29.17</v>
       </c>
       <c r="J610">
-        <v>118</v>
+        <v>117.63</v>
       </c>
       <c r="P610" t="str">
         <v>#488fea</v>
@@ -27687,7 +27687,7 @@
         <v>27.32</v>
       </c>
       <c r="J611">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P611" t="str">
         <v>#488fea</v>
@@ -27731,7 +27731,7 @@
         <v>27.08</v>
       </c>
       <c r="J612">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P612" t="str">
         <v>#488fea</v>
@@ -27775,7 +27775,7 @@
         <v>27.08</v>
       </c>
       <c r="J613">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P613" t="str">
         <v>#488fea</v>
@@ -27819,7 +27819,7 @@
         <v>31.14</v>
       </c>
       <c r="J614">
-        <v>126</v>
+        <v>125.59</v>
       </c>
       <c r="P614" t="str">
         <v>#488fea</v>
@@ -27863,7 +27863,7 @@
         <v>29.17</v>
       </c>
       <c r="J615">
-        <v>118</v>
+        <v>117.63</v>
       </c>
       <c r="P615" t="str">
         <v>#488fea</v>
@@ -27907,7 +27907,7 @@
         <v>27.32</v>
       </c>
       <c r="J616">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P616" t="str">
         <v>#488fea</v>
@@ -27951,7 +27951,7 @@
         <v>27.08</v>
       </c>
       <c r="J617">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P617" t="str">
         <v>#488fea</v>
@@ -27995,7 +27995,7 @@
         <v>27.08</v>
       </c>
       <c r="J618">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P618" t="str">
         <v>#488fea</v>
@@ -28039,7 +28039,7 @@
         <v>31.14</v>
       </c>
       <c r="J619">
-        <v>126</v>
+        <v>125.59</v>
       </c>
       <c r="P619" t="str">
         <v>#488fea</v>
@@ -28083,7 +28083,7 @@
         <v>29.17</v>
       </c>
       <c r="J620">
-        <v>118</v>
+        <v>117.63</v>
       </c>
       <c r="P620" t="str">
         <v>#488fea</v>
@@ -28127,7 +28127,7 @@
         <v>27.32</v>
       </c>
       <c r="J621">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P621" t="str">
         <v>#488fea</v>
@@ -28171,7 +28171,7 @@
         <v>27.08</v>
       </c>
       <c r="J622">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P622" t="str">
         <v>#488fea</v>
@@ -28215,7 +28215,7 @@
         <v>27.08</v>
       </c>
       <c r="J623">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P623" t="str">
         <v>#488fea</v>
@@ -28259,7 +28259,7 @@
         <v>31.14</v>
       </c>
       <c r="J624">
-        <v>126</v>
+        <v>125.59</v>
       </c>
       <c r="P624" t="str">
         <v>#488fea</v>
@@ -28303,7 +28303,7 @@
         <v>29.17</v>
       </c>
       <c r="J625">
-        <v>118</v>
+        <v>117.63</v>
       </c>
       <c r="P625" t="str">
         <v>#488fea</v>
@@ -28347,7 +28347,7 @@
         <v>27.32</v>
       </c>
       <c r="J626">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P626" t="str">
         <v>#488fea</v>
@@ -28391,7 +28391,7 @@
         <v>27.08</v>
       </c>
       <c r="J627">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P627" t="str">
         <v>#488fea</v>
@@ -28435,7 +28435,7 @@
         <v>27.08</v>
       </c>
       <c r="J628">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P628" t="str">
         <v>#488fea</v>
@@ -28479,7 +28479,7 @@
         <v>31.14</v>
       </c>
       <c r="J629">
-        <v>126</v>
+        <v>125.59</v>
       </c>
       <c r="P629" t="str">
         <v>#488fea</v>
@@ -28523,7 +28523,7 @@
         <v>29.17</v>
       </c>
       <c r="J630">
-        <v>118</v>
+        <v>117.63</v>
       </c>
       <c r="P630" t="str">
         <v>#488fea</v>
@@ -28567,7 +28567,7 @@
         <v>27.32</v>
       </c>
       <c r="J631">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P631" t="str">
         <v>#488fea</v>
@@ -28611,7 +28611,7 @@
         <v>27.08</v>
       </c>
       <c r="J632">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P632" t="str">
         <v>#488fea</v>
@@ -28655,7 +28655,7 @@
         <v>27.08</v>
       </c>
       <c r="J633">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P633" t="str">
         <v>#488fea</v>
@@ -28699,7 +28699,7 @@
         <v>31.14</v>
       </c>
       <c r="J634">
-        <v>126</v>
+        <v>125.59</v>
       </c>
       <c r="P634" t="str">
         <v>#488fea</v>
@@ -28743,7 +28743,7 @@
         <v>29.17</v>
       </c>
       <c r="J635">
-        <v>118</v>
+        <v>117.63</v>
       </c>
       <c r="P635" t="str">
         <v>#488fea</v>
@@ -28787,7 +28787,7 @@
         <v>27.32</v>
       </c>
       <c r="J636">
-        <v>110</v>
+        <v>110.19</v>
       </c>
       <c r="P636" t="str">
         <v>#488fea</v>
@@ -28831,7 +28831,7 @@
         <v>27.08</v>
       </c>
       <c r="J637">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P637" t="str">
         <v>#488fea</v>
@@ -28875,7 +28875,7 @@
         <v>27.08</v>
       </c>
       <c r="J638">
-        <v>109</v>
+        <v>109.21</v>
       </c>
       <c r="P638" t="str">
         <v>#488fea</v>

--- a/zhuoyue-boyifu/柏奕府销售表.xlsx
+++ b/zhuoyue-boyifu/柏奕府销售表.xlsx
@@ -513,7 +513,7 @@
         <v>29.2</v>
       </c>
       <c r="J2">
-        <v>117.66</v>
+        <v>117</v>
       </c>
       <c r="N2">
         <v>81748</v>
@@ -560,7 +560,7 @@
         <v>27.35</v>
       </c>
       <c r="J3">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P3" t="str">
         <v>#488fea</v>
@@ -604,7 +604,7 @@
         <v>29.2</v>
       </c>
       <c r="J4">
-        <v>117.66</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>82448</v>
@@ -651,7 +651,7 @@
         <v>27.35</v>
       </c>
       <c r="J5">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P5" t="str">
         <v>#488fea</v>
@@ -695,7 +695,7 @@
         <v>27.17</v>
       </c>
       <c r="J6">
-        <v>109.49</v>
+        <v>108</v>
       </c>
       <c r="P6" t="str">
         <v>#488fea</v>
@@ -739,7 +739,7 @@
         <v>29.2</v>
       </c>
       <c r="J7">
-        <v>117.66</v>
+        <v>117</v>
       </c>
       <c r="N7">
         <v>82448</v>
@@ -786,7 +786,7 @@
         <v>27.17</v>
       </c>
       <c r="J8">
-        <v>109.49</v>
+        <v>108</v>
       </c>
       <c r="P8" t="str">
         <v>#488fea</v>
@@ -830,7 +830,7 @@
         <v>29.2</v>
       </c>
       <c r="J9">
-        <v>117.66</v>
+        <v>117</v>
       </c>
       <c r="N9">
         <v>82448</v>
@@ -877,7 +877,7 @@
         <v>27.35</v>
       </c>
       <c r="J10">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P10" t="str">
         <v>#488fea</v>
@@ -921,7 +921,7 @@
         <v>29.2</v>
       </c>
       <c r="J11">
-        <v>117.66</v>
+        <v>117</v>
       </c>
       <c r="N11">
         <v>82398</v>
@@ -968,7 +968,7 @@
         <v>27.35</v>
       </c>
       <c r="J12">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P12" t="str">
         <v>#488fea</v>
@@ -1012,7 +1012,7 @@
         <v>27.17</v>
       </c>
       <c r="J13">
-        <v>109.49</v>
+        <v>108</v>
       </c>
       <c r="P13" t="str">
         <v>#488fea</v>
@@ -1056,7 +1056,7 @@
         <v>29.2</v>
       </c>
       <c r="J14">
-        <v>117.66</v>
+        <v>117</v>
       </c>
       <c r="N14">
         <v>82298</v>
@@ -1103,7 +1103,7 @@
         <v>29.2</v>
       </c>
       <c r="J15">
-        <v>117.66</v>
+        <v>117</v>
       </c>
       <c r="N15">
         <v>82198</v>
@@ -1150,7 +1150,7 @@
         <v>27.35</v>
       </c>
       <c r="J16">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P16" t="str">
         <v>#488fea</v>
@@ -1194,7 +1194,7 @@
         <v>27.17</v>
       </c>
       <c r="J17">
-        <v>109.49</v>
+        <v>108</v>
       </c>
       <c r="P17" t="str">
         <v>#488fea</v>
@@ -1238,7 +1238,7 @@
         <v>27.35</v>
       </c>
       <c r="J18">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P18" t="str">
         <v>#488fea</v>
@@ -1282,7 +1282,7 @@
         <v>27.17</v>
       </c>
       <c r="J19">
-        <v>109.49</v>
+        <v>108</v>
       </c>
       <c r="P19" t="str">
         <v>#488fea</v>
@@ -1326,7 +1326,7 @@
         <v>31.19</v>
       </c>
       <c r="J20">
-        <v>125.7</v>
+        <v>125</v>
       </c>
       <c r="N20">
         <v>78264</v>
@@ -1373,7 +1373,7 @@
         <v>29.2</v>
       </c>
       <c r="J21">
-        <v>117.66</v>
+        <v>117</v>
       </c>
       <c r="N21">
         <v>81628.02</v>
@@ -1420,7 +1420,7 @@
         <v>27.35</v>
       </c>
       <c r="J22">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P22" t="str">
         <v>#488fea</v>
@@ -1464,7 +1464,7 @@
         <v>27.17</v>
       </c>
       <c r="J23">
-        <v>109.49</v>
+        <v>108</v>
       </c>
       <c r="P23" t="str">
         <v>#488fea</v>
@@ -1508,7 +1508,7 @@
         <v>29.2</v>
       </c>
       <c r="J24">
-        <v>117.66</v>
+        <v>117</v>
       </c>
       <c r="N24">
         <v>81628.02</v>
@@ -1555,7 +1555,7 @@
         <v>27.35</v>
       </c>
       <c r="J25">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P25" t="str">
         <v>#488fea</v>
@@ -1599,7 +1599,7 @@
         <v>27.17</v>
       </c>
       <c r="J26">
-        <v>109.49</v>
+        <v>108</v>
       </c>
       <c r="P26" t="str">
         <v>#488fea</v>
@@ -1643,7 +1643,7 @@
         <v>29.2</v>
       </c>
       <c r="J27">
-        <v>117.66</v>
+        <v>117</v>
       </c>
       <c r="N27">
         <v>81498</v>
@@ -1690,7 +1690,7 @@
         <v>27.35</v>
       </c>
       <c r="J28">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P28" t="str">
         <v>#488fea</v>
@@ -1734,7 +1734,7 @@
         <v>29.2</v>
       </c>
       <c r="J29">
-        <v>117.66</v>
+        <v>117</v>
       </c>
       <c r="N29">
         <v>81398</v>
@@ -1781,7 +1781,7 @@
         <v>27.35</v>
       </c>
       <c r="J30">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P30" t="str">
         <v>#488fea</v>
@@ -1825,7 +1825,7 @@
         <v>29.2</v>
       </c>
       <c r="J31">
-        <v>117.66</v>
+        <v>117</v>
       </c>
       <c r="P31" t="str">
         <v>#488fea</v>
@@ -1869,7 +1869,7 @@
         <v>27.35</v>
       </c>
       <c r="J32">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P32" t="str">
         <v>#488fea</v>
@@ -1913,7 +1913,7 @@
         <v>27.35</v>
       </c>
       <c r="J33">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P33" t="str">
         <v>#488fea</v>
@@ -1957,7 +1957,7 @@
         <v>27.35</v>
       </c>
       <c r="J34">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P34" t="str">
         <v>#488fea</v>
@@ -2001,7 +2001,7 @@
         <v>29.2</v>
       </c>
       <c r="J35">
-        <v>117.66</v>
+        <v>117</v>
       </c>
       <c r="N35">
         <v>80598</v>
@@ -2048,7 +2048,7 @@
         <v>27.35</v>
       </c>
       <c r="J36">
-        <v>110.22</v>
+        <v>110</v>
       </c>
       <c r="P36" t="str">
         <v>#488fea</v>
@@ -2092,7 +2092,7 @@
         <v>31.18</v>
       </c>
       <c r="J37">
-        <v>125.63</v>
+        <v>125</v>
       </c>
       <c r="N37">
         <v>76766.37</v>
@@ -2139,7 +2139,7 @@
         <v>29.2</v>
       </c>
       <c r="J38">
-        <v>117.66</v>
+        <v>117</v>
       </c>
       <c r="N38">
         <v>80398</v>
@@ -2186,7 +2186,7 @@
         <v>30.41</v>
       </c>
       <c r="J39">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N39">
         <v>80532.13</v>
@@ -2233,7 +2233,7 @@
         <v>28.47</v>
       </c>
       <c r="J40">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N40">
         <v>81226.11</v>
@@ -2280,7 +2280,7 @@
         <v>26.66</v>
       </c>
       <c r="J41">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="N41">
         <v>75141.9</v>
@@ -2327,7 +2327,7 @@
         <v>26.48</v>
       </c>
       <c r="J42">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="N42">
         <v>75186.56</v>
@@ -2374,7 +2374,7 @@
         <v>26.48</v>
       </c>
       <c r="J43">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="N43">
         <v>74886.56</v>
@@ -2421,7 +2421,7 @@
         <v>30.41</v>
       </c>
       <c r="J44">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N44">
         <v>81540.14</v>
@@ -2468,7 +2468,7 @@
         <v>28.47</v>
       </c>
       <c r="J45">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N45">
         <v>82226.11</v>
@@ -2515,7 +2515,7 @@
         <v>26.66</v>
       </c>
       <c r="J46">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P46" t="str">
         <v>#488fea</v>
@@ -2559,7 +2559,7 @@
         <v>26.48</v>
       </c>
       <c r="J47">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P47" t="str">
         <v>#488fea</v>
@@ -2603,7 +2603,7 @@
         <v>26.48</v>
       </c>
       <c r="J48">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P48" t="str">
         <v>#488fea</v>
@@ -2647,7 +2647,7 @@
         <v>30.41</v>
       </c>
       <c r="J49">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P49" t="str">
         <v>#488fea</v>
@@ -2691,7 +2691,7 @@
         <v>28.47</v>
       </c>
       <c r="J50">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N50">
         <v>82176.11</v>
@@ -2738,7 +2738,7 @@
         <v>26.66</v>
       </c>
       <c r="J51">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P51" t="str">
         <v>#488fea</v>
@@ -2782,7 +2782,7 @@
         <v>26.48</v>
       </c>
       <c r="J52">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="N52">
         <v>76156.56</v>
@@ -2829,7 +2829,7 @@
         <v>26.48</v>
       </c>
       <c r="J53">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P53" t="str">
         <v>#488fea</v>
@@ -2870,7 +2870,7 @@
         <v>30.41</v>
       </c>
       <c r="J54">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N54">
         <v>81390.14</v>
@@ -2917,7 +2917,7 @@
         <v>28.47</v>
       </c>
       <c r="J55">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N55">
         <v>82076.11</v>
@@ -2964,7 +2964,7 @@
         <v>26.66</v>
       </c>
       <c r="J56">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P56" t="str">
         <v>#488fea</v>
@@ -3008,7 +3008,7 @@
         <v>26.48</v>
       </c>
       <c r="J57">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="N57">
         <v>76096.56</v>
@@ -3055,7 +3055,7 @@
         <v>26.48</v>
       </c>
       <c r="J58">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="N58">
         <v>75796.56</v>
@@ -3102,7 +3102,7 @@
         <v>30.41</v>
       </c>
       <c r="J59">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N59">
         <v>81390.14</v>
@@ -3149,7 +3149,7 @@
         <v>28.47</v>
       </c>
       <c r="J60">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N60">
         <v>82076.11</v>
@@ -3196,7 +3196,7 @@
         <v>26.66</v>
       </c>
       <c r="J61">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P61" t="str">
         <v>#488fea</v>
@@ -3240,7 +3240,7 @@
         <v>26.48</v>
       </c>
       <c r="J62">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="N62">
         <v>76096.56</v>
@@ -3287,7 +3287,7 @@
         <v>26.48</v>
       </c>
       <c r="J63">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="N63">
         <v>75796.56</v>
@@ -3334,7 +3334,7 @@
         <v>30.41</v>
       </c>
       <c r="J64">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N64">
         <v>81340.14</v>
@@ -3381,7 +3381,7 @@
         <v>28.47</v>
       </c>
       <c r="J65">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N65">
         <v>82026.11</v>
@@ -3428,7 +3428,7 @@
         <v>26.66</v>
       </c>
       <c r="J66">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P66" t="str">
         <v>#488fea</v>
@@ -3472,7 +3472,7 @@
         <v>26.48</v>
       </c>
       <c r="J67">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P67" t="str">
         <v>#488fea</v>
@@ -3516,7 +3516,7 @@
         <v>26.48</v>
       </c>
       <c r="J68">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P68" t="str">
         <v>#488fea</v>
@@ -3560,7 +3560,7 @@
         <v>30.41</v>
       </c>
       <c r="J69">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N69">
         <v>81290.14</v>
@@ -3607,7 +3607,7 @@
         <v>28.47</v>
       </c>
       <c r="J70">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N70">
         <v>81976.11</v>
@@ -3654,7 +3654,7 @@
         <v>26.66</v>
       </c>
       <c r="J71">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P71" t="str">
         <v>#488fea</v>
@@ -3698,7 +3698,7 @@
         <v>26.48</v>
       </c>
       <c r="J72">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P72" t="str">
         <v>#488fea</v>
@@ -3742,7 +3742,7 @@
         <v>26.48</v>
       </c>
       <c r="J73">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="N73">
         <v>75736.56</v>
@@ -3789,7 +3789,7 @@
         <v>30.41</v>
       </c>
       <c r="J74">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N74">
         <v>81240.14</v>
@@ -3836,7 +3836,7 @@
         <v>28.47</v>
       </c>
       <c r="J75">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N75">
         <v>81926.11</v>
@@ -3883,7 +3883,7 @@
         <v>26.66</v>
       </c>
       <c r="J76">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P76" t="str">
         <v>#488fea</v>
@@ -3927,7 +3927,7 @@
         <v>26.48</v>
       </c>
       <c r="J77">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P77" t="str">
         <v>#488fea</v>
@@ -3971,7 +3971,7 @@
         <v>26.48</v>
       </c>
       <c r="J78">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="N78">
         <v>75706.56</v>
@@ -4018,7 +4018,7 @@
         <v>30.41</v>
       </c>
       <c r="J79">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N79">
         <v>81190.14</v>
@@ -4065,7 +4065,7 @@
         <v>28.47</v>
       </c>
       <c r="J80">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N80">
         <v>81876.11</v>
@@ -4112,7 +4112,7 @@
         <v>26.66</v>
       </c>
       <c r="J81">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P81" t="str">
         <v>#488fea</v>
@@ -4156,7 +4156,7 @@
         <v>26.48</v>
       </c>
       <c r="J82">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P82" t="str">
         <v>#488fea</v>
@@ -4200,7 +4200,7 @@
         <v>26.48</v>
       </c>
       <c r="J83">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="N83">
         <v>75656.56</v>
@@ -4247,7 +4247,7 @@
         <v>30.41</v>
       </c>
       <c r="J84">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N84">
         <v>81090.14</v>
@@ -4294,7 +4294,7 @@
         <v>28.47</v>
       </c>
       <c r="J85">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N85">
         <v>81776.11</v>
@@ -4341,7 +4341,7 @@
         <v>26.66</v>
       </c>
       <c r="J86">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P86" t="str">
         <v>#488fea</v>
@@ -4385,7 +4385,7 @@
         <v>26.48</v>
       </c>
       <c r="J87">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P87" t="str">
         <v>#488fea</v>
@@ -4429,7 +4429,7 @@
         <v>26.48</v>
       </c>
       <c r="J88">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P88" t="str">
         <v>#488fea</v>
@@ -4473,7 +4473,7 @@
         <v>30.41</v>
       </c>
       <c r="J89">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P89" t="str">
         <v>#488fea</v>
@@ -4514,7 +4514,7 @@
         <v>28.47</v>
       </c>
       <c r="J90">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N90">
         <v>81676.11</v>
@@ -4561,7 +4561,7 @@
         <v>26.66</v>
       </c>
       <c r="J91">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P91" t="str">
         <v>#488fea</v>
@@ -4605,7 +4605,7 @@
         <v>26.48</v>
       </c>
       <c r="J92">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P92" t="str">
         <v>#488fea</v>
@@ -4649,7 +4649,7 @@
         <v>26.48</v>
       </c>
       <c r="J93">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="N93">
         <v>75556.56</v>
@@ -4696,7 +4696,7 @@
         <v>30.41</v>
       </c>
       <c r="J94">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P94" t="str">
         <v>#488fea</v>
@@ -4740,7 +4740,7 @@
         <v>28.47</v>
       </c>
       <c r="J95">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N95">
         <v>81576.11</v>
@@ -4787,7 +4787,7 @@
         <v>26.66</v>
       </c>
       <c r="J96">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P96" t="str">
         <v>#488fea</v>
@@ -4831,7 +4831,7 @@
         <v>26.48</v>
       </c>
       <c r="J97">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P97" t="str">
         <v>#488fea</v>
@@ -4875,7 +4875,7 @@
         <v>26.48</v>
       </c>
       <c r="J98">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P98" t="str">
         <v>#488fea</v>
@@ -4919,7 +4919,7 @@
         <v>30.41</v>
       </c>
       <c r="J99">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N99">
         <v>80790.14</v>
@@ -4966,7 +4966,7 @@
         <v>28.47</v>
       </c>
       <c r="J100">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N100">
         <v>81476.11</v>
@@ -5013,7 +5013,7 @@
         <v>26.66</v>
       </c>
       <c r="J101">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P101" t="str">
         <v>#488fea</v>
@@ -5057,7 +5057,7 @@
         <v>26.48</v>
       </c>
       <c r="J102">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P102" t="str">
         <v>#488fea</v>
@@ -5101,7 +5101,7 @@
         <v>26.48</v>
       </c>
       <c r="J103">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P103" t="str">
         <v>#488fea</v>
@@ -5145,7 +5145,7 @@
         <v>30.41</v>
       </c>
       <c r="J104">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N104">
         <v>80690.14</v>
@@ -5192,7 +5192,7 @@
         <v>28.47</v>
       </c>
       <c r="J105">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N105">
         <v>81276.11</v>
@@ -5239,7 +5239,7 @@
         <v>26.66</v>
       </c>
       <c r="J106">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P106" t="str">
         <v>#488fea</v>
@@ -5283,7 +5283,7 @@
         <v>26.48</v>
       </c>
       <c r="J107">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P107" t="str">
         <v>#488fea</v>
@@ -5327,7 +5327,7 @@
         <v>26.48</v>
       </c>
       <c r="J108">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P108" t="str">
         <v>#488fea</v>
@@ -5371,7 +5371,7 @@
         <v>30.41</v>
       </c>
       <c r="J109">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P109" t="str">
         <v>#488fea</v>
@@ -5415,7 +5415,7 @@
         <v>28.47</v>
       </c>
       <c r="J110">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N110">
         <v>81276.11</v>
@@ -5462,7 +5462,7 @@
         <v>26.66</v>
       </c>
       <c r="J111">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P111" t="str">
         <v>#488fea</v>
@@ -5506,7 +5506,7 @@
         <v>26.48</v>
       </c>
       <c r="J112">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P112" t="str">
         <v>#488fea</v>
@@ -5550,7 +5550,7 @@
         <v>26.48</v>
       </c>
       <c r="J113">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P113" t="str">
         <v>#488fea</v>
@@ -5594,7 +5594,7 @@
         <v>30.41</v>
       </c>
       <c r="J114">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P114" t="str">
         <v>#488fea</v>
@@ -5635,7 +5635,7 @@
         <v>28.47</v>
       </c>
       <c r="J115">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N115">
         <v>81176.11</v>
@@ -5682,7 +5682,7 @@
         <v>26.66</v>
       </c>
       <c r="J116">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P116" t="str">
         <v>#488fea</v>
@@ -5726,7 +5726,7 @@
         <v>26.48</v>
       </c>
       <c r="J117">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P117" t="str">
         <v>#488fea</v>
@@ -5770,7 +5770,7 @@
         <v>26.48</v>
       </c>
       <c r="J118">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="N118">
         <v>75306.56</v>
@@ -5817,7 +5817,7 @@
         <v>30.41</v>
       </c>
       <c r="J119">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P119" t="str">
         <v>#488fea</v>
@@ -5861,7 +5861,7 @@
         <v>28.47</v>
       </c>
       <c r="J120">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N120">
         <v>80976.11</v>
@@ -5908,7 +5908,7 @@
         <v>26.66</v>
       </c>
       <c r="J121">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P121" t="str">
         <v>#488fea</v>
@@ -5952,7 +5952,7 @@
         <v>26.48</v>
       </c>
       <c r="J122">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P122" t="str">
         <v>#488fea</v>
@@ -5996,7 +5996,7 @@
         <v>26.48</v>
       </c>
       <c r="J123">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P123" t="str">
         <v>#488fea</v>
@@ -6040,7 +6040,7 @@
         <v>30.41</v>
       </c>
       <c r="J124">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P124" t="str">
         <v>#488fea</v>
@@ -6084,7 +6084,7 @@
         <v>28.47</v>
       </c>
       <c r="J125">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N125">
         <v>80876.11</v>
@@ -6131,7 +6131,7 @@
         <v>26.66</v>
       </c>
       <c r="J126">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P126" t="str">
         <v>#488fea</v>
@@ -6175,7 +6175,7 @@
         <v>26.48</v>
       </c>
       <c r="J127">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P127" t="str">
         <v>#488fea</v>
@@ -6219,7 +6219,7 @@
         <v>26.48</v>
       </c>
       <c r="J128">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P128" t="str">
         <v>#488fea</v>
@@ -6263,7 +6263,7 @@
         <v>30.41</v>
       </c>
       <c r="J129">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="P129" t="str">
         <v>#488fea</v>
@@ -6307,7 +6307,7 @@
         <v>28.47</v>
       </c>
       <c r="J130">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N130">
         <v>80776.11</v>
@@ -6354,7 +6354,7 @@
         <v>26.66</v>
       </c>
       <c r="J131">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P131" t="str">
         <v>#488fea</v>
@@ -6398,7 +6398,7 @@
         <v>26.48</v>
       </c>
       <c r="J132">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P132" t="str">
         <v>#488fea</v>
@@ -6442,7 +6442,7 @@
         <v>26.48</v>
       </c>
       <c r="J133">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P133" t="str">
         <v>#488fea</v>
@@ -6486,7 +6486,7 @@
         <v>30.41</v>
       </c>
       <c r="J134">
-        <v>124.92</v>
+        <v>125</v>
       </c>
       <c r="N134">
         <v>79966.12</v>
@@ -6533,7 +6533,7 @@
         <v>28.47</v>
       </c>
       <c r="J135">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N135">
         <v>80676.11</v>
@@ -6580,7 +6580,7 @@
         <v>26.66</v>
       </c>
       <c r="J136">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P136" t="str">
         <v>#488fea</v>
@@ -6624,7 +6624,7 @@
         <v>26.48</v>
       </c>
       <c r="J137">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P137" t="str">
         <v>#488fea</v>
@@ -6668,7 +6668,7 @@
         <v>26.48</v>
       </c>
       <c r="J138">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P138" t="str">
         <v>#488fea</v>
@@ -6712,7 +6712,7 @@
         <v>30.4</v>
       </c>
       <c r="J139">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N139">
         <v>79867.1</v>
@@ -6759,7 +6759,7 @@
         <v>28.47</v>
       </c>
       <c r="J140">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N140">
         <v>80524.79</v>
@@ -6806,7 +6806,7 @@
         <v>26.67</v>
       </c>
       <c r="J141">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P141" t="str">
         <v>#488fea</v>
@@ -6850,7 +6850,7 @@
         <v>26.43</v>
       </c>
       <c r="J142">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P142" t="str">
         <v>#488fea</v>
@@ -6894,7 +6894,7 @@
         <v>26.43</v>
       </c>
       <c r="J143">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P143" t="str">
         <v>#488fea</v>
@@ -6938,7 +6938,7 @@
         <v>30.4</v>
       </c>
       <c r="J144">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P144" t="str">
         <v>#488fea</v>
@@ -6982,7 +6982,7 @@
         <v>28.47</v>
       </c>
       <c r="J145">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N145">
         <v>80424.79</v>
@@ -7029,7 +7029,7 @@
         <v>26.67</v>
       </c>
       <c r="J146">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P146" t="str">
         <v>#488fea</v>
@@ -7073,7 +7073,7 @@
         <v>26.43</v>
       </c>
       <c r="J147">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P147" t="str">
         <v>#488fea</v>
@@ -7117,7 +7117,7 @@
         <v>26.43</v>
       </c>
       <c r="J148">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P148" t="str">
         <v>#488fea</v>
@@ -7161,7 +7161,7 @@
         <v>30.4</v>
       </c>
       <c r="J149">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P149" t="str">
         <v>#488fea</v>
@@ -7205,7 +7205,7 @@
         <v>28.47</v>
       </c>
       <c r="J150">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N150">
         <v>80224.79</v>
@@ -7252,7 +7252,7 @@
         <v>26.67</v>
       </c>
       <c r="J151">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P151" t="str">
         <v>#488fea</v>
@@ -7296,7 +7296,7 @@
         <v>26.43</v>
       </c>
       <c r="J152">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P152" t="str">
         <v>#488fea</v>
@@ -7340,7 +7340,7 @@
         <v>26.43</v>
       </c>
       <c r="J153">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P153" t="str">
         <v>#488fea</v>
@@ -7384,7 +7384,7 @@
         <v>30.4</v>
       </c>
       <c r="J154">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N154">
         <v>79567.1</v>
@@ -7431,7 +7431,7 @@
         <v>28.47</v>
       </c>
       <c r="J155">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N155">
         <v>80224.79</v>
@@ -7478,7 +7478,7 @@
         <v>26.67</v>
       </c>
       <c r="J156">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P156" t="str">
         <v>#488fea</v>
@@ -7522,7 +7522,7 @@
         <v>26.43</v>
       </c>
       <c r="J157">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P157" t="str">
         <v>#488fea</v>
@@ -7566,7 +7566,7 @@
         <v>26.43</v>
       </c>
       <c r="J158">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P158" t="str">
         <v>#488fea</v>
@@ -7610,7 +7610,7 @@
         <v>30.4</v>
       </c>
       <c r="J159">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N159">
         <v>79467.1</v>
@@ -7657,7 +7657,7 @@
         <v>28.47</v>
       </c>
       <c r="J160">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N160">
         <v>80124.79</v>
@@ -7704,7 +7704,7 @@
         <v>26.67</v>
       </c>
       <c r="J161">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P161" t="str">
         <v>#488fea</v>
@@ -7748,7 +7748,7 @@
         <v>26.43</v>
       </c>
       <c r="J162">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P162" t="str">
         <v>#488fea</v>
@@ -7792,7 +7792,7 @@
         <v>26.43</v>
       </c>
       <c r="J163">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P163" t="str">
         <v>#488fea</v>
@@ -7836,7 +7836,7 @@
         <v>30.4</v>
       </c>
       <c r="J164">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P164" t="str">
         <v>#488fea</v>
@@ -7880,7 +7880,7 @@
         <v>28.47</v>
       </c>
       <c r="J165">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N165">
         <v>80024.79</v>
@@ -7927,7 +7927,7 @@
         <v>26.67</v>
       </c>
       <c r="J166">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P166" t="str">
         <v>#488fea</v>
@@ -7971,7 +7971,7 @@
         <v>26.43</v>
       </c>
       <c r="J167">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P167" t="str">
         <v>#488fea</v>
@@ -8015,7 +8015,7 @@
         <v>26.43</v>
       </c>
       <c r="J168">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P168" t="str">
         <v>#488fea</v>
@@ -8059,7 +8059,7 @@
         <v>30.4</v>
       </c>
       <c r="J169">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P169" t="str">
         <v>#488fea</v>
@@ -8103,7 +8103,7 @@
         <v>28.47</v>
       </c>
       <c r="J170">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N170">
         <v>79924.79</v>
@@ -8150,7 +8150,7 @@
         <v>26.67</v>
       </c>
       <c r="J171">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P171" t="str">
         <v>#488fea</v>
@@ -8194,7 +8194,7 @@
         <v>26.43</v>
       </c>
       <c r="J172">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P172" t="str">
         <v>#488fea</v>
@@ -8238,7 +8238,7 @@
         <v>26.43</v>
       </c>
       <c r="J173">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P173" t="str">
         <v>#488fea</v>
@@ -8282,7 +8282,7 @@
         <v>30.4</v>
       </c>
       <c r="J174">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P174" t="str">
         <v>#488fea</v>
@@ -8326,7 +8326,7 @@
         <v>28.47</v>
       </c>
       <c r="J175">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N175">
         <v>79824.79</v>
@@ -8373,7 +8373,7 @@
         <v>26.67</v>
       </c>
       <c r="J176">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P176" t="str">
         <v>#488fea</v>
@@ -8417,7 +8417,7 @@
         <v>26.43</v>
       </c>
       <c r="J177">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P177" t="str">
         <v>#488fea</v>
@@ -8461,7 +8461,7 @@
         <v>26.43</v>
       </c>
       <c r="J178">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P178" t="str">
         <v>#488fea</v>
@@ -8505,7 +8505,7 @@
         <v>30.4</v>
       </c>
       <c r="J179">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N179">
         <v>78967.1</v>
@@ -8552,7 +8552,7 @@
         <v>28.47</v>
       </c>
       <c r="J180">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N180">
         <v>79624.79</v>
@@ -8599,7 +8599,7 @@
         <v>26.67</v>
       </c>
       <c r="J181">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P181" t="str">
         <v>#488fea</v>
@@ -8643,7 +8643,7 @@
         <v>26.43</v>
       </c>
       <c r="J182">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P182" t="str">
         <v>#488fea</v>
@@ -8687,7 +8687,7 @@
         <v>26.43</v>
       </c>
       <c r="J183">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P183" t="str">
         <v>#488fea</v>
@@ -8731,7 +8731,7 @@
         <v>30.4</v>
       </c>
       <c r="J184">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N184">
         <v>78967.1</v>
@@ -8778,7 +8778,7 @@
         <v>28.47</v>
       </c>
       <c r="J185">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N185">
         <v>79624.79</v>
@@ -8825,7 +8825,7 @@
         <v>26.67</v>
       </c>
       <c r="J186">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P186" t="str">
         <v>#488fea</v>
@@ -8869,7 +8869,7 @@
         <v>26.43</v>
       </c>
       <c r="J187">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P187" t="str">
         <v>#488fea</v>
@@ -8913,7 +8913,7 @@
         <v>26.43</v>
       </c>
       <c r="J188">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P188" t="str">
         <v>#488fea</v>
@@ -8957,7 +8957,7 @@
         <v>30.4</v>
       </c>
       <c r="J189">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P189" t="str">
         <v>#488fea</v>
@@ -9001,7 +9001,7 @@
         <v>28.47</v>
       </c>
       <c r="J190">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N190">
         <v>79524.79</v>
@@ -9048,7 +9048,7 @@
         <v>26.67</v>
       </c>
       <c r="J191">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P191" t="str">
         <v>#488fea</v>
@@ -9092,7 +9092,7 @@
         <v>26.43</v>
       </c>
       <c r="J192">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P192" t="str">
         <v>#488fea</v>
@@ -9136,7 +9136,7 @@
         <v>26.43</v>
       </c>
       <c r="J193">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P193" t="str">
         <v>#488fea</v>
@@ -9180,7 +9180,7 @@
         <v>30.4</v>
       </c>
       <c r="J194">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P194" t="str">
         <v>#488fea</v>
@@ -9224,7 +9224,7 @@
         <v>28.47</v>
       </c>
       <c r="J195">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N195">
         <v>78870.85</v>
@@ -9271,7 +9271,7 @@
         <v>26.67</v>
       </c>
       <c r="J196">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P196" t="str">
         <v>#488fea</v>
@@ -9315,7 +9315,7 @@
         <v>26.43</v>
       </c>
       <c r="J197">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P197" t="str">
         <v>#488fea</v>
@@ -9359,7 +9359,7 @@
         <v>26.43</v>
       </c>
       <c r="J198">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P198" t="str">
         <v>#488fea</v>
@@ -9403,7 +9403,7 @@
         <v>30.4</v>
       </c>
       <c r="J199">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N199">
         <v>78014.68</v>
@@ -9450,7 +9450,7 @@
         <v>28.47</v>
       </c>
       <c r="J200">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P200" t="str">
         <v>#488fea</v>
@@ -9494,7 +9494,7 @@
         <v>26.67</v>
       </c>
       <c r="J201">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P201" t="str">
         <v>#488fea</v>
@@ -9538,7 +9538,7 @@
         <v>26.43</v>
       </c>
       <c r="J202">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P202" t="str">
         <v>#488fea</v>
@@ -9582,7 +9582,7 @@
         <v>26.43</v>
       </c>
       <c r="J203">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P203" t="str">
         <v>#488fea</v>
@@ -9626,7 +9626,7 @@
         <v>30.4</v>
       </c>
       <c r="J204">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N204">
         <v>77814.68</v>
@@ -9673,7 +9673,7 @@
         <v>28.47</v>
       </c>
       <c r="J205">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N205">
         <v>78670.85</v>
@@ -9720,7 +9720,7 @@
         <v>26.67</v>
       </c>
       <c r="J206">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P206" t="str">
         <v>#488fea</v>
@@ -9764,7 +9764,7 @@
         <v>26.43</v>
       </c>
       <c r="J207">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P207" t="str">
         <v>#488fea</v>
@@ -9808,7 +9808,7 @@
         <v>26.43</v>
       </c>
       <c r="J208">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P208" t="str">
         <v>#488fea</v>
@@ -9852,7 +9852,7 @@
         <v>30.4</v>
       </c>
       <c r="J209">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N209">
         <v>77614.68</v>
@@ -9899,7 +9899,7 @@
         <v>28.47</v>
       </c>
       <c r="J210">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P210" t="str">
         <v>#488fea</v>
@@ -9943,7 +9943,7 @@
         <v>26.67</v>
       </c>
       <c r="J211">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P211" t="str">
         <v>#488fea</v>
@@ -9987,7 +9987,7 @@
         <v>26.43</v>
       </c>
       <c r="J212">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P212" t="str">
         <v>#488fea</v>
@@ -10031,7 +10031,7 @@
         <v>26.43</v>
       </c>
       <c r="J213">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P213" t="str">
         <v>#488fea</v>
@@ -10075,7 +10075,7 @@
         <v>30.4</v>
       </c>
       <c r="J214">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N214">
         <v>77414.68</v>
@@ -10122,7 +10122,7 @@
         <v>28.47</v>
       </c>
       <c r="J215">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N215">
         <v>78270.85</v>
@@ -10169,7 +10169,7 @@
         <v>26.67</v>
       </c>
       <c r="J216">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P216" t="str">
         <v>#488fea</v>
@@ -10213,7 +10213,7 @@
         <v>26.43</v>
       </c>
       <c r="J217">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P217" t="str">
         <v>#488fea</v>
@@ -10257,7 +10257,7 @@
         <v>26.43</v>
       </c>
       <c r="J218">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P218" t="str">
         <v>#488fea</v>
@@ -10301,7 +10301,7 @@
         <v>30.4</v>
       </c>
       <c r="J219">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="P219" t="str">
         <v>#488fea</v>
@@ -10345,7 +10345,7 @@
         <v>28.47</v>
       </c>
       <c r="J220">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N220">
         <v>78070.85</v>
@@ -10392,7 +10392,7 @@
         <v>26.67</v>
       </c>
       <c r="J221">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P221" t="str">
         <v>#488fea</v>
@@ -10436,7 +10436,7 @@
         <v>26.43</v>
       </c>
       <c r="J222">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P222" t="str">
         <v>#488fea</v>
@@ -10480,7 +10480,7 @@
         <v>26.43</v>
       </c>
       <c r="J223">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P223" t="str">
         <v>#488fea</v>
@@ -10524,7 +10524,7 @@
         <v>30.4</v>
       </c>
       <c r="J224">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N224">
         <v>77014.68</v>
@@ -10571,7 +10571,7 @@
         <v>28.47</v>
       </c>
       <c r="J225">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="N225">
         <v>77870.85</v>
@@ -10618,7 +10618,7 @@
         <v>26.67</v>
       </c>
       <c r="J226">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P226" t="str">
         <v>#488fea</v>
@@ -10662,7 +10662,7 @@
         <v>26.43</v>
       </c>
       <c r="J227">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P227" t="str">
         <v>#488fea</v>
@@ -10706,7 +10706,7 @@
         <v>26.43</v>
       </c>
       <c r="J228">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P228" t="str">
         <v>#488fea</v>
@@ -10750,7 +10750,7 @@
         <v>30.4</v>
       </c>
       <c r="J229">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N229">
         <v>75413</v>
@@ -10797,7 +10797,7 @@
         <v>28.47</v>
       </c>
       <c r="J230">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P230" t="str">
         <v>#488fea</v>
@@ -10841,7 +10841,7 @@
         <v>26.67</v>
       </c>
       <c r="J231">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P231" t="str">
         <v>#488fea</v>
@@ -10885,7 +10885,7 @@
         <v>26.43</v>
       </c>
       <c r="J232">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P232" t="str">
         <v>#488fea</v>
@@ -10929,7 +10929,7 @@
         <v>26.43</v>
       </c>
       <c r="J233">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P233" t="str">
         <v>#488fea</v>
@@ -10973,7 +10973,7 @@
         <v>30.4</v>
       </c>
       <c r="J234">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N234">
         <v>75213</v>
@@ -11020,7 +11020,7 @@
         <v>28.47</v>
       </c>
       <c r="J235">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P235" t="str">
         <v>#488fea</v>
@@ -11064,7 +11064,7 @@
         <v>26.67</v>
       </c>
       <c r="J236">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P236" t="str">
         <v>#488fea</v>
@@ -11108,7 +11108,7 @@
         <v>26.43</v>
       </c>
       <c r="J237">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P237" t="str">
         <v>#488fea</v>
@@ -11152,7 +11152,7 @@
         <v>26.43</v>
       </c>
       <c r="J238">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P238" t="str">
         <v>#488fea</v>
@@ -11196,7 +11196,7 @@
         <v>30.4</v>
       </c>
       <c r="J239">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N239">
         <v>74213</v>
@@ -11243,7 +11243,7 @@
         <v>28.47</v>
       </c>
       <c r="J240">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P240" t="str">
         <v>#488fea</v>
@@ -11287,7 +11287,7 @@
         <v>26.67</v>
       </c>
       <c r="J241">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P241" t="str">
         <v>#488fea</v>
@@ -11331,7 +11331,7 @@
         <v>26.43</v>
       </c>
       <c r="J242">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P242" t="str">
         <v>#488fea</v>
@@ -11375,7 +11375,7 @@
         <v>26.43</v>
       </c>
       <c r="J243">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P243" t="str">
         <v>#488fea</v>
@@ -11419,7 +11419,7 @@
         <v>30.4</v>
       </c>
       <c r="J244">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N244">
         <v>73213</v>
@@ -11466,7 +11466,7 @@
         <v>28.47</v>
       </c>
       <c r="J245">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P245" t="str">
         <v>#488fea</v>
@@ -11510,7 +11510,7 @@
         <v>26.67</v>
       </c>
       <c r="J246">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P246" t="str">
         <v>#488fea</v>
@@ -11554,7 +11554,7 @@
         <v>26.43</v>
       </c>
       <c r="J247">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P247" t="str">
         <v>#488fea</v>
@@ -11598,7 +11598,7 @@
         <v>26.43</v>
       </c>
       <c r="J248">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P248" t="str">
         <v>#488fea</v>
@@ -11642,7 +11642,7 @@
         <v>30.4</v>
       </c>
       <c r="J249">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N249">
         <v>72213</v>
@@ -11689,7 +11689,7 @@
         <v>28.47</v>
       </c>
       <c r="J250">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P250" t="str">
         <v>#488fea</v>
@@ -11733,7 +11733,7 @@
         <v>26.67</v>
       </c>
       <c r="J251">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P251" t="str">
         <v>#488fea</v>
@@ -11777,7 +11777,7 @@
         <v>26.43</v>
       </c>
       <c r="J252">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P252" t="str">
         <v>#488fea</v>
@@ -11821,7 +11821,7 @@
         <v>26.43</v>
       </c>
       <c r="J253">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P253" t="str">
         <v>#488fea</v>
@@ -11865,7 +11865,7 @@
         <v>30.4</v>
       </c>
       <c r="J254">
-        <v>124.85</v>
+        <v>125</v>
       </c>
       <c r="N254">
         <v>71213</v>
@@ -11912,7 +11912,7 @@
         <v>28.47</v>
       </c>
       <c r="J255">
-        <v>116.93</v>
+        <v>117</v>
       </c>
       <c r="P255" t="str">
         <v>#488fea</v>
@@ -11956,7 +11956,7 @@
         <v>26.67</v>
       </c>
       <c r="J256">
-        <v>109.54</v>
+        <v>110</v>
       </c>
       <c r="P256" t="str">
         <v>#488fea</v>
@@ -12000,7 +12000,7 @@
         <v>26.43</v>
       </c>
       <c r="J257">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P257" t="str">
         <v>#488fea</v>
@@ -12044,7 +12044,7 @@
         <v>26.43</v>
       </c>
       <c r="J258">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P258" t="str">
         <v>#488fea</v>
@@ -12088,7 +12088,7 @@
         <v>30.4</v>
       </c>
       <c r="J259">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N259">
         <v>82546.79</v>
@@ -12135,7 +12135,7 @@
         <v>28.46</v>
       </c>
       <c r="J260">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N260">
         <v>78925.69</v>
@@ -12182,7 +12182,7 @@
         <v>26.65</v>
       </c>
       <c r="J261">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="N261">
         <v>73032.07</v>
@@ -12229,7 +12229,7 @@
         <v>26.48</v>
       </c>
       <c r="J262">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P262" t="str">
         <v>#488fea</v>
@@ -12273,7 +12273,7 @@
         <v>26.48</v>
       </c>
       <c r="J263">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P263" t="str">
         <v>#488fea</v>
@@ -12317,7 +12317,7 @@
         <v>30.4</v>
       </c>
       <c r="J264">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N264">
         <v>83546.79</v>
@@ -12364,7 +12364,7 @@
         <v>28.46</v>
       </c>
       <c r="J265">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N265">
         <v>79925.69</v>
@@ -12411,7 +12411,7 @@
         <v>26.65</v>
       </c>
       <c r="J266">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P266" t="str">
         <v>#488fea</v>
@@ -12455,7 +12455,7 @@
         <v>26.48</v>
       </c>
       <c r="J267">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P267" t="str">
         <v>#488fea</v>
@@ -12499,7 +12499,7 @@
         <v>26.48</v>
       </c>
       <c r="J268">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P268" t="str">
         <v>#488fea</v>
@@ -12543,7 +12543,7 @@
         <v>30.4</v>
       </c>
       <c r="J269">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P269" t="str">
         <v>#488fea</v>
@@ -12587,7 +12587,7 @@
         <v>28.46</v>
       </c>
       <c r="J270">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N270">
         <v>79875.69</v>
@@ -12634,7 +12634,7 @@
         <v>26.65</v>
       </c>
       <c r="J271">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P271" t="str">
         <v>#488fea</v>
@@ -12678,7 +12678,7 @@
         <v>26.48</v>
       </c>
       <c r="J272">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P272" t="str">
         <v>#488fea</v>
@@ -12722,7 +12722,7 @@
         <v>26.48</v>
       </c>
       <c r="J273">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P273" t="str">
         <v>#488fea</v>
@@ -12766,7 +12766,7 @@
         <v>30.4</v>
       </c>
       <c r="J274">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N274">
         <v>83396.78</v>
@@ -12813,7 +12813,7 @@
         <v>28.46</v>
       </c>
       <c r="J275">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N275">
         <v>79775.69</v>
@@ -12860,7 +12860,7 @@
         <v>26.65</v>
       </c>
       <c r="J276">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P276" t="str">
         <v>#488fea</v>
@@ -12904,7 +12904,7 @@
         <v>26.48</v>
       </c>
       <c r="J277">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P277" t="str">
         <v>#488fea</v>
@@ -12948,7 +12948,7 @@
         <v>26.48</v>
       </c>
       <c r="J278">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P278" t="str">
         <v>#488fea</v>
@@ -12992,7 +12992,7 @@
         <v>30.4</v>
       </c>
       <c r="J279">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N279">
         <v>83396.78</v>
@@ -13039,7 +13039,7 @@
         <v>28.46</v>
       </c>
       <c r="J280">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N280">
         <v>79775.69</v>
@@ -13086,7 +13086,7 @@
         <v>26.65</v>
       </c>
       <c r="J281">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P281" t="str">
         <v>#488fea</v>
@@ -13130,7 +13130,7 @@
         <v>26.48</v>
       </c>
       <c r="J282">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P282" t="str">
         <v>#488fea</v>
@@ -13174,7 +13174,7 @@
         <v>26.48</v>
       </c>
       <c r="J283">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="N283">
         <v>73287</v>
@@ -13221,7 +13221,7 @@
         <v>30.4</v>
       </c>
       <c r="J284">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N284">
         <v>83346.79</v>
@@ -13268,7 +13268,7 @@
         <v>28.46</v>
       </c>
       <c r="J285">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N285">
         <v>79725.69</v>
@@ -13315,7 +13315,7 @@
         <v>26.65</v>
       </c>
       <c r="J286">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P286" t="str">
         <v>#488fea</v>
@@ -13359,7 +13359,7 @@
         <v>26.48</v>
       </c>
       <c r="J287">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="N287">
         <v>73557</v>
@@ -13406,7 +13406,7 @@
         <v>26.48</v>
       </c>
       <c r="J288">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P288" t="str">
         <v>#488fea</v>
@@ -13450,7 +13450,7 @@
         <v>30.4</v>
       </c>
       <c r="J289">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P289" t="str">
         <v>#488fea</v>
@@ -13494,7 +13494,7 @@
         <v>28.46</v>
       </c>
       <c r="J290">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N290">
         <v>79675.69</v>
@@ -13541,7 +13541,7 @@
         <v>26.65</v>
       </c>
       <c r="J291">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P291" t="str">
         <v>#488fea</v>
@@ -13585,7 +13585,7 @@
         <v>26.48</v>
       </c>
       <c r="J292">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P292" t="str">
         <v>#488fea</v>
@@ -13629,7 +13629,7 @@
         <v>26.48</v>
       </c>
       <c r="J293">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P293" t="str">
         <v>#488fea</v>
@@ -13673,7 +13673,7 @@
         <v>30.4</v>
       </c>
       <c r="J294">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P294" t="str">
         <v>#488fea</v>
@@ -13717,7 +13717,7 @@
         <v>28.46</v>
       </c>
       <c r="J295">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N295">
         <v>79625.69</v>
@@ -13764,7 +13764,7 @@
         <v>26.65</v>
       </c>
       <c r="J296">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P296" t="str">
         <v>#488fea</v>
@@ -13808,7 +13808,7 @@
         <v>26.48</v>
       </c>
       <c r="J297">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P297" t="str">
         <v>#488fea</v>
@@ -13852,7 +13852,7 @@
         <v>26.48</v>
       </c>
       <c r="J298">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P298" t="str">
         <v>#488fea</v>
@@ -13896,7 +13896,7 @@
         <v>30.4</v>
       </c>
       <c r="J299">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P299" t="str">
         <v>#488fea</v>
@@ -13940,7 +13940,7 @@
         <v>28.46</v>
       </c>
       <c r="J300">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N300">
         <v>79575.69</v>
@@ -13987,7 +13987,7 @@
         <v>26.65</v>
       </c>
       <c r="J301">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P301" t="str">
         <v>#488fea</v>
@@ -14031,7 +14031,7 @@
         <v>26.48</v>
       </c>
       <c r="J302">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P302" t="str">
         <v>#488fea</v>
@@ -14075,7 +14075,7 @@
         <v>26.48</v>
       </c>
       <c r="J303">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P303" t="str">
         <v>#488fea</v>
@@ -14119,7 +14119,7 @@
         <v>30.4</v>
       </c>
       <c r="J304">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P304" t="str">
         <v>#488fea</v>
@@ -14163,7 +14163,7 @@
         <v>28.46</v>
       </c>
       <c r="J305">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N305">
         <v>79475.69</v>
@@ -14210,7 +14210,7 @@
         <v>26.65</v>
       </c>
       <c r="J306">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P306" t="str">
         <v>#488fea</v>
@@ -14254,7 +14254,7 @@
         <v>26.48</v>
       </c>
       <c r="J307">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P307" t="str">
         <v>#488fea</v>
@@ -14298,7 +14298,7 @@
         <v>26.48</v>
       </c>
       <c r="J308">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P308" t="str">
         <v>#488fea</v>
@@ -14342,7 +14342,7 @@
         <v>30.4</v>
       </c>
       <c r="J309">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P309" t="str">
         <v>#488fea</v>
@@ -14386,7 +14386,7 @@
         <v>28.46</v>
       </c>
       <c r="J310">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P310" t="str">
         <v>#488fea</v>
@@ -14430,7 +14430,7 @@
         <v>26.65</v>
       </c>
       <c r="J311">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P311" t="str">
         <v>#488fea</v>
@@ -14474,7 +14474,7 @@
         <v>26.48</v>
       </c>
       <c r="J312">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P312" t="str">
         <v>#488fea</v>
@@ -14518,7 +14518,7 @@
         <v>26.48</v>
       </c>
       <c r="J313">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P313" t="str">
         <v>#488fea</v>
@@ -14562,7 +14562,7 @@
         <v>30.4</v>
       </c>
       <c r="J314">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P314" t="str">
         <v>#488fea</v>
@@ -14603,7 +14603,7 @@
         <v>28.46</v>
       </c>
       <c r="J315">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P315" t="str">
         <v>#488fea</v>
@@ -14647,7 +14647,7 @@
         <v>26.65</v>
       </c>
       <c r="J316">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P316" t="str">
         <v>#488fea</v>
@@ -14691,7 +14691,7 @@
         <v>26.48</v>
       </c>
       <c r="J317">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P317" t="str">
         <v>#488fea</v>
@@ -14735,7 +14735,7 @@
         <v>26.48</v>
       </c>
       <c r="J318">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P318" t="str">
         <v>#488fea</v>
@@ -14779,7 +14779,7 @@
         <v>30.4</v>
       </c>
       <c r="J319">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P319" t="str">
         <v>#488fea</v>
@@ -14823,7 +14823,7 @@
         <v>28.46</v>
       </c>
       <c r="J320">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P320" t="str">
         <v>#488fea</v>
@@ -14867,7 +14867,7 @@
         <v>26.65</v>
       </c>
       <c r="J321">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P321" t="str">
         <v>#488fea</v>
@@ -14911,7 +14911,7 @@
         <v>26.48</v>
       </c>
       <c r="J322">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P322" t="str">
         <v>#488fea</v>
@@ -14955,7 +14955,7 @@
         <v>26.48</v>
       </c>
       <c r="J323">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P323" t="str">
         <v>#488fea</v>
@@ -14999,7 +14999,7 @@
         <v>30.4</v>
       </c>
       <c r="J324">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P324" t="str">
         <v>#488fea</v>
@@ -15043,7 +15043,7 @@
         <v>28.46</v>
       </c>
       <c r="J325">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N325">
         <v>78975.69</v>
@@ -15090,7 +15090,7 @@
         <v>26.65</v>
       </c>
       <c r="J326">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P326" t="str">
         <v>#488fea</v>
@@ -15134,7 +15134,7 @@
         <v>26.48</v>
       </c>
       <c r="J327">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P327" t="str">
         <v>#488fea</v>
@@ -15178,7 +15178,7 @@
         <v>26.48</v>
       </c>
       <c r="J328">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P328" t="str">
         <v>#488fea</v>
@@ -15222,7 +15222,7 @@
         <v>30.4</v>
       </c>
       <c r="J329">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N329">
         <v>82596.78</v>
@@ -15269,7 +15269,7 @@
         <v>28.46</v>
       </c>
       <c r="J330">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P330" t="str">
         <v>#488fea</v>
@@ -15310,7 +15310,7 @@
         <v>26.65</v>
       </c>
       <c r="J331">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P331" t="str">
         <v>#488fea</v>
@@ -15354,7 +15354,7 @@
         <v>26.48</v>
       </c>
       <c r="J332">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P332" t="str">
         <v>#488fea</v>
@@ -15398,7 +15398,7 @@
         <v>26.48</v>
       </c>
       <c r="J333">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P333" t="str">
         <v>#488fea</v>
@@ -15442,7 +15442,7 @@
         <v>30.4</v>
       </c>
       <c r="J334">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N334">
         <v>82496.78</v>
@@ -15489,7 +15489,7 @@
         <v>28.46</v>
       </c>
       <c r="J335">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P335" t="str">
         <v>#488fea</v>
@@ -15530,7 +15530,7 @@
         <v>26.65</v>
       </c>
       <c r="J336">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P336" t="str">
         <v>#488fea</v>
@@ -15574,7 +15574,7 @@
         <v>26.48</v>
       </c>
       <c r="J337">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P337" t="str">
         <v>#488fea</v>
@@ -15618,7 +15618,7 @@
         <v>26.48</v>
       </c>
       <c r="J338">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P338" t="str">
         <v>#488fea</v>
@@ -15662,7 +15662,7 @@
         <v>30.4</v>
       </c>
       <c r="J339">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P339" t="str">
         <v>#488fea</v>
@@ -15706,7 +15706,7 @@
         <v>28.46</v>
       </c>
       <c r="J340">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P340" t="str">
         <v>#488fea</v>
@@ -15750,7 +15750,7 @@
         <v>26.65</v>
       </c>
       <c r="J341">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P341" t="str">
         <v>#488fea</v>
@@ -15794,7 +15794,7 @@
         <v>26.48</v>
       </c>
       <c r="J342">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P342" t="str">
         <v>#488fea</v>
@@ -15838,7 +15838,7 @@
         <v>26.48</v>
       </c>
       <c r="J343">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P343" t="str">
         <v>#488fea</v>
@@ -15882,7 +15882,7 @@
         <v>30.4</v>
       </c>
       <c r="J344">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P344" t="str">
         <v>#488fea</v>
@@ -15926,7 +15926,7 @@
         <v>28.46</v>
       </c>
       <c r="J345">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N345">
         <v>78575.69</v>
@@ -15973,7 +15973,7 @@
         <v>26.65</v>
       </c>
       <c r="J346">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P346" t="str">
         <v>#488fea</v>
@@ -16017,7 +16017,7 @@
         <v>26.48</v>
       </c>
       <c r="J347">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P347" t="str">
         <v>#488fea</v>
@@ -16061,7 +16061,7 @@
         <v>26.48</v>
       </c>
       <c r="J348">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P348" t="str">
         <v>#488fea</v>
@@ -16105,7 +16105,7 @@
         <v>30.4</v>
       </c>
       <c r="J349">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="N349">
         <v>82096.78</v>
@@ -16152,7 +16152,7 @@
         <v>28.46</v>
       </c>
       <c r="J350">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P350" t="str">
         <v>#488fea</v>
@@ -16196,7 +16196,7 @@
         <v>26.65</v>
       </c>
       <c r="J351">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P351" t="str">
         <v>#488fea</v>
@@ -16240,7 +16240,7 @@
         <v>26.48</v>
       </c>
       <c r="J352">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P352" t="str">
         <v>#488fea</v>
@@ -16284,7 +16284,7 @@
         <v>26.48</v>
       </c>
       <c r="J353">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P353" t="str">
         <v>#488fea</v>
@@ -16328,7 +16328,7 @@
         <v>30.4</v>
       </c>
       <c r="J354">
-        <v>124.91</v>
+        <v>125</v>
       </c>
       <c r="P354" t="str">
         <v>#488fea</v>
@@ -16372,7 +16372,7 @@
         <v>28.46</v>
       </c>
       <c r="J355">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P355" t="str">
         <v>#488fea</v>
@@ -16416,7 +16416,7 @@
         <v>26.65</v>
       </c>
       <c r="J356">
-        <v>109.52</v>
+        <v>110</v>
       </c>
       <c r="P356" t="str">
         <v>#488fea</v>
@@ -16460,7 +16460,7 @@
         <v>26.48</v>
       </c>
       <c r="J357">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P357" t="str">
         <v>#488fea</v>
@@ -16504,7 +16504,7 @@
         <v>26.48</v>
       </c>
       <c r="J358">
-        <v>108.8</v>
+        <v>108</v>
       </c>
       <c r="P358" t="str">
         <v>#488fea</v>
@@ -16548,7 +16548,7 @@
         <v>30.39</v>
       </c>
       <c r="J359">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N359">
         <v>81897.4</v>
@@ -16595,7 +16595,7 @@
         <v>28.46</v>
       </c>
       <c r="J360">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P360" t="str">
         <v>#488fea</v>
@@ -16639,7 +16639,7 @@
         <v>26.66</v>
       </c>
       <c r="J361">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P361" t="str">
         <v>#488fea</v>
@@ -16683,7 +16683,7 @@
         <v>26.43</v>
       </c>
       <c r="J362">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P362" t="str">
         <v>#488fea</v>
@@ -16727,7 +16727,7 @@
         <v>26.42</v>
       </c>
       <c r="J363">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P363" t="str">
         <v>#488fea</v>
@@ -16771,7 +16771,7 @@
         <v>30.39</v>
       </c>
       <c r="J364">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P364" t="str">
         <v>#488fea</v>
@@ -16815,7 +16815,7 @@
         <v>28.46</v>
       </c>
       <c r="J365">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P365" t="str">
         <v>#488fea</v>
@@ -16859,7 +16859,7 @@
         <v>26.66</v>
       </c>
       <c r="J366">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P366" t="str">
         <v>#488fea</v>
@@ -16903,7 +16903,7 @@
         <v>26.43</v>
       </c>
       <c r="J367">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P367" t="str">
         <v>#488fea</v>
@@ -16947,7 +16947,7 @@
         <v>26.42</v>
       </c>
       <c r="J368">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P368" t="str">
         <v>#488fea</v>
@@ -16991,7 +16991,7 @@
         <v>30.39</v>
       </c>
       <c r="J369">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N369">
         <v>81597.4</v>
@@ -17038,7 +17038,7 @@
         <v>28.46</v>
       </c>
       <c r="J370">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P370" t="str">
         <v>#488fea</v>
@@ -17082,7 +17082,7 @@
         <v>26.66</v>
       </c>
       <c r="J371">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P371" t="str">
         <v>#488fea</v>
@@ -17126,7 +17126,7 @@
         <v>26.43</v>
       </c>
       <c r="J372">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P372" t="str">
         <v>#488fea</v>
@@ -17170,7 +17170,7 @@
         <v>26.42</v>
       </c>
       <c r="J373">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P373" t="str">
         <v>#488fea</v>
@@ -17214,7 +17214,7 @@
         <v>30.39</v>
       </c>
       <c r="J374">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P374" t="str">
         <v>#488fea</v>
@@ -17258,7 +17258,7 @@
         <v>28.46</v>
       </c>
       <c r="J375">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P375" t="str">
         <v>#488fea</v>
@@ -17302,7 +17302,7 @@
         <v>26.66</v>
       </c>
       <c r="J376">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P376" t="str">
         <v>#488fea</v>
@@ -17346,7 +17346,7 @@
         <v>26.43</v>
       </c>
       <c r="J377">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P377" t="str">
         <v>#488fea</v>
@@ -17390,7 +17390,7 @@
         <v>26.42</v>
       </c>
       <c r="J378">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P378" t="str">
         <v>#488fea</v>
@@ -17434,7 +17434,7 @@
         <v>30.39</v>
       </c>
       <c r="J379">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N379">
         <v>81497.4</v>
@@ -17481,7 +17481,7 @@
         <v>28.46</v>
       </c>
       <c r="J380">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P380" t="str">
         <v>#488fea</v>
@@ -17525,7 +17525,7 @@
         <v>26.66</v>
       </c>
       <c r="J381">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P381" t="str">
         <v>#488fea</v>
@@ -17569,7 +17569,7 @@
         <v>26.43</v>
       </c>
       <c r="J382">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P382" t="str">
         <v>#488fea</v>
@@ -17613,7 +17613,7 @@
         <v>26.42</v>
       </c>
       <c r="J383">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P383" t="str">
         <v>#488fea</v>
@@ -17657,7 +17657,7 @@
         <v>30.39</v>
       </c>
       <c r="J384">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P384" t="str">
         <v>#488fea</v>
@@ -17701,7 +17701,7 @@
         <v>28.46</v>
       </c>
       <c r="J385">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P385" t="str">
         <v>#488fea</v>
@@ -17745,7 +17745,7 @@
         <v>26.66</v>
       </c>
       <c r="J386">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P386" t="str">
         <v>#488fea</v>
@@ -17789,7 +17789,7 @@
         <v>26.43</v>
       </c>
       <c r="J387">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P387" t="str">
         <v>#488fea</v>
@@ -17833,7 +17833,7 @@
         <v>26.42</v>
       </c>
       <c r="J388">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P388" t="str">
         <v>#488fea</v>
@@ -17877,7 +17877,7 @@
         <v>30.39</v>
       </c>
       <c r="J389">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N389">
         <v>81297.4</v>
@@ -17924,7 +17924,7 @@
         <v>28.46</v>
       </c>
       <c r="J390">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N390">
         <v>77675.69</v>
@@ -17971,7 +17971,7 @@
         <v>26.66</v>
       </c>
       <c r="J391">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P391" t="str">
         <v>#488fea</v>
@@ -18015,7 +18015,7 @@
         <v>26.43</v>
       </c>
       <c r="J392">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P392" t="str">
         <v>#488fea</v>
@@ -18059,7 +18059,7 @@
         <v>26.42</v>
       </c>
       <c r="J393">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P393" t="str">
         <v>#488fea</v>
@@ -18103,7 +18103,7 @@
         <v>30.39</v>
       </c>
       <c r="J394">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P394" t="str">
         <v>#488fea</v>
@@ -18147,7 +18147,7 @@
         <v>28.46</v>
       </c>
       <c r="J395">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P395" t="str">
         <v>#488fea</v>
@@ -18191,7 +18191,7 @@
         <v>26.66</v>
       </c>
       <c r="J396">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P396" t="str">
         <v>#488fea</v>
@@ -18235,7 +18235,7 @@
         <v>26.43</v>
       </c>
       <c r="J397">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P397" t="str">
         <v>#488fea</v>
@@ -18279,7 +18279,7 @@
         <v>26.42</v>
       </c>
       <c r="J398">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P398" t="str">
         <v>#488fea</v>
@@ -18323,7 +18323,7 @@
         <v>30.39</v>
       </c>
       <c r="J399">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N399">
         <v>80997.4</v>
@@ -18370,7 +18370,7 @@
         <v>28.46</v>
       </c>
       <c r="J400">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P400" t="str">
         <v>#488fea</v>
@@ -18411,7 +18411,7 @@
         <v>26.66</v>
       </c>
       <c r="J401">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P401" t="str">
         <v>#488fea</v>
@@ -18455,7 +18455,7 @@
         <v>26.43</v>
       </c>
       <c r="J402">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P402" t="str">
         <v>#488fea</v>
@@ -18499,7 +18499,7 @@
         <v>26.42</v>
       </c>
       <c r="J403">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P403" t="str">
         <v>#488fea</v>
@@ -18543,7 +18543,7 @@
         <v>30.39</v>
       </c>
       <c r="J404">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N404">
         <v>80997.4</v>
@@ -18590,7 +18590,7 @@
         <v>28.46</v>
       </c>
       <c r="J405">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P405" t="str">
         <v>#488fea</v>
@@ -18634,7 +18634,7 @@
         <v>26.66</v>
       </c>
       <c r="J406">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P406" t="str">
         <v>#488fea</v>
@@ -18678,7 +18678,7 @@
         <v>26.43</v>
       </c>
       <c r="J407">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P407" t="str">
         <v>#488fea</v>
@@ -18722,7 +18722,7 @@
         <v>26.42</v>
       </c>
       <c r="J408">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P408" t="str">
         <v>#488fea</v>
@@ -18766,7 +18766,7 @@
         <v>30.39</v>
       </c>
       <c r="J409">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P409" t="str">
         <v>#488fea</v>
@@ -18810,7 +18810,7 @@
         <v>28.46</v>
       </c>
       <c r="J410">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P410" t="str">
         <v>#488fea</v>
@@ -18854,7 +18854,7 @@
         <v>26.66</v>
       </c>
       <c r="J411">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P411" t="str">
         <v>#488fea</v>
@@ -18898,7 +18898,7 @@
         <v>26.43</v>
       </c>
       <c r="J412">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P412" t="str">
         <v>#488fea</v>
@@ -18942,7 +18942,7 @@
         <v>26.42</v>
       </c>
       <c r="J413">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P413" t="str">
         <v>#488fea</v>
@@ -18986,7 +18986,7 @@
         <v>30.39</v>
       </c>
       <c r="J414">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N414">
         <v>80101.02</v>
@@ -19033,7 +19033,7 @@
         <v>28.46</v>
       </c>
       <c r="J415">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P415" t="str">
         <v>#488fea</v>
@@ -19077,7 +19077,7 @@
         <v>26.66</v>
       </c>
       <c r="J416">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P416" t="str">
         <v>#488fea</v>
@@ -19121,7 +19121,7 @@
         <v>26.43</v>
       </c>
       <c r="J417">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P417" t="str">
         <v>#488fea</v>
@@ -19165,7 +19165,7 @@
         <v>26.42</v>
       </c>
       <c r="J418">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P418" t="str">
         <v>#488fea</v>
@@ -19209,7 +19209,7 @@
         <v>30.39</v>
       </c>
       <c r="J419">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N419">
         <v>80101.02</v>
@@ -19256,7 +19256,7 @@
         <v>28.46</v>
       </c>
       <c r="J420">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P420" t="str">
         <v>#488fea</v>
@@ -19300,7 +19300,7 @@
         <v>26.66</v>
       </c>
       <c r="J421">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P421" t="str">
         <v>#488fea</v>
@@ -19344,7 +19344,7 @@
         <v>26.43</v>
       </c>
       <c r="J422">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P422" t="str">
         <v>#488fea</v>
@@ -19388,7 +19388,7 @@
         <v>26.42</v>
       </c>
       <c r="J423">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P423" t="str">
         <v>#488fea</v>
@@ -19432,7 +19432,7 @@
         <v>30.39</v>
       </c>
       <c r="J424">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N424">
         <v>80033.19</v>
@@ -19479,7 +19479,7 @@
         <v>28.46</v>
       </c>
       <c r="J425">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P425" t="str">
         <v>#488fea</v>
@@ -19523,7 +19523,7 @@
         <v>26.66</v>
       </c>
       <c r="J426">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P426" t="str">
         <v>#488fea</v>
@@ -19567,7 +19567,7 @@
         <v>26.43</v>
       </c>
       <c r="J427">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P427" t="str">
         <v>#488fea</v>
@@ -19611,7 +19611,7 @@
         <v>26.42</v>
       </c>
       <c r="J428">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P428" t="str">
         <v>#488fea</v>
@@ -19655,7 +19655,7 @@
         <v>30.39</v>
       </c>
       <c r="J429">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P429" t="str">
         <v>#488fea</v>
@@ -19699,7 +19699,7 @@
         <v>28.46</v>
       </c>
       <c r="J430">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P430" t="str">
         <v>#488fea</v>
@@ -19743,7 +19743,7 @@
         <v>26.66</v>
       </c>
       <c r="J431">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P431" t="str">
         <v>#488fea</v>
@@ -19787,7 +19787,7 @@
         <v>26.43</v>
       </c>
       <c r="J432">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P432" t="str">
         <v>#488fea</v>
@@ -19831,7 +19831,7 @@
         <v>26.42</v>
       </c>
       <c r="J433">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P433" t="str">
         <v>#488fea</v>
@@ -19875,7 +19875,7 @@
         <v>30.39</v>
       </c>
       <c r="J434">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P434" t="str">
         <v>#488fea</v>
@@ -19919,7 +19919,7 @@
         <v>28.46</v>
       </c>
       <c r="J435">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P435" t="str">
         <v>#488fea</v>
@@ -19963,7 +19963,7 @@
         <v>26.66</v>
       </c>
       <c r="J436">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P436" t="str">
         <v>#488fea</v>
@@ -20007,7 +20007,7 @@
         <v>26.43</v>
       </c>
       <c r="J437">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P437" t="str">
         <v>#488fea</v>
@@ -20051,7 +20051,7 @@
         <v>26.42</v>
       </c>
       <c r="J438">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P438" t="str">
         <v>#488fea</v>
@@ -20095,7 +20095,7 @@
         <v>30.39</v>
       </c>
       <c r="J439">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N439">
         <v>79581.38</v>
@@ -20142,7 +20142,7 @@
         <v>28.46</v>
       </c>
       <c r="J440">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P440" t="str">
         <v>#488fea</v>
@@ -20186,7 +20186,7 @@
         <v>26.66</v>
       </c>
       <c r="J441">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P441" t="str">
         <v>#488fea</v>
@@ -20230,7 +20230,7 @@
         <v>26.43</v>
       </c>
       <c r="J442">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P442" t="str">
         <v>#488fea</v>
@@ -20274,7 +20274,7 @@
         <v>26.42</v>
       </c>
       <c r="J443">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P443" t="str">
         <v>#488fea</v>
@@ -20318,7 +20318,7 @@
         <v>30.39</v>
       </c>
       <c r="J444">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N444">
         <v>79381.38</v>
@@ -20365,7 +20365,7 @@
         <v>28.46</v>
       </c>
       <c r="J445">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P445" t="str">
         <v>#488fea</v>
@@ -20409,7 +20409,7 @@
         <v>26.66</v>
       </c>
       <c r="J446">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P446" t="str">
         <v>#488fea</v>
@@ -20453,7 +20453,7 @@
         <v>26.43</v>
       </c>
       <c r="J447">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P447" t="str">
         <v>#488fea</v>
@@ -20497,7 +20497,7 @@
         <v>26.42</v>
       </c>
       <c r="J448">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P448" t="str">
         <v>#488fea</v>
@@ -20541,7 +20541,7 @@
         <v>30.39</v>
       </c>
       <c r="J449">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P449" t="str">
         <v>#488fea</v>
@@ -20585,7 +20585,7 @@
         <v>28.46</v>
       </c>
       <c r="J450">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P450" t="str">
         <v>#488fea</v>
@@ -20629,7 +20629,7 @@
         <v>26.66</v>
       </c>
       <c r="J451">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P451" t="str">
         <v>#488fea</v>
@@ -20673,7 +20673,7 @@
         <v>26.43</v>
       </c>
       <c r="J452">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P452" t="str">
         <v>#488fea</v>
@@ -20717,7 +20717,7 @@
         <v>26.42</v>
       </c>
       <c r="J453">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P453" t="str">
         <v>#488fea</v>
@@ -20761,7 +20761,7 @@
         <v>30.39</v>
       </c>
       <c r="J454">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N454">
         <v>78709.03</v>
@@ -20808,7 +20808,7 @@
         <v>28.46</v>
       </c>
       <c r="J455">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="N455">
         <v>75302</v>
@@ -20855,7 +20855,7 @@
         <v>26.66</v>
       </c>
       <c r="J456">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P456" t="str">
         <v>#488fea</v>
@@ -20899,7 +20899,7 @@
         <v>26.43</v>
       </c>
       <c r="J457">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P457" t="str">
         <v>#488fea</v>
@@ -20943,7 +20943,7 @@
         <v>26.42</v>
       </c>
       <c r="J458">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P458" t="str">
         <v>#488fea</v>
@@ -20987,7 +20987,7 @@
         <v>30.39</v>
       </c>
       <c r="J459">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="N459">
         <v>78209.03</v>
@@ -21034,7 +21034,7 @@
         <v>28.46</v>
       </c>
       <c r="J460">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P460" t="str">
         <v>#488fea</v>
@@ -21078,7 +21078,7 @@
         <v>26.66</v>
       </c>
       <c r="J461">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P461" t="str">
         <v>#488fea</v>
@@ -21122,7 +21122,7 @@
         <v>26.43</v>
       </c>
       <c r="J462">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P462" t="str">
         <v>#488fea</v>
@@ -21166,7 +21166,7 @@
         <v>26.42</v>
       </c>
       <c r="J463">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P463" t="str">
         <v>#488fea</v>
@@ -21210,7 +21210,7 @@
         <v>30.39</v>
       </c>
       <c r="J464">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P464" t="str">
         <v>#488fea</v>
@@ -21254,7 +21254,7 @@
         <v>28.46</v>
       </c>
       <c r="J465">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P465" t="str">
         <v>#488fea</v>
@@ -21298,7 +21298,7 @@
         <v>26.66</v>
       </c>
       <c r="J466">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P466" t="str">
         <v>#488fea</v>
@@ -21342,7 +21342,7 @@
         <v>26.43</v>
       </c>
       <c r="J467">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P467" t="str">
         <v>#488fea</v>
@@ -21386,7 +21386,7 @@
         <v>26.42</v>
       </c>
       <c r="J468">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P468" t="str">
         <v>#488fea</v>
@@ -21430,7 +21430,7 @@
         <v>30.39</v>
       </c>
       <c r="J469">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P469" t="str">
         <v>#488fea</v>
@@ -21474,7 +21474,7 @@
         <v>28.46</v>
       </c>
       <c r="J470">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P470" t="str">
         <v>#488fea</v>
@@ -21518,7 +21518,7 @@
         <v>26.66</v>
       </c>
       <c r="J471">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P471" t="str">
         <v>#488fea</v>
@@ -21562,7 +21562,7 @@
         <v>26.43</v>
       </c>
       <c r="J472">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P472" t="str">
         <v>#488fea</v>
@@ -21606,7 +21606,7 @@
         <v>26.42</v>
       </c>
       <c r="J473">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P473" t="str">
         <v>#488fea</v>
@@ -21650,7 +21650,7 @@
         <v>30.39</v>
       </c>
       <c r="J474">
-        <v>124.84</v>
+        <v>125</v>
       </c>
       <c r="P474" t="str">
         <v>#488fea</v>
@@ -21694,7 +21694,7 @@
         <v>28.46</v>
       </c>
       <c r="J475">
-        <v>116.92</v>
+        <v>117</v>
       </c>
       <c r="P475" t="str">
         <v>#488fea</v>
@@ -21738,7 +21738,7 @@
         <v>26.66</v>
       </c>
       <c r="J476">
-        <v>109.53</v>
+        <v>110</v>
       </c>
       <c r="P476" t="str">
         <v>#488fea</v>
@@ -21782,7 +21782,7 @@
         <v>26.43</v>
       </c>
       <c r="J477">
-        <v>108.56</v>
+        <v>108</v>
       </c>
       <c r="P477" t="str">
         <v>#488fea</v>
@@ -21826,7 +21826,7 @@
         <v>26.42</v>
       </c>
       <c r="J478">
-        <v>108.55</v>
+        <v>108</v>
       </c>
       <c r="P478" t="str">
         <v>#488fea</v>
@@ -21870,7 +21870,7 @@
         <v>31.16</v>
       </c>
       <c r="J479">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P479" t="str">
         <v>#488fea</v>
@@ -21914,7 +21914,7 @@
         <v>29.16</v>
       </c>
       <c r="J480">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P480" t="str">
         <v>#488fea</v>
@@ -21958,7 +21958,7 @@
         <v>27.32</v>
       </c>
       <c r="J481">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P481" t="str">
         <v>#488fea</v>
@@ -22002,7 +22002,7 @@
         <v>27.13</v>
       </c>
       <c r="J482">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="N482">
         <v>68996.9</v>
@@ -22049,7 +22049,7 @@
         <v>27.13</v>
       </c>
       <c r="J483">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P483" t="str">
         <v>#488fea</v>
@@ -22093,7 +22093,7 @@
         <v>31.16</v>
       </c>
       <c r="J484">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P484" t="str">
         <v>#488fea</v>
@@ -22137,7 +22137,7 @@
         <v>29.16</v>
       </c>
       <c r="J485">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P485" t="str">
         <v>#488fea</v>
@@ -22181,7 +22181,7 @@
         <v>27.32</v>
       </c>
       <c r="J486">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P486" t="str">
         <v>#488fea</v>
@@ -22225,7 +22225,7 @@
         <v>27.13</v>
       </c>
       <c r="J487">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P487" t="str">
         <v>#488fea</v>
@@ -22269,7 +22269,7 @@
         <v>27.13</v>
       </c>
       <c r="J488">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P488" t="str">
         <v>#488fea</v>
@@ -22313,7 +22313,7 @@
         <v>31.16</v>
       </c>
       <c r="J489">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P489" t="str">
         <v>#488fea</v>
@@ -22357,7 +22357,7 @@
         <v>29.16</v>
       </c>
       <c r="J490">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P490" t="str">
         <v>#488fea</v>
@@ -22401,7 +22401,7 @@
         <v>27.32</v>
       </c>
       <c r="J491">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P491" t="str">
         <v>#488fea</v>
@@ -22445,7 +22445,7 @@
         <v>27.13</v>
       </c>
       <c r="J492">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P492" t="str">
         <v>#488fea</v>
@@ -22489,7 +22489,7 @@
         <v>27.13</v>
       </c>
       <c r="J493">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P493" t="str">
         <v>#488fea</v>
@@ -22533,7 +22533,7 @@
         <v>31.16</v>
       </c>
       <c r="J494">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P494" t="str">
         <v>#488fea</v>
@@ -22577,7 +22577,7 @@
         <v>29.16</v>
       </c>
       <c r="J495">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="N495">
         <v>74435.94</v>
@@ -22624,7 +22624,7 @@
         <v>27.32</v>
       </c>
       <c r="J496">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P496" t="str">
         <v>#488fea</v>
@@ -22668,7 +22668,7 @@
         <v>27.13</v>
       </c>
       <c r="J497">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P497" t="str">
         <v>#488fea</v>
@@ -22712,7 +22712,7 @@
         <v>27.13</v>
       </c>
       <c r="J498">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P498" t="str">
         <v>#488fea</v>
@@ -22756,7 +22756,7 @@
         <v>31.16</v>
       </c>
       <c r="J499">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P499" t="str">
         <v>#488fea</v>
@@ -22800,7 +22800,7 @@
         <v>29.16</v>
       </c>
       <c r="J500">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="N500">
         <v>74435.94</v>
@@ -22847,7 +22847,7 @@
         <v>27.32</v>
       </c>
       <c r="J501">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P501" t="str">
         <v>#488fea</v>
@@ -22891,7 +22891,7 @@
         <v>27.13</v>
       </c>
       <c r="J502">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P502" t="str">
         <v>#488fea</v>
@@ -22935,7 +22935,7 @@
         <v>27.13</v>
       </c>
       <c r="J503">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P503" t="str">
         <v>#488fea</v>
@@ -22979,7 +22979,7 @@
         <v>31.16</v>
       </c>
       <c r="J504">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P504" t="str">
         <v>#488fea</v>
@@ -23023,7 +23023,7 @@
         <v>29.16</v>
       </c>
       <c r="J505">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P505" t="str">
         <v>#488fea</v>
@@ -23067,7 +23067,7 @@
         <v>27.32</v>
       </c>
       <c r="J506">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P506" t="str">
         <v>#488fea</v>
@@ -23111,7 +23111,7 @@
         <v>27.13</v>
       </c>
       <c r="J507">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P507" t="str">
         <v>#488fea</v>
@@ -23155,7 +23155,7 @@
         <v>27.13</v>
       </c>
       <c r="J508">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P508" t="str">
         <v>#488fea</v>
@@ -23199,7 +23199,7 @@
         <v>31.16</v>
       </c>
       <c r="J509">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P509" t="str">
         <v>#488fea</v>
@@ -23243,7 +23243,7 @@
         <v>29.16</v>
       </c>
       <c r="J510">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P510" t="str">
         <v>#488fea</v>
@@ -23287,7 +23287,7 @@
         <v>27.32</v>
       </c>
       <c r="J511">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P511" t="str">
         <v>#488fea</v>
@@ -23331,7 +23331,7 @@
         <v>27.13</v>
       </c>
       <c r="J512">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P512" t="str">
         <v>#488fea</v>
@@ -23375,7 +23375,7 @@
         <v>27.13</v>
       </c>
       <c r="J513">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P513" t="str">
         <v>#488fea</v>
@@ -23419,7 +23419,7 @@
         <v>31.16</v>
       </c>
       <c r="J514">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P514" t="str">
         <v>#488fea</v>
@@ -23463,7 +23463,7 @@
         <v>29.16</v>
       </c>
       <c r="J515">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P515" t="str">
         <v>#488fea</v>
@@ -23507,7 +23507,7 @@
         <v>27.32</v>
       </c>
       <c r="J516">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P516" t="str">
         <v>#488fea</v>
@@ -23551,7 +23551,7 @@
         <v>27.13</v>
       </c>
       <c r="J517">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P517" t="str">
         <v>#488fea</v>
@@ -23595,7 +23595,7 @@
         <v>27.13</v>
       </c>
       <c r="J518">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P518" t="str">
         <v>#488fea</v>
@@ -23639,7 +23639,7 @@
         <v>31.16</v>
       </c>
       <c r="J519">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P519" t="str">
         <v>#488fea</v>
@@ -23683,7 +23683,7 @@
         <v>29.16</v>
       </c>
       <c r="J520">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P520" t="str">
         <v>#488fea</v>
@@ -23727,7 +23727,7 @@
         <v>27.32</v>
       </c>
       <c r="J521">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P521" t="str">
         <v>#488fea</v>
@@ -23771,7 +23771,7 @@
         <v>27.13</v>
       </c>
       <c r="J522">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P522" t="str">
         <v>#488fea</v>
@@ -23815,7 +23815,7 @@
         <v>27.13</v>
       </c>
       <c r="J523">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P523" t="str">
         <v>#488fea</v>
@@ -23859,7 +23859,7 @@
         <v>31.16</v>
       </c>
       <c r="J524">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P524" t="str">
         <v>#488fea</v>
@@ -23903,7 +23903,7 @@
         <v>29.16</v>
       </c>
       <c r="J525">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P525" t="str">
         <v>#488fea</v>
@@ -23947,7 +23947,7 @@
         <v>27.32</v>
       </c>
       <c r="J526">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P526" t="str">
         <v>#488fea</v>
@@ -23991,7 +23991,7 @@
         <v>27.13</v>
       </c>
       <c r="J527">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P527" t="str">
         <v>#488fea</v>
@@ -24035,7 +24035,7 @@
         <v>27.13</v>
       </c>
       <c r="J528">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P528" t="str">
         <v>#488fea</v>
@@ -24079,7 +24079,7 @@
         <v>31.16</v>
       </c>
       <c r="J529">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P529" t="str">
         <v>#488fea</v>
@@ -24123,7 +24123,7 @@
         <v>29.16</v>
       </c>
       <c r="J530">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P530" t="str">
         <v>#488fea</v>
@@ -24167,7 +24167,7 @@
         <v>27.32</v>
       </c>
       <c r="J531">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P531" t="str">
         <v>#488fea</v>
@@ -24211,7 +24211,7 @@
         <v>27.13</v>
       </c>
       <c r="J532">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P532" t="str">
         <v>#488fea</v>
@@ -24255,7 +24255,7 @@
         <v>27.13</v>
       </c>
       <c r="J533">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P533" t="str">
         <v>#488fea</v>
@@ -24299,7 +24299,7 @@
         <v>31.16</v>
       </c>
       <c r="J534">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P534" t="str">
         <v>#488fea</v>
@@ -24343,7 +24343,7 @@
         <v>29.16</v>
       </c>
       <c r="J535">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P535" t="str">
         <v>#488fea</v>
@@ -24387,7 +24387,7 @@
         <v>27.32</v>
       </c>
       <c r="J536">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P536" t="str">
         <v>#488fea</v>
@@ -24431,7 +24431,7 @@
         <v>27.13</v>
       </c>
       <c r="J537">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P537" t="str">
         <v>#488fea</v>
@@ -24475,7 +24475,7 @@
         <v>27.13</v>
       </c>
       <c r="J538">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P538" t="str">
         <v>#488fea</v>
@@ -24519,7 +24519,7 @@
         <v>31.16</v>
       </c>
       <c r="J539">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P539" t="str">
         <v>#488fea</v>
@@ -24563,7 +24563,7 @@
         <v>29.16</v>
       </c>
       <c r="J540">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P540" t="str">
         <v>#488fea</v>
@@ -24607,7 +24607,7 @@
         <v>27.32</v>
       </c>
       <c r="J541">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P541" t="str">
         <v>#488fea</v>
@@ -24651,7 +24651,7 @@
         <v>27.13</v>
       </c>
       <c r="J542">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P542" t="str">
         <v>#488fea</v>
@@ -24695,7 +24695,7 @@
         <v>27.13</v>
       </c>
       <c r="J543">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P543" t="str">
         <v>#488fea</v>
@@ -24739,7 +24739,7 @@
         <v>31.16</v>
       </c>
       <c r="J544">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P544" t="str">
         <v>#488fea</v>
@@ -24783,7 +24783,7 @@
         <v>29.16</v>
       </c>
       <c r="J545">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P545" t="str">
         <v>#488fea</v>
@@ -24827,7 +24827,7 @@
         <v>27.32</v>
       </c>
       <c r="J546">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P546" t="str">
         <v>#488fea</v>
@@ -24871,7 +24871,7 @@
         <v>27.13</v>
       </c>
       <c r="J547">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P547" t="str">
         <v>#488fea</v>
@@ -24915,7 +24915,7 @@
         <v>27.13</v>
       </c>
       <c r="J548">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P548" t="str">
         <v>#488fea</v>
@@ -24959,7 +24959,7 @@
         <v>31.16</v>
       </c>
       <c r="J549">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P549" t="str">
         <v>#488fea</v>
@@ -25003,7 +25003,7 @@
         <v>29.16</v>
       </c>
       <c r="J550">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P550" t="str">
         <v>#488fea</v>
@@ -25047,7 +25047,7 @@
         <v>27.32</v>
       </c>
       <c r="J551">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P551" t="str">
         <v>#488fea</v>
@@ -25091,7 +25091,7 @@
         <v>27.13</v>
       </c>
       <c r="J552">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P552" t="str">
         <v>#488fea</v>
@@ -25135,7 +25135,7 @@
         <v>27.13</v>
       </c>
       <c r="J553">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P553" t="str">
         <v>#488fea</v>
@@ -25179,7 +25179,7 @@
         <v>31.16</v>
       </c>
       <c r="J554">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P554" t="str">
         <v>#488fea</v>
@@ -25223,7 +25223,7 @@
         <v>29.16</v>
       </c>
       <c r="J555">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P555" t="str">
         <v>#488fea</v>
@@ -25267,7 +25267,7 @@
         <v>27.32</v>
       </c>
       <c r="J556">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P556" t="str">
         <v>#488fea</v>
@@ -25311,7 +25311,7 @@
         <v>27.13</v>
       </c>
       <c r="J557">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P557" t="str">
         <v>#488fea</v>
@@ -25355,7 +25355,7 @@
         <v>27.13</v>
       </c>
       <c r="J558">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P558" t="str">
         <v>#488fea</v>
@@ -25399,7 +25399,7 @@
         <v>31.16</v>
       </c>
       <c r="J559">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P559" t="str">
         <v>#488fea</v>
@@ -25443,7 +25443,7 @@
         <v>29.16</v>
       </c>
       <c r="J560">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P560" t="str">
         <v>#488fea</v>
@@ -25487,7 +25487,7 @@
         <v>27.32</v>
       </c>
       <c r="J561">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P561" t="str">
         <v>#488fea</v>
@@ -25531,7 +25531,7 @@
         <v>27.13</v>
       </c>
       <c r="J562">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P562" t="str">
         <v>#488fea</v>
@@ -25575,7 +25575,7 @@
         <v>27.13</v>
       </c>
       <c r="J563">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P563" t="str">
         <v>#488fea</v>
@@ -25619,7 +25619,7 @@
         <v>31.16</v>
       </c>
       <c r="J564">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P564" t="str">
         <v>#488fea</v>
@@ -25663,7 +25663,7 @@
         <v>29.16</v>
       </c>
       <c r="J565">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P565" t="str">
         <v>#488fea</v>
@@ -25707,7 +25707,7 @@
         <v>27.32</v>
       </c>
       <c r="J566">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P566" t="str">
         <v>#488fea</v>
@@ -25751,7 +25751,7 @@
         <v>27.13</v>
       </c>
       <c r="J567">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P567" t="str">
         <v>#488fea</v>
@@ -25795,7 +25795,7 @@
         <v>27.13</v>
       </c>
       <c r="J568">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P568" t="str">
         <v>#488fea</v>
@@ -25839,7 +25839,7 @@
         <v>31.16</v>
       </c>
       <c r="J569">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P569" t="str">
         <v>#488fea</v>
@@ -25883,7 +25883,7 @@
         <v>29.16</v>
       </c>
       <c r="J570">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P570" t="str">
         <v>#488fea</v>
@@ -25927,7 +25927,7 @@
         <v>27.32</v>
       </c>
       <c r="J571">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P571" t="str">
         <v>#488fea</v>
@@ -25971,7 +25971,7 @@
         <v>27.13</v>
       </c>
       <c r="J572">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P572" t="str">
         <v>#488fea</v>
@@ -26015,7 +26015,7 @@
         <v>27.13</v>
       </c>
       <c r="J573">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P573" t="str">
         <v>#488fea</v>
@@ -26059,7 +26059,7 @@
         <v>31.16</v>
       </c>
       <c r="J574">
-        <v>125.67</v>
+        <v>125</v>
       </c>
       <c r="P574" t="str">
         <v>#488fea</v>
@@ -26103,7 +26103,7 @@
         <v>29.16</v>
       </c>
       <c r="J575">
-        <v>117.62</v>
+        <v>117</v>
       </c>
       <c r="P575" t="str">
         <v>#488fea</v>
@@ -26147,7 +26147,7 @@
         <v>27.32</v>
       </c>
       <c r="J576">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P576" t="str">
         <v>#488fea</v>
@@ -26191,7 +26191,7 @@
         <v>27.13</v>
       </c>
       <c r="J577">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P577" t="str">
         <v>#488fea</v>
@@ -26235,7 +26235,7 @@
         <v>27.13</v>
       </c>
       <c r="J578">
-        <v>109.45</v>
+        <v>108</v>
       </c>
       <c r="P578" t="str">
         <v>#488fea</v>
@@ -26279,7 +26279,7 @@
         <v>31.14</v>
       </c>
       <c r="J579">
-        <v>125.59</v>
+        <v>125</v>
       </c>
       <c r="P579" t="str">
         <v>#488fea</v>
@@ -26323,7 +26323,7 @@
         <v>29.17</v>
       </c>
       <c r="J580">
-        <v>117.63</v>
+        <v>117</v>
       </c>
       <c r="P580" t="str">
         <v>#488fea</v>
@@ -26367,7 +26367,7 @@
         <v>27.32</v>
       </c>
       <c r="J581">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P581" t="str">
         <v>#488fea</v>
@@ -26411,7 +26411,7 @@
         <v>27.08</v>
       </c>
       <c r="J582">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P582" t="str">
         <v>#488fea</v>
@@ -26455,7 +26455,7 @@
         <v>27.08</v>
       </c>
       <c r="J583">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P583" t="str">
         <v>#488fea</v>
@@ -26499,7 +26499,7 @@
         <v>31.14</v>
       </c>
       <c r="J584">
-        <v>125.59</v>
+        <v>125</v>
       </c>
       <c r="P584" t="str">
         <v>#488fea</v>
@@ -26543,7 +26543,7 @@
         <v>29.17</v>
       </c>
       <c r="J585">
-        <v>117.63</v>
+        <v>117</v>
       </c>
       <c r="P585" t="str">
         <v>#488fea</v>
@@ -26587,7 +26587,7 @@
         <v>27.32</v>
       </c>
       <c r="J586">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P586" t="str">
         <v>#488fea</v>
@@ -26631,7 +26631,7 @@
         <v>27.08</v>
       </c>
       <c r="J587">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P587" t="str">
         <v>#488fea</v>
@@ -26675,7 +26675,7 @@
         <v>27.08</v>
       </c>
       <c r="J588">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P588" t="str">
         <v>#488fea</v>
@@ -26719,7 +26719,7 @@
         <v>31.14</v>
       </c>
       <c r="J589">
-        <v>125.59</v>
+        <v>125</v>
       </c>
       <c r="P589" t="str">
         <v>#488fea</v>
@@ -26763,7 +26763,7 @@
         <v>29.17</v>
       </c>
       <c r="J590">
-        <v>117.63</v>
+        <v>117</v>
       </c>
       <c r="P590" t="str">
         <v>#488fea</v>
@@ -26807,7 +26807,7 @@
         <v>27.32</v>
       </c>
       <c r="J591">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P591" t="str">
         <v>#488fea</v>
@@ -26851,7 +26851,7 @@
         <v>27.08</v>
       </c>
       <c r="J592">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P592" t="str">
         <v>#488fea</v>
@@ -26895,7 +26895,7 @@
         <v>27.08</v>
       </c>
       <c r="J593">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P593" t="str">
         <v>#488fea</v>
@@ -26939,7 +26939,7 @@
         <v>31.14</v>
       </c>
       <c r="J594">
-        <v>125.59</v>
+        <v>125</v>
       </c>
       <c r="P594" t="str">
         <v>#488fea</v>
@@ -26983,7 +26983,7 @@
         <v>29.17</v>
       </c>
       <c r="J595">
-        <v>117.63</v>
+        <v>117</v>
       </c>
       <c r="P595" t="str">
         <v>#488fea</v>
@@ -27027,7 +27027,7 @@
         <v>27.32</v>
       </c>
       <c r="J596">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P596" t="str">
         <v>#488fea</v>
@@ -27071,7 +27071,7 @@
         <v>27.08</v>
       </c>
       <c r="J597">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P597" t="str">
         <v>#488fea</v>
@@ -27115,7 +27115,7 @@
         <v>27.08</v>
       </c>
       <c r="J598">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P598" t="str">
         <v>#488fea</v>
@@ -27159,7 +27159,7 @@
         <v>31.14</v>
       </c>
       <c r="J599">
-        <v>125.59</v>
+        <v>125</v>
       </c>
       <c r="P599" t="str">
         <v>#488fea</v>
@@ -27203,7 +27203,7 @@
         <v>29.17</v>
       </c>
       <c r="J600">
-        <v>117.63</v>
+        <v>117</v>
       </c>
       <c r="P600" t="str">
         <v>#488fea</v>
@@ -27247,7 +27247,7 @@
         <v>27.32</v>
       </c>
       <c r="J601">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P601" t="str">
         <v>#488fea</v>
@@ -27291,7 +27291,7 @@
         <v>27.08</v>
       </c>
       <c r="J602">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P602" t="str">
         <v>#488fea</v>
@@ -27335,7 +27335,7 @@
         <v>27.08</v>
       </c>
       <c r="J603">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P603" t="str">
         <v>#488fea</v>
@@ -27379,7 +27379,7 @@
         <v>31.14</v>
       </c>
       <c r="J604">
-        <v>125.59</v>
+        <v>125</v>
       </c>
       <c r="P604" t="str">
         <v>#488fea</v>
@@ -27423,7 +27423,7 @@
         <v>29.17</v>
       </c>
       <c r="J605">
-        <v>117.63</v>
+        <v>117</v>
       </c>
       <c r="P605" t="str">
         <v>#488fea</v>
@@ -27467,7 +27467,7 @@
         <v>27.32</v>
       </c>
       <c r="J606">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P606" t="str">
         <v>#488fea</v>
@@ -27511,7 +27511,7 @@
         <v>27.08</v>
       </c>
       <c r="J607">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P607" t="str">
         <v>#488fea</v>
@@ -27555,7 +27555,7 @@
         <v>27.08</v>
       </c>
       <c r="J608">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P608" t="str">
         <v>#488fea</v>
@@ -27599,7 +27599,7 @@
         <v>31.14</v>
       </c>
       <c r="J609">
-        <v>125.59</v>
+        <v>125</v>
       </c>
       <c r="P609" t="str">
         <v>#488fea</v>
@@ -27643,7 +27643,7 @@
         <v>29.17</v>
       </c>
       <c r="J610">
-        <v>117.63</v>
+        <v>117</v>
       </c>
       <c r="P610" t="str">
         <v>#488fea</v>
@@ -27687,7 +27687,7 @@
         <v>27.32</v>
       </c>
       <c r="J611">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P611" t="str">
         <v>#488fea</v>
@@ -27731,7 +27731,7 @@
         <v>27.08</v>
       </c>
       <c r="J612">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P612" t="str">
         <v>#488fea</v>
@@ -27775,7 +27775,7 @@
         <v>27.08</v>
       </c>
       <c r="J613">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P613" t="str">
         <v>#488fea</v>
@@ -27819,7 +27819,7 @@
         <v>31.14</v>
       </c>
       <c r="J614">
-        <v>125.59</v>
+        <v>125</v>
       </c>
       <c r="P614" t="str">
         <v>#488fea</v>
@@ -27863,7 +27863,7 @@
         <v>29.17</v>
       </c>
       <c r="J615">
-        <v>117.63</v>
+        <v>117</v>
       </c>
       <c r="P615" t="str">
         <v>#488fea</v>
@@ -27907,7 +27907,7 @@
         <v>27.32</v>
       </c>
       <c r="J616">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P616" t="str">
         <v>#488fea</v>
@@ -27951,7 +27951,7 @@
         <v>27.08</v>
       </c>
       <c r="J617">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P617" t="str">
         <v>#488fea</v>
@@ -27995,7 +27995,7 @@
         <v>27.08</v>
       </c>
       <c r="J618">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P618" t="str">
         <v>#488fea</v>
@@ -28039,7 +28039,7 @@
         <v>31.14</v>
       </c>
       <c r="J619">
-        <v>125.59</v>
+        <v>125</v>
       </c>
       <c r="P619" t="str">
         <v>#488fea</v>
@@ -28083,7 +28083,7 @@
         <v>29.17</v>
       </c>
       <c r="J620">
-        <v>117.63</v>
+        <v>117</v>
       </c>
       <c r="P620" t="str">
         <v>#488fea</v>
@@ -28127,7 +28127,7 @@
         <v>27.32</v>
       </c>
       <c r="J621">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P621" t="str">
         <v>#488fea</v>
@@ -28171,7 +28171,7 @@
         <v>27.08</v>
       </c>
       <c r="J622">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P622" t="str">
         <v>#488fea</v>
@@ -28215,7 +28215,7 @@
         <v>27.08</v>
       </c>
       <c r="J623">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P623" t="str">
         <v>#488fea</v>
@@ -28259,7 +28259,7 @@
         <v>31.14</v>
       </c>
       <c r="J624">
-        <v>125.59</v>
+        <v>125</v>
       </c>
       <c r="P624" t="str">
         <v>#488fea</v>
@@ -28303,7 +28303,7 @@
         <v>29.17</v>
       </c>
       <c r="J625">
-        <v>117.63</v>
+        <v>117</v>
       </c>
       <c r="P625" t="str">
         <v>#488fea</v>
@@ -28347,7 +28347,7 @@
         <v>27.32</v>
       </c>
       <c r="J626">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P626" t="str">
         <v>#488fea</v>
@@ -28391,7 +28391,7 @@
         <v>27.08</v>
       </c>
       <c r="J627">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P627" t="str">
         <v>#488fea</v>
@@ -28435,7 +28435,7 @@
         <v>27.08</v>
       </c>
       <c r="J628">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P628" t="str">
         <v>#488fea</v>
@@ -28479,7 +28479,7 @@
         <v>31.14</v>
       </c>
       <c r="J629">
-        <v>125.59</v>
+        <v>125</v>
       </c>
       <c r="P629" t="str">
         <v>#488fea</v>
@@ -28523,7 +28523,7 @@
         <v>29.17</v>
       </c>
       <c r="J630">
-        <v>117.63</v>
+        <v>117</v>
       </c>
       <c r="P630" t="str">
         <v>#488fea</v>
@@ -28567,7 +28567,7 @@
         <v>27.32</v>
       </c>
       <c r="J631">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P631" t="str">
         <v>#488fea</v>
@@ -28611,7 +28611,7 @@
         <v>27.08</v>
       </c>
       <c r="J632">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P632" t="str">
         <v>#488fea</v>
@@ -28655,7 +28655,7 @@
         <v>27.08</v>
       </c>
       <c r="J633">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P633" t="str">
         <v>#488fea</v>
@@ -28699,7 +28699,7 @@
         <v>31.14</v>
       </c>
       <c r="J634">
-        <v>125.59</v>
+        <v>125</v>
       </c>
       <c r="P634" t="str">
         <v>#488fea</v>
@@ -28743,7 +28743,7 @@
         <v>29.17</v>
       </c>
       <c r="J635">
-        <v>117.63</v>
+        <v>117</v>
       </c>
       <c r="P635" t="str">
         <v>#488fea</v>
@@ -28787,7 +28787,7 @@
         <v>27.32</v>
       </c>
       <c r="J636">
-        <v>110.19</v>
+        <v>110</v>
       </c>
       <c r="P636" t="str">
         <v>#488fea</v>
@@ -28831,7 +28831,7 @@
         <v>27.08</v>
       </c>
       <c r="J637">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P637" t="str">
         <v>#488fea</v>
@@ -28875,7 +28875,7 @@
         <v>27.08</v>
       </c>
       <c r="J638">
-        <v>109.21</v>
+        <v>108</v>
       </c>
       <c r="P638" t="str">
         <v>#488fea</v>
